--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynologyDrive\Python\Varia\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994496D5-1B60-48AC-86F1-F6CB225EFCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578379F3-8955-49C1-89C1-3F83101D9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55690" yWindow="1630" windowWidth="37230" windowHeight="18430" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48920" yWindow="2360" windowWidth="37230" windowHeight="18430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="102">
   <si>
     <t>Seed</t>
   </si>
@@ -308,12 +308,6 @@
     <t>Luc</t>
   </si>
   <si>
-    <t>Dürst</t>
-  </si>
-  <si>
-    <t>Linus</t>
-  </si>
-  <si>
     <t>Hill Azpeitia</t>
   </si>
   <si>
@@ -386,9 +380,6 @@
     <t>Yanis</t>
   </si>
   <si>
-    <t>Marwin</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -396,6 +387,9 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>bye</t>
   </si>
 </sst>
 </file>
@@ -404,7 +398,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1346,7 +1340,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1748,8 +1742,8 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1821,10 +1815,10 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1855,10 +1849,10 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1889,10 +1883,10 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -1923,10 +1917,10 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -1991,10 +1985,10 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2025,10 +2019,10 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2059,10 +2053,10 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2127,10 +2121,10 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2161,10 +2155,10 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2195,10 +2189,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2229,7 +2223,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>41</v>
@@ -2263,10 +2257,10 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2297,10 +2291,10 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="38" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2324,33 +2318,33 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="38" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="58" t="str">
         <f>CONCATENATE($B$17," / ",$E$17)</f>
-        <v>Dürst / Dürst</v>
+        <v>bye / bye</v>
       </c>
       <c r="J17" s="41"/>
       <c r="K17" s="39"/>
       <c r="L17" s="58" t="str">
         <f>CONCATENATE($B$17," / ",$E$17)</f>
-        <v>Dürst / Dürst</v>
+        <v>bye / bye</v>
       </c>
       <c r="M17" s="55" t="str">
         <f>CONCATENATE($C$17," ",$B$17," / ",$F$17," ",$E$17)</f>
-        <v>Linus Dürst / Marwin Dürst</v>
+        <v>bye bye / bye bye</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2398,7 +2392,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
@@ -2488,21 +2482,19 @@
       </c>
       <c r="G2" s="5" t="str">
         <f>IF(Anmeldung!$I$17=" / ",CONCATENATE("Seed #",Anmeldung!$A$17),Anmeldung!$I$17)</f>
-        <v>Dürst / Dürst</v>
-      </c>
-      <c r="H2" s="67" t="str">
-        <f t="shared" ref="H2:H15" si="0">IF(L2=N2,"",SUM(IF(L2&gt;N2,1,0),IF(O2&gt;Q2,1,0),IF(R2&lt;=T2,0,1)))</f>
-        <v/>
+        <v>bye / bye</v>
+      </c>
+      <c r="H2" s="67">
+        <v>2</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="67" t="str">
-        <f t="shared" ref="J2:J15" si="1">IF(L2=N2,"",SUM(IF(L2&lt;N2,1,0),IF(O2&lt;Q2,1,0),IF(R2&gt;=T2,0,1)))</f>
-        <v/>
+      <c r="J2" s="67">
+        <v>0</v>
       </c>
       <c r="K2" s="93">
-        <f t="shared" ref="K2:K15" si="2">SUM(V2-U2)</f>
+        <f t="shared" ref="K2:K15" si="0">SUM(V2-U2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="86"/>
@@ -2527,7 +2519,7 @@
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
-        <f t="shared" ref="A3:A31" si="3">SUM(A2,1)</f>
+        <f t="shared" ref="A3:A31" si="1">SUM(A2,1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2551,18 +2543,18 @@
         <v>Charkin / Hrytsuk</v>
       </c>
       <c r="H3" s="67" t="str">
+        <f t="shared" ref="H2:H15" si="2">IF(L3=N3,"",SUM(IF(L3&gt;N3,1,0),IF(O3&gt;Q3,1,0),IF(R3&lt;=T3,0,1)))</f>
+        <v/>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="67" t="str">
+        <f t="shared" ref="J2:J15" si="3">IF(L3=N3,"",SUM(IF(L3&lt;N3,1,0),IF(O3&lt;Q3,1,0),IF(R3&gt;=T3,0,1)))</f>
+        <v/>
+      </c>
+      <c r="K3" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K3" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L3" s="86"/>
@@ -2587,7 +2579,7 @@
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2611,18 +2603,18 @@
         <v>Bothen / Arndt</v>
       </c>
       <c r="H4" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K4" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K4" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L4" s="86"/>
@@ -2647,7 +2639,7 @@
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2669,18 +2661,18 @@
         <v>Pérez / Lendzian</v>
       </c>
       <c r="H5" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K5" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K5" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="86"/>
@@ -2705,7 +2697,7 @@
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2727,18 +2719,18 @@
         <v>Ducret / Abassi</v>
       </c>
       <c r="H6" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K6" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="86"/>
@@ -2763,7 +2755,7 @@
     </row>
     <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2785,18 +2777,18 @@
         <v>Bosshard / Strebel</v>
       </c>
       <c r="H7" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K7" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K7" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="86"/>
@@ -2821,7 +2813,7 @@
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2843,18 +2835,18 @@
         <v>Mikami / Hofmann</v>
       </c>
       <c r="H8" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="86"/>
@@ -2879,7 +2871,7 @@
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2901,18 +2893,18 @@
         <v>Adamson / Müller</v>
       </c>
       <c r="H9" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" s="97">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K9" s="97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="104"/>
@@ -2937,7 +2929,7 @@
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="7">
@@ -2947,7 +2939,7 @@
       <c r="D10" s="100"/>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
-        <v>Loser Match #1</v>
+        <v>bye / bye</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
@@ -2956,19 +2948,17 @@
         <f>IF($H$3=$J$3,CONCATENATE("Loser Match #",$A$3),IF($H$3&lt;$J$3,$E$3,$G$3))</f>
         <v>Loser Match #2</v>
       </c>
-      <c r="H10" s="69" t="str">
+      <c r="H10" s="69">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="67">
+        <v>2</v>
+      </c>
+      <c r="K10" s="101">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K10" s="101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="102"/>
@@ -2993,7 +2983,7 @@
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="5">
@@ -3013,18 +3003,18 @@
         <v>Loser Match #4</v>
       </c>
       <c r="H11" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K11" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="86"/>
@@ -3049,7 +3039,7 @@
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="5">
@@ -3069,18 +3059,18 @@
         <v>Loser Match #6</v>
       </c>
       <c r="H12" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K12" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="86"/>
@@ -3105,7 +3095,7 @@
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="6">
@@ -3125,18 +3115,18 @@
         <v>Loser Match #8</v>
       </c>
       <c r="H13" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" s="97">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K13" s="97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="104"/>
@@ -3161,7 +3151,7 @@
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -3171,7 +3161,7 @@
       <c r="D14" s="100"/>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
-        <v>Winner Match #1</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>7</v>
@@ -3181,18 +3171,18 @@
         <v>Winner Match #2</v>
       </c>
       <c r="H14" s="69" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" s="101">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K14" s="101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="102"/>
@@ -3217,7 +3207,7 @@
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3237,18 +3227,18 @@
         <v>Winner Match #4</v>
       </c>
       <c r="H15" s="67" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="67" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" s="93">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="67" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K15" s="93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="86"/>
@@ -3273,7 +3263,7 @@
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3329,7 +3319,7 @@
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -3385,7 +3375,7 @@
     </row>
     <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="7">
@@ -3441,7 +3431,7 @@
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="5">
@@ -3497,7 +3487,7 @@
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="5">
@@ -3553,7 +3543,7 @@
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="6">
@@ -3563,7 +3553,7 @@
       <c r="D21" s="96"/>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
-        <v>Winner Match #9</v>
+        <v>Loser Match #2</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
@@ -3609,7 +3599,7 @@
     </row>
     <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3665,7 +3655,7 @@
     </row>
     <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -3721,7 +3711,7 @@
     </row>
     <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="7">
@@ -3777,7 +3767,7 @@
     </row>
     <row r="25" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="6">
@@ -3833,7 +3823,7 @@
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="7">
@@ -3889,7 +3879,7 @@
     </row>
     <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="6">
@@ -3945,7 +3935,7 @@
     </row>
     <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4001,7 +3991,7 @@
     </row>
     <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -4057,7 +4047,7 @@
     </row>
     <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="106" t="s">
@@ -4113,7 +4103,7 @@
     </row>
     <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4186,8 +4176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E65B55-65C4-4E99-BEFB-6647B9FBC277}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S1:S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4275,10 +4265,10 @@
         <v>End time</v>
       </c>
       <c r="R1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4304,15 +4294,15 @@
       </c>
       <c r="F2" t="str">
         <f>Resultate!G2</f>
-        <v>Dürst / Dürst</v>
-      </c>
-      <c r="G2" t="str">
+        <v>bye / bye</v>
+      </c>
+      <c r="G2">
         <f>Resultate!H2</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <f>Resultate!J2</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I2" s="132">
         <f>Resultate!K2</f>
@@ -4367,10 +4357,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4462,7 +4452,7 @@
         <v>in_progress</v>
       </c>
       <c r="S3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4554,7 +4544,7 @@
         <v>in_progress</v>
       </c>
       <c r="S4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4567,8 +4557,7 @@
         <v>I</v>
       </c>
       <c r="C5">
-        <f>Resultate!C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="132">
         <f>Resultate!D5</f>
@@ -4643,10 +4632,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4738,7 +4727,7 @@
         <v/>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4830,7 +4819,7 @@
         <v/>
       </c>
       <c r="S7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4922,7 +4911,7 @@
         <v/>
       </c>
       <c r="S8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -5014,7 +5003,7 @@
         <v/>
       </c>
       <c r="S9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -5036,19 +5025,19 @@
       </c>
       <c r="E10" t="str">
         <f>Resultate!E10</f>
-        <v>Loser Match #1</v>
+        <v>bye / bye</v>
       </c>
       <c r="F10" t="str">
         <f>Resultate!G10</f>
         <v>Loser Match #2</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10">
         <f>Resultate!H10</f>
-        <v/>
-      </c>
-      <c r="H10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f>Resultate!J10</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I10" s="132">
         <f>Resultate!K10</f>
@@ -5106,7 +5095,7 @@
         <v/>
       </c>
       <c r="S10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -5198,7 +5187,7 @@
         <v/>
       </c>
       <c r="S11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -5290,7 +5279,7 @@
         <v/>
       </c>
       <c r="S12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5382,7 +5371,7 @@
         <v/>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5404,7 +5393,7 @@
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
-        <v>Winner Match #1</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="F14" t="str">
         <f>Resultate!G14</f>
@@ -5474,7 +5463,7 @@
         <v/>
       </c>
       <c r="S14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5566,7 +5555,7 @@
         <v/>
       </c>
       <c r="S15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5658,7 +5647,7 @@
         <v/>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -5750,7 +5739,7 @@
         <v/>
       </c>
       <c r="S17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5842,7 +5831,7 @@
         <v/>
       </c>
       <c r="S18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -5934,7 +5923,7 @@
         <v/>
       </c>
       <c r="S19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -6026,7 +6015,7 @@
         <v/>
       </c>
       <c r="S20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -6048,7 +6037,7 @@
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
-        <v>Winner Match #9</v>
+        <v>Loser Match #2</v>
       </c>
       <c r="F21" t="str">
         <f>Resultate!G21</f>
@@ -6118,7 +6107,7 @@
         <v/>
       </c>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -6210,7 +6199,7 @@
         <v/>
       </c>
       <c r="S22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -6302,7 +6291,7 @@
         <v/>
       </c>
       <c r="S23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -6394,7 +6383,7 @@
         <v/>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -6486,7 +6475,7 @@
         <v/>
       </c>
       <c r="S25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -6578,7 +6567,7 @@
         <v/>
       </c>
       <c r="S26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -6670,7 +6659,7 @@
         <v/>
       </c>
       <c r="S27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -6762,7 +6751,7 @@
         <v/>
       </c>
       <c r="S28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -6854,7 +6843,7 @@
         <v/>
       </c>
       <c r="S29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -6946,7 +6935,7 @@
         <v/>
       </c>
       <c r="S30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -7010,7 +6999,7 @@
       </c>
       <c r="B3" s="108" t="str">
         <f>CONCATENATE(Resultate!$E$14," ")</f>
-        <v xml:space="preserve">Winner Match #1 </v>
+        <v xml:space="preserve">Baltermi / Hill Azpeitia </v>
       </c>
       <c r="C3"/>
       <c r="D3" s="14"/>
@@ -7026,7 +7015,7 @@
     <row r="4" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$2," : ",Resultate!$J$2,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4"/>
@@ -7043,7 +7032,7 @@
     <row r="5" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$2," ")</f>
-        <v xml:space="preserve">Dürst / Dürst </v>
+        <v xml:space="preserve">bye / bye </v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5"/>
@@ -7847,7 +7836,7 @@
       <c r="H42" s="24"/>
       <c r="I42" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$21," ")</f>
-        <v xml:space="preserve">Winner Match #9 </v>
+        <v xml:space="preserve">Loser Match #2 </v>
       </c>
       <c r="J42" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$10,"")</f>
@@ -7874,7 +7863,7 @@
       <c r="I43" s="118"/>
       <c r="J43" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$10," : ",Resultate!$H$10,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="K43" s="9"/>
     </row>
@@ -7896,7 +7885,7 @@
       </c>
       <c r="J44" s="119" t="str">
         <f>CONCATENATE(Resultate!$E$10," ")</f>
-        <v xml:space="preserve">Loser Match #1 </v>
+        <v xml:space="preserve">bye / bye </v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -8219,15 +8208,15 @@
       </c>
       <c r="B14" s="2" t="str">
         <f>IF(Resultate!$H$10=Resultate!$J$10,"13. Rang",IF(Resultate!$H$10&lt;Resultate!$J$10,Resultate!$E$10,Resultate!$G$10))</f>
-        <v>13. Rang</v>
+        <v>bye / bye</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(B14="13. Rang","mal schauen",VLOOKUP(B14,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D14" s="44" t="str">
+        <v>bye bye / bye bye</v>
+      </c>
+      <c r="D14" s="44">
         <f>IF(B14="13. Rang","zu Hause",VLOOKUP(B14,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8300,26 +8289,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8548,10 +8517,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8568,20 +8568,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynologyDrive\Python\Varia\beach_tournament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578379F3-8955-49C1-89C1-3F83101D9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8A548-4DB4-4D78-8201-CDB049524B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48920" yWindow="2360" windowWidth="37230" windowHeight="18430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="203" yWindow="3308" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -1742,27 +1742,27 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="59" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="60" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" style="60" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" customWidth="1"/>
-    <col min="8" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="59" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="59" customWidth="1"/>
-    <col min="12" max="13" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" style="60" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="60" customWidth="1"/>
+    <col min="4" max="4" width="6.46484375" customWidth="1"/>
+    <col min="5" max="5" width="16.9296875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="12.06640625" style="60" customWidth="1"/>
+    <col min="7" max="7" width="7.06640625" customWidth="1"/>
+    <col min="8" max="8" width="4.46484375" customWidth="1"/>
+    <col min="9" max="9" width="23.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.53125" style="59" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" style="59" customWidth="1"/>
+    <col min="12" max="13" width="14.53125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>Andrin Baltermi / Oscar Hill Azpeitia</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57">
         <v>2</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>Roberto Adamson / Alexander Müller</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57">
         <v>3</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>Jacques Allemann / Til Schaller</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57">
         <v>4</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>José Pérez / Maciej Lendzian</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57">
         <v>5</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>Vivian Stöckli / Julian Stöckli</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57">
         <v>6</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>Julian Bosshard / Raphael Strebel</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57">
         <v>7</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>Patrick Lendl / Kacper Kurzawa</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57">
         <v>8</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>Kanstantsin Charkin / Yury Hrytsuk</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="76">
         <v>9</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>Luca Raffi / Marc Röthlisberger</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57">
         <v>10</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>Toshiki Mikami / Yannick Hofmann</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="57">
         <v>11</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>Federico Addiechi / Martin Flückiger</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="57">
         <v>12</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>Jacob Bothen / Tommy Arndt</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="57">
         <v>13</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>Jonatan Sieber / Tim Müller</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="57">
         <v>14</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>Noah Ducret / Mike Abassi</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="57">
         <v>15</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>Luc Péter-Contesse / Yanis Känzig</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="57">
         <v>16</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>bye bye / bye bye</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="61" t="s">
         <v>31</v>
       </c>
@@ -2358,16 +2358,16 @@
       <c r="E19" s="64"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J21"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J23"/>
     </row>
   </sheetData>
@@ -2391,24 +2391,24 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="4.6328125" style="66" customWidth="1"/>
-    <col min="4" max="4" width="7.08984375" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" style="66" customWidth="1"/>
-    <col min="6" max="6" width="3.54296875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="66" customWidth="1"/>
-    <col min="8" max="10" width="3.90625" style="66" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="66" customWidth="1"/>
-    <col min="12" max="20" width="3.90625" style="66" customWidth="1"/>
-    <col min="21" max="16384" width="9.08984375" style="4"/>
+    <col min="1" max="3" width="4.59765625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="7.06640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" style="66" customWidth="1"/>
+    <col min="6" max="6" width="3.53125" style="66" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" style="66" customWidth="1"/>
+    <col min="8" max="10" width="3.9296875" style="66" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" style="66" customWidth="1"/>
+    <col min="12" max="20" width="3.9296875" style="66" customWidth="1"/>
+    <col min="21" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="87" t="s">
         <v>3</v>
       </c>
@@ -2460,16 +2460,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="92">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="82">
-        <v>1</v>
-      </c>
+      <c r="C2" s="82"/>
       <c r="D2" s="83">
         <v>0.40625</v>
       </c>
@@ -2517,7 +2515,7 @@
       <c r="W2"/>
       <c r="X2"/>
     </row>
-    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="92">
         <f t="shared" ref="A3:A31" si="1">SUM(A2,1)</f>
         <v>2</v>
@@ -2526,7 +2524,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="83">
         <v>0.40625</v>
@@ -2543,14 +2541,14 @@
         <v>Charkin / Hrytsuk</v>
       </c>
       <c r="H3" s="67" t="str">
-        <f t="shared" ref="H2:H15" si="2">IF(L3=N3,"",SUM(IF(L3&gt;N3,1,0),IF(O3&gt;Q3,1,0),IF(R3&lt;=T3,0,1)))</f>
+        <f t="shared" ref="H3:H15" si="2">IF(L3=N3,"",SUM(IF(L3&gt;N3,1,0),IF(O3&gt;Q3,1,0),IF(R3&lt;=T3,0,1)))</f>
         <v/>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="67" t="str">
-        <f t="shared" ref="J2:J15" si="3">IF(L3=N3,"",SUM(IF(L3&lt;N3,1,0),IF(O3&lt;Q3,1,0),IF(R3&gt;=T3,0,1)))</f>
+        <f t="shared" ref="J3:J15" si="3">IF(L3=N3,"",SUM(IF(L3&lt;N3,1,0),IF(O3&lt;Q3,1,0),IF(R3&gt;=T3,0,1)))</f>
         <v/>
       </c>
       <c r="K3" s="93">
@@ -2577,7 +2575,7 @@
       <c r="W3"/>
       <c r="X3"/>
     </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="92">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -2586,7 +2584,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="83">
         <v>0.40625</v>
@@ -2637,7 +2635,7 @@
       <c r="W4"/>
       <c r="X4"/>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="92">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -2645,7 +2643,9 @@
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="82">
+        <v>1</v>
+      </c>
       <c r="D5" s="83">
         <v>0.42708333333333331</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="92">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -2703,7 +2703,9 @@
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82">
+        <v>2</v>
+      </c>
       <c r="D6" s="83">
         <v>0.42708333333333331</v>
       </c>
@@ -2753,7 +2755,7 @@
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="92">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2761,7 +2763,9 @@
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="82">
+        <v>3</v>
+      </c>
       <c r="D7" s="96">
         <v>0.42708333333333331</v>
       </c>
@@ -2811,7 +2815,7 @@
       <c r="W7"/>
       <c r="X7"/>
     </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="92">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2819,7 +2823,9 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="82">
+        <v>1</v>
+      </c>
       <c r="D8" s="83">
         <v>0.44791666666666669</v>
       </c>
@@ -2869,7 +2875,7 @@
       <c r="W8"/>
       <c r="X8"/>
     </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="94">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2877,7 +2883,9 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="82">
+        <v>2</v>
+      </c>
       <c r="D9" s="96">
         <v>0.44791666666666669</v>
       </c>
@@ -2927,7 +2935,7 @@
       <c r="W9"/>
       <c r="X9"/>
     </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="98">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2935,8 +2943,8 @@
       <c r="B10" s="7">
         <v>13</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
         <v>bye / bye</v>
@@ -2981,7 +2989,7 @@
       <c r="W10"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="92">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2989,8 +2997,12 @@
       <c r="B11" s="5">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="82">
+        <v>1</v>
+      </c>
+      <c r="D11" s="83">
+        <v>0.46875</v>
+      </c>
       <c r="E11" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Loser Match #",$A$4),IF($H$4&lt;$J$4,$E$4,$G$4))</f>
         <v>Loser Match #3</v>
@@ -3037,7 +3049,7 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="92">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3045,8 +3057,12 @@
       <c r="B12" s="5">
         <v>13</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="82">
+        <v>2</v>
+      </c>
+      <c r="D12" s="83">
+        <v>0.46875</v>
+      </c>
       <c r="E12" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Loser Match #",$A$6),IF($H$6&lt;$J$6,$E$6,$G$6))</f>
         <v>Loser Match #5</v>
@@ -3093,7 +3109,7 @@
       <c r="W12"/>
       <c r="X12"/>
     </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="94">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -3101,8 +3117,12 @@
       <c r="B13" s="6">
         <v>13</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="82">
+        <v>3</v>
+      </c>
+      <c r="D13" s="83">
+        <v>0.46875</v>
+      </c>
       <c r="E13" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Loser Match #",$A$8),IF($H$8&lt;$J$8,$E$8,$G$8))</f>
         <v>Loser Match #7</v>
@@ -3149,7 +3169,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="98">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -3157,8 +3177,12 @@
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="82">
+        <v>1</v>
+      </c>
+      <c r="D14" s="100">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
         <v>Baltermi / Hill Azpeitia</v>
@@ -3205,7 +3229,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="92">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3213,8 +3237,12 @@
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="82">
+        <v>2</v>
+      </c>
+      <c r="D15" s="100">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E15" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Winner Match #",$A$4),IF($H$4&gt;$J$4,$E$4,$G$4))</f>
         <v>Winner Match #3</v>
@@ -3261,7 +3289,7 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="92">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3269,8 +3297,12 @@
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="82">
+        <v>3</v>
+      </c>
+      <c r="D16" s="100">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="E16" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Winner Match #",$A$6),IF($H$6&gt;$J$6,$E$6,$G$6))</f>
         <v>Winner Match #5</v>
@@ -3317,7 +3349,7 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="94">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -3325,8 +3357,12 @@
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
+      <c r="C17" s="82">
+        <v>1</v>
+      </c>
+      <c r="D17" s="96">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E17" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Winner Match #",$A$8),IF($H$8&gt;$J$8,$E$8,$G$8))</f>
         <v>Winner Match #7</v>
@@ -3373,7 +3409,7 @@
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="98">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -3381,8 +3417,12 @@
       <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="82">
+        <v>2</v>
+      </c>
+      <c r="D18" s="96">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E18" s="7" t="str">
         <f>IF($H$13=$J$13,CONCATENATE("Winner Match #",$A$13),IF($H$13&gt;$J$13,$E$13,$G$13))</f>
         <v>Winner Match #12</v>
@@ -3429,7 +3469,7 @@
       <c r="W18"/>
       <c r="X18"/>
     </row>
-    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="92">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3437,8 +3477,12 @@
       <c r="B19" s="5">
         <v>9</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="82">
+        <v>3</v>
+      </c>
+      <c r="D19" s="96">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
         <v>Winner Match #11</v>
@@ -3485,7 +3529,7 @@
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="92">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3493,8 +3537,12 @@
       <c r="B20" s="5">
         <v>9</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
+      <c r="C20" s="82">
+        <v>1</v>
+      </c>
+      <c r="D20" s="83">
+        <v>0.53125</v>
+      </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
         <v>Winner Match #10</v>
@@ -3541,7 +3589,7 @@
       <c r="W20"/>
       <c r="X20"/>
     </row>
-    <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="94">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -3549,8 +3597,12 @@
       <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
+      <c r="C21" s="82">
+        <v>2</v>
+      </c>
+      <c r="D21" s="83">
+        <v>0.53125</v>
+      </c>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
         <v>Loser Match #2</v>
@@ -3597,7 +3649,7 @@
       <c r="W21"/>
       <c r="X21"/>
     </row>
-    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="98">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -3605,8 +3657,12 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="82">
+        <v>3</v>
+      </c>
+      <c r="D22" s="83">
+        <v>0.53125</v>
+      </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
         <v>Winner Match #13</v>
@@ -3653,7 +3709,7 @@
       <c r="W22"/>
       <c r="X22"/>
     </row>
-    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="94">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3661,8 +3717,12 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="96"/>
+      <c r="C23" s="82">
+        <v>1</v>
+      </c>
+      <c r="D23" s="96">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E23" s="6" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Winner Match #",$A$16),IF($H$16&gt;$J$16,$E$16,$G$16))</f>
         <v>Winner Match #15</v>
@@ -3709,7 +3769,7 @@
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="98">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3717,8 +3777,12 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
+      <c r="C24" s="82">
+        <v>2</v>
+      </c>
+      <c r="D24" s="96">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
         <v>Winner Match #17</v>
@@ -3765,7 +3829,7 @@
       <c r="W24"/>
       <c r="X24"/>
     </row>
-    <row r="25" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="94">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -3773,8 +3837,12 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
+      <c r="C25" s="82">
+        <v>3</v>
+      </c>
+      <c r="D25" s="96">
+        <v>0.55208333333333337</v>
+      </c>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
         <v>Winner Match #19</v>
@@ -3821,7 +3889,7 @@
       <c r="W25"/>
       <c r="X25"/>
     </row>
-    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="98">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -3829,7 +3897,7 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="99"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="100"/>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
@@ -3877,7 +3945,7 @@
       <c r="W26"/>
       <c r="X26"/>
     </row>
-    <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="94">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -3933,7 +4001,7 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="98">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3989,7 +4057,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="94">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -4045,7 +4113,7 @@
       <c r="W29"/>
       <c r="X29"/>
     </row>
-    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="98">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -4101,7 +4169,7 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="94">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -4180,29 +4248,29 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>Resultate!A1</f>
         <v>Match
@@ -4271,7 +4339,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>Resultate!A2</f>
         <v>1</v>
@@ -4282,7 +4350,7 @@
       </c>
       <c r="C2">
         <f>Resultate!C2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="132">
         <f>Resultate!D2</f>
@@ -4357,13 +4425,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>completed</v>
+        <v/>
       </c>
       <c r="S2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>Resultate!A3</f>
         <v>2</v>
@@ -4374,7 +4442,7 @@
       </c>
       <c r="C3">
         <f>Resultate!C3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="132">
         <f>Resultate!D3</f>
@@ -4455,7 +4523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>Resultate!A4</f>
         <v>3</v>
@@ -4466,7 +4534,7 @@
       </c>
       <c r="C4">
         <f>Resultate!C4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="132">
         <f>Resultate!D4</f>
@@ -4547,7 +4615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>Resultate!A5</f>
         <v>4</v>
@@ -4632,13 +4700,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>Resultate!A6</f>
         <v>5</v>
@@ -4649,7 +4717,7 @@
       </c>
       <c r="C6">
         <f>Resultate!C6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="132">
         <f>Resultate!D6</f>
@@ -4724,13 +4792,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>Resultate!A7</f>
         <v>6</v>
@@ -4741,7 +4809,7 @@
       </c>
       <c r="C7">
         <f>Resultate!C7</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="132">
         <f>Resultate!D7</f>
@@ -4816,13 +4884,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>Resultate!A8</f>
         <v>7</v>
@@ -4833,7 +4901,7 @@
       </c>
       <c r="C8">
         <f>Resultate!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="132">
         <f>Resultate!D8</f>
@@ -4908,13 +4976,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>Resultate!A9</f>
         <v>8</v>
@@ -4925,7 +4993,7 @@
       </c>
       <c r="C9">
         <f>Resultate!C9</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="132">
         <f>Resultate!D9</f>
@@ -5000,13 +5068,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>Resultate!A10</f>
         <v>9</v>
@@ -5098,7 +5166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>Resultate!A11</f>
         <v>10</v>
@@ -5109,11 +5177,11 @@
       </c>
       <c r="C11">
         <f>Resultate!C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="132">
         <f>Resultate!D11</f>
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="E11" t="str">
         <f>Resultate!E11</f>
@@ -5184,13 +5252,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>Resultate!A12</f>
         <v>11</v>
@@ -5201,11 +5269,11 @@
       </c>
       <c r="C12">
         <f>Resultate!C12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="132">
         <f>Resultate!D12</f>
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="E12" t="str">
         <f>Resultate!E12</f>
@@ -5276,13 +5344,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>Resultate!A13</f>
         <v>12</v>
@@ -5293,11 +5361,11 @@
       </c>
       <c r="C13">
         <f>Resultate!C13</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="132">
         <f>Resultate!D13</f>
-        <v>0</v>
+        <v>0.46875</v>
       </c>
       <c r="E13" t="str">
         <f>Resultate!E13</f>
@@ -5368,13 +5436,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>Resultate!A14</f>
         <v>13</v>
@@ -5385,11 +5453,11 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="132">
         <f>Resultate!D14</f>
-        <v>0</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
@@ -5460,13 +5528,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court1</v>
       </c>
       <c r="S14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>Resultate!A15</f>
         <v>14</v>
@@ -5477,11 +5545,11 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="132">
         <f>Resultate!D15</f>
-        <v>0</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E15" t="str">
         <f>Resultate!E15</f>
@@ -5552,13 +5620,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court2</v>
       </c>
       <c r="S15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>Resultate!A16</f>
         <v>15</v>
@@ -5569,11 +5637,11 @@
       </c>
       <c r="C16">
         <f>Resultate!C16</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="132">
         <f>Resultate!D16</f>
-        <v>0</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="E16" t="str">
         <f>Resultate!E16</f>
@@ -5644,13 +5712,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court3</v>
       </c>
       <c r="S16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>Resultate!A17</f>
         <v>16</v>
@@ -5661,11 +5729,11 @@
       </c>
       <c r="C17">
         <f>Resultate!C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="132">
         <f>Resultate!D17</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E17" t="str">
         <f>Resultate!E17</f>
@@ -5736,13 +5804,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court1</v>
       </c>
       <c r="S17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>Resultate!A18</f>
         <v>17</v>
@@ -5753,11 +5821,11 @@
       </c>
       <c r="C18">
         <f>Resultate!C18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="132">
         <f>Resultate!D18</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E18" t="str">
         <f>Resultate!E18</f>
@@ -5828,13 +5896,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court2</v>
       </c>
       <c r="S18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>Resultate!A19</f>
         <v>18</v>
@@ -5845,11 +5913,11 @@
       </c>
       <c r="C19">
         <f>Resultate!C19</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="132">
         <f>Resultate!D19</f>
-        <v>0</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
@@ -5920,13 +5988,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court3</v>
       </c>
       <c r="S19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>Resultate!A20</f>
         <v>19</v>
@@ -5937,11 +6005,11 @@
       </c>
       <c r="C20">
         <f>Resultate!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="132">
         <f>Resultate!D20</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
@@ -6012,13 +6080,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_6_court1</v>
       </c>
       <c r="S20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>Resultate!A21</f>
         <v>20</v>
@@ -6029,11 +6097,11 @@
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="132">
         <f>Resultate!D21</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
@@ -6104,13 +6172,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_6_court2</v>
       </c>
       <c r="S21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>Resultate!A22</f>
         <v>21</v>
@@ -6121,11 +6189,11 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="132">
         <f>Resultate!D22</f>
-        <v>0</v>
+        <v>0.53125</v>
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
@@ -6196,13 +6264,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court3</v>
       </c>
       <c r="S22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>Resultate!A23</f>
         <v>22</v>
@@ -6213,11 +6281,11 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="132">
         <f>Resultate!D23</f>
-        <v>0</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E23" t="str">
         <f>Resultate!E23</f>
@@ -6288,13 +6356,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_7_court1</v>
       </c>
       <c r="S23" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>Resultate!A24</f>
         <v>23</v>
@@ -6305,11 +6373,11 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="132">
         <f>Resultate!D24</f>
-        <v>0</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
@@ -6380,13 +6448,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_7_court2</v>
       </c>
       <c r="S24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>Resultate!A25</f>
         <v>24</v>
@@ -6397,11 +6465,11 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="132">
         <f>Resultate!D25</f>
-        <v>0</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
@@ -6472,13 +6540,13 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court3</v>
       </c>
       <c r="S25" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>Resultate!A26</f>
         <v>25</v>
@@ -6570,7 +6638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>Resultate!A27</f>
         <v>26</v>
@@ -6662,7 +6730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>Resultate!A28</f>
         <v>27</v>
@@ -6754,7 +6822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>Resultate!A29</f>
         <v>28</v>
@@ -6846,7 +6914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>Resultate!A30</f>
         <v>29</v>
@@ -6938,7 +7006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="P31" s="132"/>
       <c r="Q31" s="132"/>
     </row>
@@ -6956,16 +7024,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="9" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="12.6328125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" style="8" customWidth="1"/>
-    <col min="6" max="10" width="12.6328125" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="8"/>
+    <col min="1" max="1" width="14.59765625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="12.59765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="8" customWidth="1"/>
+    <col min="6" max="10" width="12.59765625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$2," ")</f>
         <v xml:space="preserve">Baltermi / Hill Azpeitia </v>
@@ -6980,7 +7048,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="107"/>
       <c r="B2"/>
       <c r="C2" s="14"/>
@@ -6992,7 +7060,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$2,"")</f>
         <v>1</v>
@@ -7012,7 +7080,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$2," : ",Resultate!$J$2,")")</f>
         <v>(2 : 0)</v>
@@ -7029,7 +7097,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$2," ")</f>
         <v xml:space="preserve">bye / bye </v>
@@ -7046,7 +7114,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="111"/>
       <c r="B6" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$14,"")</f>
@@ -7066,7 +7134,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$3," ")</f>
         <v xml:space="preserve">Raffi / Röthlisberger </v>
@@ -7088,7 +7156,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="107"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -7109,7 +7177,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$3,"")</f>
         <v>2</v>
@@ -7132,7 +7200,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$3," : ",Resultate!$J$3,")")</f>
         <v>( : )</v>
@@ -7156,7 +7224,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$3," ")</f>
         <v xml:space="preserve">Charkin / Hrytsuk </v>
@@ -7177,7 +7245,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="111"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="str">
@@ -7217,7 +7285,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$4," ")</f>
         <v xml:space="preserve">Stöckli / Stöckli </v>
@@ -7248,7 +7316,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="107"/>
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
@@ -7266,7 +7334,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$4,"")</f>
         <v>3</v>
@@ -7286,7 +7354,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$4," : ",Resultate!$J$4,")")</f>
         <v>( : )</v>
@@ -7312,7 +7380,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$4," ")</f>
         <v xml:space="preserve">Bothen / Arndt </v>
@@ -7332,7 +7400,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="122"/>
       <c r="B18" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$15,"")</f>
@@ -7357,7 +7425,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$5," ")</f>
         <v xml:space="preserve">Sieber / Müller </v>
@@ -7379,7 +7447,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="107"/>
       <c r="B20" s="16"/>
       <c r="C20"/>
@@ -7409,7 +7477,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$5,"")</f>
         <v>4</v>
@@ -7432,7 +7500,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$5," : ",Resultate!$J$5,")")</f>
         <v>( : )</v>
@@ -7456,7 +7524,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$5," ")</f>
         <v xml:space="preserve">Pérez / Lendzian </v>
@@ -7473,7 +7541,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
     </row>
-    <row r="24" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24" s="14"/>
       <c r="C24"/>
@@ -7493,7 +7561,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$6," ")</f>
         <v xml:space="preserve">Allemann / Schaller </v>
@@ -7510,7 +7578,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="107"/>
       <c r="B26"/>
       <c r="C26" s="14"/>
@@ -7531,7 +7599,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$6,"")</f>
         <v>5</v>
@@ -7545,7 +7613,7 @@
       <c r="F27" s="33"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$6," : ",Resultate!$J$6,")")</f>
         <v>( : )</v>
@@ -7563,7 +7631,7 @@
       <c r="H28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$6," ")</f>
         <v xml:space="preserve">Ducret / Abassi </v>
@@ -7574,7 +7642,7 @@
       <c r="G29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$16,"")</f>
@@ -7591,7 +7659,7 @@
       <c r="I30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$7," ")</f>
         <v xml:space="preserve">Addiechi / Flückiger </v>
@@ -7607,7 +7675,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:14" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="107"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -7623,7 +7691,7 @@
       </c>
       <c r="K32"/>
     </row>
-    <row r="33" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$7,"")</f>
         <v>6</v>
@@ -7639,7 +7707,7 @@
       <c r="J33" s="114"/>
       <c r="K33"/>
     </row>
-    <row r="34" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$7," : ",Resultate!$J$7,")")</f>
         <v>( : )</v>
@@ -7659,7 +7727,7 @@
       <c r="K34"/>
       <c r="L34"/>
     </row>
-    <row r="35" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$7," ")</f>
         <v xml:space="preserve">Bosshard / Strebel </v>
@@ -7677,7 +7745,7 @@
       </c>
       <c r="K35"/>
     </row>
-    <row r="36" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="122"/>
       <c r="B36"/>
       <c r="C36" s="11" t="str">
@@ -7711,7 +7779,7 @@
       </c>
       <c r="K36"/>
     </row>
-    <row r="37" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$8," ")</f>
         <v xml:space="preserve">Lendl / Kurzawa </v>
@@ -7741,7 +7809,7 @@
       </c>
       <c r="K37"/>
     </row>
-    <row r="38" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="107"/>
       <c r="B38" s="14"/>
       <c r="C38" s="16"/>
@@ -7757,7 +7825,7 @@
       <c r="K38" s="9"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$8,"")</f>
         <v>7</v>
@@ -7774,7 +7842,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$8," : ",Resultate!$J$8,")")</f>
         <v>( : )</v>
@@ -7800,7 +7868,7 @@
       <c r="K40" s="9"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$8," ")</f>
         <v xml:space="preserve">Mikami / Hofmann </v>
@@ -7819,7 +7887,7 @@
       <c r="J41" s="19"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="122"/>
       <c r="B42" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$17,"")</f>
@@ -7845,7 +7913,7 @@
       <c r="K42" s="9"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$9," ")</f>
         <v xml:space="preserve">Péter-Contesse / Känzig </v>
@@ -7867,7 +7935,7 @@
       </c>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="107"/>
       <c r="B44" s="16"/>
       <c r="C44"/>
@@ -7889,7 +7957,7 @@
       </c>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$9,"")</f>
         <v>8</v>
@@ -7909,7 +7977,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="109" t="str">
         <f>CONCATENATE("(",Resultate!$H$9," : ",Resultate!$J$9,")")</f>
         <v>( : )</v>
@@ -7926,7 +7994,7 @@
       <c r="J46"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="1:12" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$9," ")</f>
         <v xml:space="preserve">Adamson / Müller </v>
@@ -7939,7 +8007,7 @@
       <c r="J47"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7972,15 +8040,15 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.53125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
         <v>36</v>
       </c>
@@ -7994,7 +8062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="73">
         <v>1</v>
       </c>
@@ -8011,7 +8079,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="73">
         <f>SUM(A2,1)</f>
         <v>2</v>
@@ -8029,7 +8097,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="73">
         <f>SUM(A3,1)</f>
         <v>3</v>
@@ -8047,7 +8115,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="73">
         <f>SUM(A4,1)</f>
         <v>4</v>
@@ -8065,7 +8133,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="73">
         <f>SUM(A5,1)</f>
         <v>5</v>
@@ -8083,7 +8151,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="73">
         <v>5</v>
       </c>
@@ -8100,7 +8168,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="73">
         <v>7</v>
       </c>
@@ -8117,7 +8185,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="73">
         <v>7</v>
       </c>
@@ -8134,7 +8202,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="73">
         <v>9</v>
       </c>
@@ -8151,7 +8219,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="73">
         <v>9</v>
       </c>
@@ -8168,7 +8236,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="73">
         <v>9</v>
       </c>
@@ -8185,7 +8253,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="73">
         <v>9</v>
       </c>
@@ -8202,7 +8270,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="73">
         <v>13</v>
       </c>
@@ -8219,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73">
         <v>13</v>
       </c>
@@ -8236,7 +8304,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="73">
         <v>13</v>
       </c>
@@ -8253,7 +8321,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="74">
         <v>13</v>
       </c>
@@ -8270,7 +8338,7 @@
         <v>zu Hause</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="75" t="s">
         <v>38</v>
       </c>
@@ -8518,6 +8586,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8526,15 +8603,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8557,6 +8625,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8565,12 +8641,4 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8A548-4DB4-4D78-8201-CDB049524B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9125B-4455-4E2A-9A81-9F2842600F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="203" yWindow="3308" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8947" yWindow="1943" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2391,8 +2391,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:C25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2886,7 +2886,7 @@
       <c r="C9" s="82">
         <v>2</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="83">
         <v>0.44791666666666669</v>
       </c>
       <c r="E9" s="6" t="str">
@@ -8357,6 +8357,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8585,27 +8605,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8622,23 +8641,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9125B-4455-4E2A-9A81-9F2842600F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98178A47-99AA-45A1-B67A-1CF07B90374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8947" yWindow="1943" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="17999" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -236,12 +236,6 @@
     <t>Jacques</t>
   </si>
   <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t>José</t>
-  </si>
-  <si>
     <t>Stöckli</t>
   </si>
   <si>
@@ -326,12 +320,6 @@
     <t>Til</t>
   </si>
   <si>
-    <t>Lendzian</t>
-  </si>
-  <si>
-    <t>Maciej</t>
-  </si>
-  <si>
     <t>Strebel</t>
   </si>
   <si>
@@ -390,6 +378,18 @@
   </si>
   <si>
     <t>bye</t>
+  </si>
+  <si>
+    <t>Dürst</t>
+  </si>
+  <si>
+    <t>Linus</t>
+  </si>
+  <si>
+    <t>Marwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bye </t>
   </si>
 </sst>
 </file>
@@ -925,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1033,6 +1033,305 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1041,10 +1340,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1053,113 +1348,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1168,15 +1356,37 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1186,163 +1396,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,619 +1811,619 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3" style="59" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" style="60" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="60" customWidth="1"/>
+    <col min="1" max="1" width="3" style="57" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="58" customWidth="1"/>
     <col min="4" max="4" width="6.46484375" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="12.06640625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="16.9296875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="12.06640625" style="58" customWidth="1"/>
     <col min="7" max="7" width="7.06640625" customWidth="1"/>
     <col min="8" max="8" width="4.46484375" customWidth="1"/>
     <col min="9" max="9" width="23.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.53125" style="59" customWidth="1"/>
-    <col min="11" max="11" width="6.06640625" style="59" customWidth="1"/>
+    <col min="10" max="10" width="18.53125" style="57" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" style="57" customWidth="1"/>
     <col min="12" max="13" width="14.53125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53">
+    <row r="2" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="133" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>75</v>
+      <c r="E2" s="139" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="141" t="s">
+        <v>73</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="54" t="str">
+      <c r="I2" s="52" t="str">
         <f>CONCATENATE($B$2," / ",$E$2)</f>
         <v>Baltermi / Hill Azpeitia</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="54" t="str">
+      <c r="J2" s="38"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="52" t="str">
         <f>CONCATENATE($B$2," / ",$E$2)</f>
         <v>Baltermi / Hill Azpeitia</v>
       </c>
-      <c r="M2" s="55" t="str">
+      <c r="M2" s="53" t="str">
         <f>CONCATENATE($C$2," ",$B$2," / ",$F$2," ",$E$2)</f>
         <v>Andrin Baltermi / Oscar Hill Azpeitia</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57">
+    <row r="3" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="55">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="134" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>77</v>
+      <c r="E3" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="142" t="s">
+        <v>75</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="58" t="str">
+      <c r="I3" s="56" t="str">
         <f>CONCATENATE($B$3," / ",$E$3)</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="58" t="str">
+      <c r="J3" s="39"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="56" t="str">
         <f>CONCATENATE($B$3," / ",$E$3)</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="M3" s="55" t="str">
+      <c r="M3" s="53" t="str">
         <f>CONCATENATE($C$3," ",$B$3," / ",$F$3," ",$E$3)</f>
         <v>Roberto Adamson / Alexander Müller</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57">
+    <row r="4" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="55">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="41" t="s">
-        <v>79</v>
+      <c r="E4" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="142" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="58" t="str">
+      <c r="I4" s="56" t="str">
         <f>CONCATENATE($B$4," / ",$E$4)</f>
         <v>Allemann / Schaller</v>
       </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="58" t="str">
+      <c r="J4" s="39"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="56" t="str">
         <f>CONCATENATE($B$4," / ",$E$4)</f>
         <v>Allemann / Schaller</v>
       </c>
-      <c r="M4" s="55" t="str">
+      <c r="M4" s="53" t="str">
         <f>CONCATENATE($C$4," ",$B$4," / ",$F$4," ",$E$4)</f>
         <v>Jacques Allemann / Til Schaller</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57">
+    <row r="5" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="134" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>81</v>
+      <c r="E5" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="142" t="s">
+        <v>53</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="58" t="str">
+      <c r="I5" s="56" t="str">
         <f>CONCATENATE($B$5," / ",$E$5)</f>
-        <v>Pérez / Lendzian</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="58" t="str">
+        <v>Stöckli / Stöckli</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="56" t="str">
         <f>CONCATENATE($B$5," / ",$E$5)</f>
-        <v>Pérez / Lendzian</v>
-      </c>
-      <c r="M5" s="55" t="str">
+        <v>Stöckli / Stöckli</v>
+      </c>
+      <c r="M5" s="53" t="str">
         <f>CONCATENATE($C$5," ",$B$5," / ",$F$5," ",$E$5)</f>
-        <v>José Pérez / Maciej Lendzian</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57">
+        <v>Vivian Stöckli / Julian Stöckli</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="55">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="134" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>55</v>
+      <c r="E6" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="142" t="s">
+        <v>79</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="58" t="str">
+      <c r="I6" s="56" t="str">
         <f>CONCATENATE($B$6," / ",$E$6)</f>
-        <v>Stöckli / Stöckli</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="58" t="str">
+        <v>Bosshard / Strebel</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="56" t="str">
         <f>CONCATENATE($B$6," / ",$E$6)</f>
-        <v>Stöckli / Stöckli</v>
-      </c>
-      <c r="M6" s="55" t="str">
+        <v>Bosshard / Strebel</v>
+      </c>
+      <c r="M6" s="53" t="str">
         <f>CONCATENATE($C$6," ",$B$6," / ",$F$6," ",$E$6)</f>
-        <v>Vivian Stöckli / Julian Stöckli</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="57">
+        <v>Julian Bosshard / Raphael Strebel</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="55">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="134" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>83</v>
+      <c r="E7" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="142" t="s">
+        <v>81</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="58" t="str">
+      <c r="I7" s="56" t="str">
         <f>CONCATENATE($B$7," / ",$E$7)</f>
-        <v>Bosshard / Strebel</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="58" t="str">
+        <v>Lendl / Kurzawa</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="56" t="str">
         <f>CONCATENATE($B$7," / ",$E$7)</f>
-        <v>Bosshard / Strebel</v>
-      </c>
-      <c r="M7" s="55" t="str">
+        <v>Lendl / Kurzawa</v>
+      </c>
+      <c r="M7" s="53" t="str">
         <f>CONCATENATE($C$7," ",$B$7," / ",$F$7," ",$E$7)</f>
-        <v>Julian Bosshard / Raphael Strebel</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="57">
+        <v>Patrick Lendl / Kacper Kurzawa</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="55">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="134" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>85</v>
+      <c r="E8" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>83</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="58" t="str">
+      <c r="I8" s="56" t="str">
         <f>CONCATENATE($B$8," / ",$E$8)</f>
-        <v>Lendl / Kurzawa</v>
-      </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="58" t="str">
+        <v>Charkin / Hrytsuk</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="56" t="str">
         <f>CONCATENATE($B$8," / ",$E$8)</f>
-        <v>Lendl / Kurzawa</v>
-      </c>
-      <c r="M8" s="55" t="str">
+        <v>Charkin / Hrytsuk</v>
+      </c>
+      <c r="M8" s="53" t="str">
         <f>CONCATENATE($C$8," ",$B$8," / ",$F$8," ",$E$8)</f>
-        <v>Patrick Lendl / Kacper Kurzawa</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57">
+        <v>Kanstantsin Charkin / Yury Hrytsuk</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="55">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="134" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>87</v>
+      <c r="E9" s="140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="142" t="s">
+        <v>43</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="58" t="str">
+      <c r="I9" s="56" t="str">
         <f>CONCATENATE($B$9," / ",$E$9)</f>
-        <v>Charkin / Hrytsuk</v>
-      </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="58" t="str">
+        <v>Raffi / Röthlisberger</v>
+      </c>
+      <c r="J9" s="39"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="56" t="str">
         <f>CONCATENATE($B$9," / ",$E$9)</f>
-        <v>Charkin / Hrytsuk</v>
-      </c>
-      <c r="M9" s="55" t="str">
+        <v>Raffi / Röthlisberger</v>
+      </c>
+      <c r="M9" s="53" t="str">
         <f>CONCATENATE($C$9," ",$B$9," / ",$F$9," ",$E$9)</f>
-        <v>Kanstantsin Charkin / Yury Hrytsuk</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="76">
+        <v>Luca Raffi / Marc Röthlisberger</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="58" t="str">
+      <c r="D10" s="76"/>
+      <c r="E10" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="56" t="str">
         <f>CONCATENATE($B$10," / ",$E$10)</f>
-        <v>Raffi / Röthlisberger</v>
-      </c>
-      <c r="J10" s="78"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="58" t="str">
+        <v>Mikami / Hofmann</v>
+      </c>
+      <c r="J10" s="75"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="56" t="str">
         <f>CONCATENATE($B$10," / ",$E$10)</f>
-        <v>Raffi / Röthlisberger</v>
-      </c>
-      <c r="M10" s="55" t="str">
+        <v>Mikami / Hofmann</v>
+      </c>
+      <c r="M10" s="53" t="str">
         <f>CONCATENATE($C$10," ",$B$10," / ",$F$10," ",$E$10)</f>
-        <v>Luca Raffi / Marc Röthlisberger</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="57">
+        <v>Toshiki Mikami / Yannick Hofmann</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="55">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="134" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>89</v>
+      <c r="E11" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="142" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="58" t="str">
+      <c r="I11" s="56" t="str">
         <f>CONCATENATE($B$11," / ",$E$11)</f>
-        <v>Mikami / Hofmann</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="58" t="str">
+        <v>Addiechi / Flückiger</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="56" t="str">
         <f>CONCATENATE($B$11," / ",$E$11)</f>
-        <v>Mikami / Hofmann</v>
-      </c>
-      <c r="M11" s="55" t="str">
+        <v>Addiechi / Flückiger</v>
+      </c>
+      <c r="M11" s="53" t="str">
         <f>CONCATENATE($C$11," ",$B$11," / ",$F$11," ",$E$11)</f>
-        <v>Toshiki Mikami / Yannick Hofmann</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="57">
+        <v>Federico Addiechi / Martin Flückiger</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="55">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="134" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>91</v>
+      <c r="E12" s="140" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>89</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="58" t="str">
+      <c r="I12" s="56" t="str">
         <f>CONCATENATE($B$12," / ",$E$12)</f>
-        <v>Addiechi / Flückiger</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="58" t="str">
+        <v>Bothen / Arndt</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="56" t="str">
         <f>CONCATENATE($B$12," / ",$E$12)</f>
-        <v>Addiechi / Flückiger</v>
-      </c>
-      <c r="M12" s="55" t="str">
+        <v>Bothen / Arndt</v>
+      </c>
+      <c r="M12" s="53" t="str">
         <f>CONCATENATE($C$12," ",$B$12," / ",$F$12," ",$E$12)</f>
-        <v>Federico Addiechi / Martin Flückiger</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="57">
+        <v>Jacob Bothen / Tommy Arndt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="55">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="134" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>93</v>
+      <c r="E13" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>41</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="58" t="str">
+      <c r="I13" s="56" t="str">
         <f>CONCATENATE($B$13," / ",$E$13)</f>
-        <v>Bothen / Arndt</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="58" t="str">
+        <v>Sieber / Müller</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="56" t="str">
         <f>CONCATENATE($B$13," / ",$E$13)</f>
-        <v>Bothen / Arndt</v>
-      </c>
-      <c r="M13" s="55" t="str">
+        <v>Sieber / Müller</v>
+      </c>
+      <c r="M13" s="53" t="str">
         <f>CONCATENATE($C$13," ",$B$13," / ",$F$13," ",$E$13)</f>
-        <v>Jacob Bothen / Tommy Arndt</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="57">
+        <v>Jonatan Sieber / Tim Müller</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="55">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="134" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>41</v>
+      <c r="E14" s="140" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="142" t="s">
+        <v>91</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="58" t="str">
+      <c r="I14" s="56" t="str">
         <f>CONCATENATE($B$14," / ",$E$14)</f>
-        <v>Sieber / Müller</v>
-      </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="58" t="str">
+        <v>Ducret / Abassi</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="56" t="str">
         <f>CONCATENATE($B$14," / ",$E$14)</f>
-        <v>Sieber / Müller</v>
-      </c>
-      <c r="M14" s="55" t="str">
+        <v>Ducret / Abassi</v>
+      </c>
+      <c r="M14" s="53" t="str">
         <f>CONCATENATE($C$14," ",$B$14," / ",$F$14," ",$E$14)</f>
-        <v>Jonatan Sieber / Tim Müller</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="57">
+        <v>Noah Ducret / Mike Abassi</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="55">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="134" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>95</v>
+      <c r="E15" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="142" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="58" t="str">
+      <c r="I15" s="56" t="str">
         <f>CONCATENATE($B$15," / ",$E$15)</f>
-        <v>Ducret / Abassi</v>
-      </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="58" t="str">
+        <v>Péter-Contesse / Känzig</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="56" t="str">
         <f>CONCATENATE($B$15," / ",$E$15)</f>
-        <v>Ducret / Abassi</v>
-      </c>
-      <c r="M15" s="55" t="str">
+        <v>Péter-Contesse / Känzig</v>
+      </c>
+      <c r="M15" s="53" t="str">
         <f>CONCATENATE($C$15," ",$B$15," / ",$F$15," ",$E$15)</f>
-        <v>Noah Ducret / Mike Abassi</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57">
+        <v>Luc Péter-Contesse / Yanis Känzig</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="55">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>73</v>
+      <c r="B16" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>97</v>
+      <c r="E16" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="142" t="s">
+        <v>100</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="58" t="str">
+      <c r="I16" s="56" t="str">
         <f>CONCATENATE($B$16," / ",$E$16)</f>
-        <v>Péter-Contesse / Känzig</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="58" t="str">
+        <v>Dürst / Dürst</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="56" t="str">
         <f>CONCATENATE($B$16," / ",$E$16)</f>
-        <v>Péter-Contesse / Känzig</v>
-      </c>
-      <c r="M16" s="55" t="str">
+        <v>Dürst / Dürst</v>
+      </c>
+      <c r="M16" s="53" t="str">
         <f>CONCATENATE($C$16," ",$B$16," / ",$F$16," ",$E$16)</f>
-        <v>Luc Péter-Contesse / Yanis Känzig</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="56" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57">
+        <v>Linus Dürst / Marwin Dürst</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="54" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="55">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>101</v>
+      <c r="F17" s="150" t="s">
+        <v>97</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="58" t="str">
+      <c r="I17" s="56" t="str">
         <f>CONCATENATE($B$17," / ",$E$17)</f>
-        <v>bye / bye</v>
-      </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="58" t="str">
+        <v xml:space="preserve">bye / bye </v>
+      </c>
+      <c r="J17" s="39"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="56" t="str">
         <f>CONCATENATE($B$17," / ",$E$17)</f>
-        <v>bye / bye</v>
-      </c>
-      <c r="M17" s="55" t="str">
+        <v xml:space="preserve">bye / bye </v>
+      </c>
+      <c r="M17" s="53" t="str">
         <f>CONCATENATE($C$17," ",$B$17," / ",$F$17," ",$E$17)</f>
-        <v>bye bye / bye bye</v>
+        <v xml:space="preserve">bye bye / bye bye </v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="D19" s="63" t="s">
+      <c r="B19" s="60"/>
+      <c r="D19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="64"/>
+      <c r="E19" s="62"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -2391,84 +2459,84 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="4.59765625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="7.06640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.46484375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="3.53125" style="66" customWidth="1"/>
-    <col min="7" max="7" width="29.46484375" style="66" customWidth="1"/>
-    <col min="8" max="10" width="3.9296875" style="66" customWidth="1"/>
-    <col min="11" max="11" width="6.06640625" style="66" customWidth="1"/>
-    <col min="12" max="20" width="3.9296875" style="66" customWidth="1"/>
+    <col min="1" max="3" width="4.59765625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="7.53125" style="64" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.46484375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="3.53125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" style="64" customWidth="1"/>
+    <col min="8" max="10" width="3.9296875" style="64" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" style="64" customWidth="1"/>
+    <col min="12" max="20" width="3.9296875" style="64" customWidth="1"/>
     <col min="21" max="16384" width="9.06640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91" t="s">
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="85" t="s">
+      <c r="L1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81" t="s">
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81" t="s">
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="80" t="s">
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="80" t="s">
+      <c r="V1" s="77" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="83">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80">
         <v>0.40625</v>
       </c>
       <c r="E2" s="5" t="str">
@@ -2480,234 +2548,262 @@
       </c>
       <c r="G2" s="5" t="str">
         <f>IF(Anmeldung!$I$17=" / ",CONCATENATE("Seed #",Anmeldung!$A$17),Anmeldung!$I$17)</f>
-        <v>bye / bye</v>
-      </c>
-      <c r="H2" s="67">
+        <v xml:space="preserve">bye / bye </v>
+      </c>
+      <c r="H2" s="65">
         <v>2</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="67">
-        <v>0</v>
-      </c>
-      <c r="K2" s="93">
+      <c r="J2" s="65">
+        <v>0</v>
+      </c>
+      <c r="K2" s="90">
         <f t="shared" ref="K2:K15" si="0">SUM(V2-U2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="82"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="79"/>
       <c r="S2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="82"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
       <c r="W2"/>
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92">
+      <c r="A3" s="89">
         <f t="shared" ref="A3:A31" si="1">SUM(A2,1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="79">
         <v>1</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="80">
         <v>0.40625</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>IF(Anmeldung!$I$10=" / ",CONCATENATE("Seed #",Anmeldung!$A$10),Anmeldung!$I$10)</f>
-        <v>Raffi / Röthlisberger</v>
+        <v>Mikami / Hofmann</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="5" t="str">
         <f>IF(Anmeldung!$I$9=" / ",CONCATENATE("Seed #",Anmeldung!$A$9),Anmeldung!$I$9)</f>
-        <v>Charkin / Hrytsuk</v>
-      </c>
-      <c r="H3" s="67" t="str">
+        <v>Raffi / Röthlisberger</v>
+      </c>
+      <c r="H3" s="65">
         <f t="shared" ref="H3:H15" si="2">IF(L3=N3,"",SUM(IF(L3&gt;N3,1,0),IF(O3&gt;Q3,1,0),IF(R3&lt;=T3,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="67" t="str">
+      <c r="J3" s="65">
         <f t="shared" ref="J3:J15" si="3">IF(L3=N3,"",SUM(IF(L3&lt;N3,1,0),IF(O3&lt;Q3,1,0),IF(R3&gt;=T3,0,1)))</f>
-        <v/>
-      </c>
-      <c r="K3" s="93">
+        <v>2</v>
+      </c>
+      <c r="K3" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="86"/>
+      <c r="L3" s="83">
+        <v>1</v>
+      </c>
       <c r="M3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
+      <c r="N3" s="81">
+        <v>21</v>
+      </c>
+      <c r="O3" s="81">
+        <v>15</v>
+      </c>
       <c r="P3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="82"/>
+      <c r="Q3" s="81">
+        <v>21</v>
+      </c>
+      <c r="R3" s="79"/>
       <c r="S3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
       <c r="W3"/>
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="92">
+      <c r="A4" s="89">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="79">
         <v>2</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="80">
         <v>0.40625</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>IF(Anmeldung!$I$6=" / ",CONCATENATE("Seed #",Anmeldung!$A$6),Anmeldung!$I$6)</f>
-        <v>Stöckli / Stöckli</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5" t="str">
         <f>IF(Anmeldung!$I$13=" / ",CONCATENATE("Seed #",Anmeldung!$A$13),Anmeldung!$I$13)</f>
-        <v>Bothen / Arndt</v>
-      </c>
-      <c r="H4" s="67" t="str">
+        <v>Sieber / Müller</v>
+      </c>
+      <c r="H4" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="67" t="str">
+      <c r="J4" s="65">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K4" s="93">
+        <v>0</v>
+      </c>
+      <c r="K4" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="86"/>
+      <c r="L4" s="83">
+        <v>21</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
+      <c r="N4" s="81">
+        <v>15</v>
+      </c>
+      <c r="O4" s="81">
+        <v>21</v>
+      </c>
       <c r="P4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="82"/>
+      <c r="Q4" s="81">
+        <v>16</v>
+      </c>
+      <c r="R4" s="79"/>
       <c r="S4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
       <c r="W4"/>
       <c r="X4"/>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="92">
+      <c r="A5" s="89">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="82">
-        <v>1</v>
-      </c>
-      <c r="D5" s="83">
-        <v>0.42708333333333331</v>
+      <c r="C5" s="79">
+        <v>3</v>
+      </c>
+      <c r="D5" s="146">
+        <v>0.40625</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>IF(Anmeldung!$I$14=" / ",CONCATENATE("Seed #",Anmeldung!$A$14),Anmeldung!$I$14)</f>
-        <v>Sieber / Müller</v>
+        <v>Ducret / Abassi</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="str">
         <f>IF(Anmeldung!$I$5=" / ",CONCATENATE("Seed #",Anmeldung!$A$5),Anmeldung!$I$5)</f>
-        <v>Pérez / Lendzian</v>
-      </c>
-      <c r="H5" s="67" t="str">
+        <v>Stöckli / Stöckli</v>
+      </c>
+      <c r="H5" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="67" t="str">
+      <c r="J5" s="65">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K5" s="93">
+        <v>1</v>
+      </c>
+      <c r="K5" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="86"/>
+      <c r="L5" s="83">
+        <v>21</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
+      <c r="N5" s="81">
+        <v>15</v>
+      </c>
+      <c r="O5" s="81">
+        <v>11</v>
+      </c>
       <c r="P5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="82"/>
+      <c r="Q5" s="81">
+        <v>21</v>
+      </c>
+      <c r="R5" s="79">
+        <v>15</v>
+      </c>
       <c r="S5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="82"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="T5" s="79">
+        <v>8</v>
+      </c>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5"/>
       <c r="X5"/>
     </row>
     <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92">
+      <c r="A6" s="89">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82">
-        <v>2</v>
-      </c>
-      <c r="D6" s="83">
-        <v>0.42708333333333331</v>
+      <c r="C6" s="145">
+        <v>1</v>
+      </c>
+      <c r="D6" s="80">
+        <v>0.4375</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>IF(Anmeldung!$I$4=" / ",CONCATENATE("Seed #",Anmeldung!$A$4),Anmeldung!$I$4)</f>
@@ -2718,180 +2814,180 @@
       </c>
       <c r="G6" s="5" t="str">
         <f>IF(Anmeldung!$I$15=" / ",CONCATENATE("Seed #",Anmeldung!$A$15),Anmeldung!$I$15)</f>
-        <v>Ducret / Abassi</v>
-      </c>
-      <c r="H6" s="67" t="str">
+        <v>Péter-Contesse / Känzig</v>
+      </c>
+      <c r="H6" s="65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="67" t="str">
+      <c r="J6" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="83"/>
       <c r="M6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="82"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="82"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
       <c r="W6"/>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="92">
+    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="82">
-        <v>3</v>
-      </c>
-      <c r="D7" s="96">
-        <v>0.42708333333333331</v>
+      <c r="C7" s="145">
+        <v>2</v>
+      </c>
+      <c r="D7" s="80">
+        <v>0.4375</v>
       </c>
       <c r="E7" s="5" t="str">
         <f>IF(Anmeldung!$I$12=" / ",CONCATENATE("Seed #",Anmeldung!$A$12),Anmeldung!$I$12)</f>
-        <v>Addiechi / Flückiger</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="5" t="str">
         <f>IF(Anmeldung!$I$7=" / ",CONCATENATE("Seed #",Anmeldung!$A$7),Anmeldung!$I$7)</f>
-        <v>Bosshard / Strebel</v>
-      </c>
-      <c r="H7" s="67" t="str">
+        <v>Lendl / Kurzawa</v>
+      </c>
+      <c r="H7" s="65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="67" t="str">
+      <c r="J7" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="83"/>
       <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="82"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="79"/>
       <c r="S7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="82"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
       <c r="W7"/>
       <c r="X7"/>
     </row>
     <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92">
+      <c r="A8" s="89">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="82">
-        <v>1</v>
-      </c>
-      <c r="D8" s="83">
-        <v>0.44791666666666669</v>
+      <c r="C8" s="145">
+        <v>3</v>
+      </c>
+      <c r="D8" s="146">
+        <v>0.4375</v>
       </c>
       <c r="E8" s="5" t="str">
         <f>IF(Anmeldung!$I$8=" / ",CONCATENATE("Seed #",Anmeldung!$A$8),Anmeldung!$I$8)</f>
-        <v>Lendl / Kurzawa</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>IF(Anmeldung!$I$11=" / ",CONCATENATE("Seed #",Anmeldung!$A$11),Anmeldung!$I$11)</f>
-        <v>Mikami / Hofmann</v>
-      </c>
-      <c r="H8" s="67" t="str">
+        <v>Addiechi / Flückiger</v>
+      </c>
+      <c r="H8" s="65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="67" t="str">
+      <c r="J8" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="83"/>
       <c r="M8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="82"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="82"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
       <c r="W8"/>
       <c r="X8"/>
     </row>
     <row r="9" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="94">
+      <c r="A9" s="91">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="82">
-        <v>2</v>
-      </c>
-      <c r="D9" s="83">
-        <v>0.44791666666666669</v>
+      <c r="C9" s="79">
+        <v>1</v>
+      </c>
+      <c r="D9" s="80">
+        <v>0.46875</v>
       </c>
       <c r="E9" s="6" t="str">
         <f>IF(Anmeldung!$I$16=" / ",CONCATENATE("Seed #",Anmeldung!$A$16),Anmeldung!$I$16)</f>
-        <v>Péter-Contesse / Känzig</v>
+        <v>Dürst / Dürst</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>7</v>
@@ -2900,167 +2996,167 @@
         <f>IF(Anmeldung!$I$3=" / ",CONCATENATE("Seed #",Anmeldung!$A$3),Anmeldung!$I$3)</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="H9" s="68" t="str">
+      <c r="H9" s="66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="68" t="str">
+      <c r="J9" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K9" s="97">
+      <c r="K9" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="104"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
       <c r="P9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="105"/>
-      <c r="R9" s="95"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="92"/>
       <c r="S9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="95"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
       <c r="W9"/>
       <c r="X9"/>
     </row>
     <row r="10" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="98">
+      <c r="A10" s="95">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="7">
         <v>13</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="96"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Loser Match #",$A$2),IF($H$2&lt;$J$2,$E$2,$G$2))</f>
-        <v>bye / bye</v>
+        <v xml:space="preserve">bye / bye </v>
       </c>
       <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>IF($H$3=$J$3,CONCATENATE("Loser Match #",$A$3),IF($H$3&lt;$J$3,$E$3,$G$3))</f>
-        <v>Loser Match #2</v>
-      </c>
-      <c r="H10" s="69">
+        <v>Mikami / Hofmann</v>
+      </c>
+      <c r="H10" s="67">
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="67">
+      <c r="J10" s="65">
         <v>2</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="102"/>
+      <c r="L10" s="99"/>
       <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="99"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="96"/>
       <c r="S10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="99"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
       <c r="W10"/>
       <c r="X10"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="92">
+      <c r="A11" s="89">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>13</v>
       </c>
-      <c r="C11" s="82">
-        <v>1</v>
-      </c>
-      <c r="D11" s="83">
+      <c r="C11" s="79">
+        <v>2</v>
+      </c>
+      <c r="D11" s="80">
         <v>0.46875</v>
       </c>
       <c r="E11" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Loser Match #",$A$4),IF($H$4&lt;$J$4,$E$4,$G$4))</f>
-        <v>Loser Match #3</v>
+        <v>Sieber / Müller</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="5" t="str">
         <f>IF($H$5=$J$5,CONCATENATE("Loser Match #",$A$5),IF($H$5&lt;$J$5,$E$5,$G$5))</f>
-        <v>Loser Match #4</v>
-      </c>
-      <c r="H11" s="67" t="str">
+        <v>Stöckli / Stöckli</v>
+      </c>
+      <c r="H11" s="65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="67" t="str">
+      <c r="J11" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="83"/>
       <c r="M11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="82"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="79"/>
       <c r="S11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="82"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
       <c r="W11"/>
       <c r="X11"/>
     </row>
     <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="92">
+      <c r="A12" s="89">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>13</v>
       </c>
-      <c r="C12" s="82">
-        <v>2</v>
-      </c>
-      <c r="D12" s="83">
+      <c r="C12" s="79">
+        <v>3</v>
+      </c>
+      <c r="D12" s="146">
         <v>0.46875</v>
       </c>
       <c r="E12" s="5" t="str">
@@ -3074,54 +3170,54 @@
         <f>IF($H$7=$J$7,CONCATENATE("Loser Match #",$A$7),IF($H$7&lt;$J$7,$E$7,$G$7))</f>
         <v>Loser Match #6</v>
       </c>
-      <c r="H12" s="67" t="str">
+      <c r="H12" s="65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="67" t="str">
+      <c r="J12" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="83"/>
       <c r="M12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
       <c r="P12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="82"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="79"/>
       <c r="S12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="82"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
       <c r="W12"/>
       <c r="X12"/>
     </row>
     <row r="13" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="94">
+      <c r="A13" s="91">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
       </c>
-      <c r="C13" s="82">
-        <v>3</v>
-      </c>
-      <c r="D13" s="83">
-        <v>0.46875</v>
+      <c r="C13" s="79">
+        <v>1</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0.5</v>
       </c>
       <c r="E13" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Loser Match #",$A$8),IF($H$8&lt;$J$8,$E$8,$G$8))</f>
@@ -3134,54 +3230,54 @@
         <f>IF($H$9=$J$9,CONCATENATE("Loser Match #",$A$9),IF($H$9&lt;$J$9,$E$9,$G$9))</f>
         <v>Loser Match #8</v>
       </c>
-      <c r="H13" s="68" t="str">
+      <c r="H13" s="66" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="68" t="str">
+      <c r="J13" s="66" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="104"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
       <c r="P13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="95"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="92"/>
       <c r="S13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="95"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13"/>
       <c r="X13"/>
     </row>
     <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="98">
+      <c r="A14" s="95">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="82">
-        <v>1</v>
-      </c>
-      <c r="D14" s="100">
-        <v>0.48958333333333331</v>
+      <c r="C14" s="79">
+        <v>2</v>
+      </c>
+      <c r="D14" s="80">
+        <v>0.5</v>
       </c>
       <c r="E14" s="7" t="str">
         <f>IF($H$2=$J$2,CONCATENATE("Winner Match #",$A$2),IF($H$2&gt;$J$2,$E$2,$G$2))</f>
@@ -3192,116 +3288,116 @@
       </c>
       <c r="G14" s="7" t="str">
         <f>IF($H$3=$J$3,CONCATENATE("Winner Match #",$A$3),IF($H$3&gt;$J$3,$E$3,$G$3))</f>
-        <v>Winner Match #2</v>
-      </c>
-      <c r="H14" s="69" t="str">
+        <v>Raffi / Röthlisberger</v>
+      </c>
+      <c r="H14" s="67" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="69" t="str">
+      <c r="J14" s="67" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="102"/>
+      <c r="L14" s="99"/>
       <c r="M14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="96"/>
       <c r="S14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="99"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
       <c r="W14"/>
       <c r="X14"/>
     </row>
     <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="92">
+      <c r="A15" s="89">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="82">
-        <v>2</v>
-      </c>
-      <c r="D15" s="100">
-        <v>0.48958333333333331</v>
+      <c r="C15" s="79">
+        <v>3</v>
+      </c>
+      <c r="D15" s="146">
+        <v>0.5</v>
       </c>
       <c r="E15" s="5" t="str">
         <f>IF($H$4=$J$4,CONCATENATE("Winner Match #",$A$4),IF($H$4&gt;$J$4,$E$4,$G$4))</f>
-        <v>Winner Match #3</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>IF($H$5=$J$5,CONCATENATE("Winner Match #",$A$5),IF($H$5&gt;$J$5,$E$5,$G$5))</f>
-        <v>Winner Match #4</v>
-      </c>
-      <c r="H15" s="67" t="str">
+        <v>Ducret / Abassi</v>
+      </c>
+      <c r="H15" s="65" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="67" t="str">
+      <c r="J15" s="65" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K15" s="93">
+      <c r="K15" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="83"/>
       <c r="M15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
       <c r="P15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="82"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="79"/>
       <c r="S15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="82"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
       <c r="W15"/>
       <c r="X15"/>
     </row>
     <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="92">
+      <c r="A16" s="89">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="82">
-        <v>3</v>
-      </c>
-      <c r="D16" s="100">
-        <v>0.48958333333333331</v>
+      <c r="C16" s="145">
+        <v>1</v>
+      </c>
+      <c r="D16" s="97">
+        <v>0.53125</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Winner Match #",$A$6),IF($H$6&gt;$J$6,$E$6,$G$6))</f>
@@ -3314,54 +3410,54 @@
         <f>IF($H$7=$J$7,CONCATENATE("Winner Match #",$A$7),IF($H$7&gt;$J$7,$E$7,$G$7))</f>
         <v>Winner Match #6</v>
       </c>
-      <c r="H16" s="67" t="str">
+      <c r="H16" s="65" t="str">
         <f t="shared" ref="H16:H29" si="4">IF(L16=N16,"",SUM(IF(L16&gt;N16,1,0),IF(O16&gt;Q16,1,0),IF(R16&lt;=T16,0,1)))</f>
         <v/>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="67" t="str">
+      <c r="J16" s="65" t="str">
         <f t="shared" ref="J16:J29" si="5">IF(L16=N16,"",SUM(IF(L16&lt;N16,1,0),IF(O16&lt;Q16,1,0),IF(R16&gt;=T16,0,1)))</f>
         <v/>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="90">
         <f t="shared" ref="K16:K29" si="6">SUM(V16-U16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="83"/>
       <c r="M16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="82"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="79"/>
       <c r="S16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T16" s="82"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
       <c r="W16"/>
       <c r="X16"/>
     </row>
     <row r="17" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="94">
+      <c r="A17" s="91">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="82">
-        <v>1</v>
-      </c>
-      <c r="D17" s="96">
-        <v>0.51041666666666663</v>
+      <c r="C17" s="145">
+        <v>2</v>
+      </c>
+      <c r="D17" s="97">
+        <v>0.53125</v>
       </c>
       <c r="E17" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Winner Match #",$A$8),IF($H$8&gt;$J$8,$E$8,$G$8))</f>
@@ -3374,54 +3470,54 @@
         <f>IF($H$9=$J$9,CONCATENATE("Winner Match #",$A$9),IF($H$9&gt;$J$9,$E$9,$G$9))</f>
         <v>Winner Match #8</v>
       </c>
-      <c r="H17" s="68" t="str">
+      <c r="H17" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="68" t="str">
+      <c r="J17" s="66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K17" s="97">
+      <c r="K17" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L17" s="104"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
       <c r="P17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="95"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="92"/>
       <c r="S17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T17" s="95"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
       <c r="W17"/>
       <c r="X17"/>
     </row>
-    <row r="18" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="98">
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="95">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="82">
-        <v>2</v>
-      </c>
-      <c r="D18" s="96">
-        <v>0.51041666666666663</v>
+      <c r="C18" s="145">
+        <v>3</v>
+      </c>
+      <c r="D18" s="148">
+        <v>0.53125</v>
       </c>
       <c r="E18" s="7" t="str">
         <f>IF($H$13=$J$13,CONCATENATE("Winner Match #",$A$13),IF($H$13&gt;$J$13,$E$13,$G$13))</f>
@@ -3434,54 +3530,54 @@
         <f>IF($H$14=$J$14,CONCATENATE("Loser Match #",$A$14),IF($H$14&lt;$J$14,$E$14,$G$14))</f>
         <v>Loser Match #13</v>
       </c>
-      <c r="H18" s="69" t="str">
+      <c r="H18" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="69" t="str">
+      <c r="J18" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K18" s="101">
+      <c r="K18" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L18" s="102"/>
+      <c r="L18" s="99"/>
       <c r="M18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="103"/>
-      <c r="O18" s="103"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="99"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="96"/>
       <c r="S18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T18" s="99"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
       <c r="W18"/>
       <c r="X18"/>
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="92">
+      <c r="A19" s="89">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>9</v>
       </c>
-      <c r="C19" s="82">
-        <v>3</v>
-      </c>
-      <c r="D19" s="96">
-        <v>0.51041666666666663</v>
+      <c r="C19" s="145">
+        <v>1</v>
+      </c>
+      <c r="D19" s="147">
+        <v>0.55208333333333337</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
@@ -3494,54 +3590,54 @@
         <f>IF($H$15=$J$15,CONCATENATE("Loser Match #",$A$15),IF($H$15&lt;$J$15,$E$15,$G$15))</f>
         <v>Loser Match #14</v>
       </c>
-      <c r="H19" s="67" t="str">
+      <c r="H19" s="65" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="67" t="str">
+      <c r="J19" s="65" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L19" s="86"/>
+      <c r="L19" s="83"/>
       <c r="M19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
       <c r="P19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="82"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="79"/>
       <c r="S19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="82"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
       <c r="W19"/>
       <c r="X19"/>
     </row>
-    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="92">
+    <row r="20" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="89">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>9</v>
       </c>
-      <c r="C20" s="82">
-        <v>1</v>
-      </c>
-      <c r="D20" s="83">
-        <v>0.53125</v>
+      <c r="C20" s="145">
+        <v>2</v>
+      </c>
+      <c r="D20" s="147">
+        <v>0.55208333333333337</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
@@ -3554,58 +3650,58 @@
         <f>IF($H$16=$J$16,CONCATENATE("Loser Match #",$A$16),IF($H$16&lt;$J$16,$E$16,$G$16))</f>
         <v>Loser Match #15</v>
       </c>
-      <c r="H20" s="67" t="str">
+      <c r="H20" s="65" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="67" t="str">
+      <c r="J20" s="65" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="86"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="82"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T20" s="82"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
       <c r="W20"/>
       <c r="X20"/>
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="94">
+      <c r="A21" s="91">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="82">
-        <v>2</v>
-      </c>
-      <c r="D21" s="83">
-        <v>0.53125</v>
+      <c r="C21" s="145">
+        <v>3</v>
+      </c>
+      <c r="D21" s="147">
+        <v>0.55208333333333337</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
-        <v>Loser Match #2</v>
+        <v>Mikami / Hofmann</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>7</v>
@@ -3614,54 +3710,54 @@
         <f>IF($H$17=$J$17,CONCATENATE("Loser Match #",$A$17),IF($H$17&lt;$J$17,$E$17,$G$17))</f>
         <v>Loser Match #16</v>
       </c>
-      <c r="H21" s="68" t="str">
+      <c r="H21" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="68" t="str">
+      <c r="J21" s="66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K21" s="97">
+      <c r="K21" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L21" s="104"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
       <c r="P21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="95"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="92"/>
       <c r="S21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="95"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
       <c r="W21"/>
       <c r="X21"/>
     </row>
     <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="98">
+      <c r="A22" s="95">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="82">
-        <v>3</v>
-      </c>
-      <c r="D22" s="83">
-        <v>0.53125</v>
+      <c r="C22" s="145">
+        <v>1</v>
+      </c>
+      <c r="D22" s="146">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
@@ -3674,54 +3770,54 @@
         <f>IF($H$15=$J$15,CONCATENATE("Winner Match #",$A$15),IF($H$15&gt;$J$15,$E$15,$G$15))</f>
         <v>Winner Match #14</v>
       </c>
-      <c r="H22" s="69" t="str">
+      <c r="H22" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="69" t="str">
+      <c r="J22" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K22" s="101">
+      <c r="K22" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="103"/>
-      <c r="O22" s="103"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="103"/>
-      <c r="R22" s="99"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="96"/>
       <c r="S22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="99"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
       <c r="W22"/>
       <c r="X22"/>
     </row>
     <row r="23" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="94">
+      <c r="A23" s="91">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="82">
-        <v>1</v>
-      </c>
-      <c r="D23" s="96">
-        <v>0.55208333333333337</v>
+      <c r="C23" s="145">
+        <v>2</v>
+      </c>
+      <c r="D23" s="146">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Winner Match #",$A$16),IF($H$16&gt;$J$16,$E$16,$G$16))</f>
@@ -3734,54 +3830,54 @@
         <f>IF($H$17=$J$17,CONCATENATE("Winner Match #",$A$17),IF($H$17&gt;$J$17,$E$17,$G$17))</f>
         <v>Winner Match #16</v>
       </c>
-      <c r="H23" s="68" t="str">
+      <c r="H23" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="68" t="str">
+      <c r="J23" s="66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K23" s="97">
+      <c r="K23" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L23" s="104"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="95"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="92"/>
       <c r="S23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="95"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
       <c r="W23"/>
       <c r="X23"/>
     </row>
-    <row r="24" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="98">
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="95">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="82">
-        <v>2</v>
-      </c>
-      <c r="D24" s="96">
-        <v>0.55208333333333337</v>
+      <c r="C24" s="145">
+        <v>3</v>
+      </c>
+      <c r="D24" s="146">
+        <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
@@ -3794,55 +3890,51 @@
         <f>IF($H$19=$J$19,CONCATENATE("Winner Match #",$A$19),IF($H$19&gt;$J$19,$E$19,$G$19))</f>
         <v>Winner Match #18</v>
       </c>
-      <c r="H24" s="69" t="str">
+      <c r="H24" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="69" t="str">
+      <c r="J24" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K24" s="101">
+      <c r="K24" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24" s="102"/>
+      <c r="L24" s="99"/>
       <c r="M24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
       <c r="P24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="99"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="96"/>
       <c r="S24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T24" s="99"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
       <c r="W24"/>
       <c r="X24"/>
     </row>
     <row r="25" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="94">
+      <c r="A25" s="91">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="82">
-        <v>3</v>
-      </c>
-      <c r="D25" s="96">
-        <v>0.55208333333333337</v>
-      </c>
+      <c r="C25" s="79"/>
+      <c r="D25" s="93"/>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
         <v>Winner Match #19</v>
@@ -3854,51 +3946,51 @@
         <f>IF($H$21=$J$21,CONCATENATE("Winner Match #",$A$21),IF($H$21&gt;$J$21,$E$21,$G$21))</f>
         <v>Winner Match #20</v>
       </c>
-      <c r="H25" s="68" t="str">
+      <c r="H25" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="68" t="str">
+      <c r="J25" s="66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K25" s="97">
+      <c r="K25" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L25" s="104"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
       <c r="P25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="95"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="92"/>
       <c r="S25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T25" s="95"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
       <c r="W25"/>
       <c r="X25"/>
     </row>
     <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="98">
+      <c r="A26" s="95">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="100"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
         <v>Winner Match #23</v>
@@ -3910,51 +4002,51 @@
         <f>IF($H$23=$J$23,CONCATENATE("Loser Match #",$A$23),IF($H$23&lt;$J$23,$E$23,$G$23))</f>
         <v>Loser Match #22</v>
       </c>
-      <c r="H26" s="69" t="str">
+      <c r="H26" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="69" t="str">
+      <c r="J26" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K26" s="101">
+      <c r="K26" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L26" s="102"/>
+      <c r="L26" s="99"/>
       <c r="M26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="99"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="96"/>
       <c r="S26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="99"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
       <c r="W26"/>
       <c r="X26"/>
     </row>
     <row r="27" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="94">
+      <c r="A27" s="91">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="6" t="str">
         <f>IF($H$25=$J$25,CONCATENATE("Winner Match #",$A$25),IF($H$25&gt;$J$25,$E$25,$G$25))</f>
         <v>Winner Match #24</v>
@@ -3966,51 +4058,51 @@
         <f>IF($H$22=$J$22,CONCATENATE("Loser Match #",$A$22),IF($H$22&lt;$J$22,$E$22,$G$22))</f>
         <v>Loser Match #21</v>
       </c>
-      <c r="H27" s="68" t="str">
+      <c r="H27" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="68" t="str">
+      <c r="J27" s="66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K27" s="97">
+      <c r="K27" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L27" s="104"/>
+      <c r="L27" s="101"/>
       <c r="M27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
       <c r="P27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="105"/>
-      <c r="R27" s="95"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="92"/>
       <c r="S27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="95"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
       <c r="W27"/>
       <c r="X27"/>
     </row>
     <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="98">
+      <c r="A28" s="95">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="7" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Winner Match #",$A$22),IF($H$22&gt;$J$22,$E$22,$G$22))</f>
         <v>Winner Match #21</v>
@@ -4022,51 +4114,51 @@
         <f>IF($H$26=$J$26,CONCATENATE("Winner Match #",$A$26),IF($H$26&gt;$J$26,$E$26,$G$26))</f>
         <v>Winner Match #25</v>
       </c>
-      <c r="H28" s="69" t="str">
+      <c r="H28" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="69" t="str">
+      <c r="J28" s="67" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K28" s="101">
+      <c r="K28" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L28" s="102"/>
+      <c r="L28" s="99"/>
       <c r="M28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
       <c r="P28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="99"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="96"/>
       <c r="S28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T28" s="99"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
       <c r="W28"/>
       <c r="X28"/>
     </row>
     <row r="29" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="94">
+      <c r="A29" s="91">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
       <c r="E29" s="6" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Winner Match #",$A$23),IF($H$23&gt;$J$23,$E$23,$G$23))</f>
         <v>Winner Match #22</v>
@@ -4078,51 +4170,51 @@
         <f>IF($H$27=$J$27,CONCATENATE("Winner Match #",$A$27),IF($H$27&gt;$J$27,$E$27,$G$27))</f>
         <v>Winner Match #26</v>
       </c>
-      <c r="H29" s="68" t="str">
+      <c r="H29" s="66" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="68" t="str">
+      <c r="J29" s="66" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K29" s="97">
+      <c r="K29" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L29" s="104"/>
+      <c r="L29" s="101"/>
       <c r="M29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
       <c r="P29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="95"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="92"/>
       <c r="S29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="95"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
       <c r="W29"/>
       <c r="X29"/>
     </row>
     <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="98">
+      <c r="A30" s="95">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="97"/>
       <c r="E30" s="7" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Loser Match #",$A$28),IF($H$28&lt;$J$28,$E$28,$G$28))</f>
         <v>Loser Match #27</v>
@@ -4134,51 +4226,51 @@
         <f>IF($H$29=$J$29,CONCATENATE("Loser Match #",$A$29),IF($H$29&lt;$J$29,$E$29,$G$29))</f>
         <v>Loser Match #28</v>
       </c>
-      <c r="H30" s="69" t="str">
+      <c r="H30" s="67" t="str">
         <f>IF(L30=N30,"",SUM(IF(L30&gt;N30,1,0),IF(O30&gt;Q30,1,0),IF(R30&lt;=T30,0,1)))</f>
         <v/>
       </c>
       <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="69" t="str">
+      <c r="J30" s="67" t="str">
         <f>IF(L30=N30,"",SUM(IF(L30&lt;N30,1,0),IF(O30&lt;Q30,1,0),IF(R30&gt;=T30,0,1)))</f>
         <v/>
       </c>
-      <c r="K30" s="101">
+      <c r="K30" s="98">
         <f>SUM(V30-U30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="102"/>
+      <c r="L30" s="99"/>
       <c r="M30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
       <c r="P30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="99"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="96"/>
       <c r="S30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T30" s="99"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
+      <c r="T30" s="96"/>
+      <c r="U30" s="70"/>
+      <c r="V30" s="70"/>
       <c r="W30"/>
       <c r="X30"/>
     </row>
     <row r="31" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="94">
+      <c r="A31" s="91">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="96"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
       <c r="E31" s="6" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Winner Match #",$A$28),IF($H$28&gt;$J$28,$E$28,$G$28))</f>
         <v>Winner Match #27</v>
@@ -4190,38 +4282,38 @@
         <f>IF($H$29=$J$29,CONCATENATE("Winner Match #",$A$29),IF($H$29&gt;$J$29,$E$29,$G$29))</f>
         <v>Winner Match #28</v>
       </c>
-      <c r="H31" s="68" t="str">
+      <c r="H31" s="66" t="str">
         <f>IF(L31=N31,"",SUM(IF(L31&gt;N31,1,0),IF(O31&gt;Q31,1,0),IF(R31&lt;=T31,0,1)))</f>
         <v/>
       </c>
       <c r="I31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J31" s="68" t="str">
+      <c r="J31" s="66" t="str">
         <f>IF(L31=N31,"",SUM(IF(L31&lt;N31,1,0),IF(O31&lt;Q31,1,0),IF(R31&gt;=T31,0,1)))</f>
         <v/>
       </c>
-      <c r="K31" s="97">
+      <c r="K31" s="94">
         <f>SUM(V31-U31)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="86"/>
+      <c r="L31" s="83"/>
       <c r="M31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
       <c r="P31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="82"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="79"/>
       <c r="S31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T31" s="82"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
       <c r="W31"/>
       <c r="X31"/>
     </row>
@@ -4333,10 +4425,10 @@
         <v>End time</v>
       </c>
       <c r="R1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="S1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
@@ -4344,7 +4436,7 @@
         <f>Resultate!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="str">
+      <c r="B2" s="130" t="str">
         <f>Resultate!B2</f>
         <v>I</v>
       </c>
@@ -4352,7 +4444,7 @@
         <f>Resultate!C2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="132">
+      <c r="D2" s="129">
         <f>Resultate!D2</f>
         <v>0.40625</v>
       </c>
@@ -4362,7 +4454,7 @@
       </c>
       <c r="F2" t="str">
         <f>Resultate!G2</f>
-        <v>bye / bye</v>
+        <v xml:space="preserve">bye / bye </v>
       </c>
       <c r="G2">
         <f>Resultate!H2</f>
@@ -4372,7 +4464,7 @@
         <f>Resultate!J2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="132">
+      <c r="I2" s="129">
         <f>Resultate!K2</f>
         <v>0</v>
       </c>
@@ -4400,11 +4492,11 @@
         <f>Resultate!T2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="132">
+      <c r="P2" s="129">
         <f>Resultate!U2</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="132">
+      <c r="Q2" s="129">
         <f>Resultate!V2</f>
         <v>0</v>
       </c>
@@ -4428,7 +4520,7 @@
         <v/>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -4436,7 +4528,7 @@
         <f>Resultate!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="133" t="str">
+      <c r="B3" s="130" t="str">
         <f>Resultate!B3</f>
         <v>I</v>
       </c>
@@ -4444,45 +4536,45 @@
         <f>Resultate!C3</f>
         <v>1</v>
       </c>
-      <c r="D3" s="132">
+      <c r="D3" s="129">
         <f>Resultate!D3</f>
         <v>0.40625</v>
       </c>
       <c r="E3" t="str">
         <f>Resultate!E3</f>
-        <v>Raffi / Röthlisberger</v>
+        <v>Mikami / Hofmann</v>
       </c>
       <c r="F3" t="str">
         <f>Resultate!G3</f>
-        <v>Charkin / Hrytsuk</v>
-      </c>
-      <c r="G3" t="str">
+        <v>Raffi / Röthlisberger</v>
+      </c>
+      <c r="G3">
         <f>Resultate!H3</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <f>Resultate!J3</f>
-        <v/>
-      </c>
-      <c r="I3" s="132">
+        <v>2</v>
+      </c>
+      <c r="I3" s="129">
         <f>Resultate!K3</f>
         <v>0</v>
       </c>
       <c r="J3">
         <f>Resultate!L3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f>Resultate!N3</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L3">
         <f>Resultate!O3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M3">
         <f>Resultate!Q3</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <f>Resultate!R3</f>
@@ -4492,11 +4584,11 @@
         <f>Resultate!T3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="132">
+      <c r="P3" s="129">
         <f>Resultate!U3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="132">
+      <c r="Q3" s="129">
         <f>Resultate!V3</f>
         <v>0</v>
       </c>
@@ -4517,10 +4609,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -4528,7 +4620,7 @@
         <f>Resultate!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="133" t="str">
+      <c r="B4" s="130" t="str">
         <f>Resultate!B4</f>
         <v>I</v>
       </c>
@@ -4536,45 +4628,45 @@
         <f>Resultate!C4</f>
         <v>2</v>
       </c>
-      <c r="D4" s="132">
+      <c r="D4" s="129">
         <f>Resultate!D4</f>
         <v>0.40625</v>
       </c>
       <c r="E4" t="str">
         <f>Resultate!E4</f>
-        <v>Stöckli / Stöckli</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F4" t="str">
         <f>Resultate!G4</f>
-        <v>Bothen / Arndt</v>
-      </c>
-      <c r="G4" t="str">
+        <v>Sieber / Müller</v>
+      </c>
+      <c r="G4">
         <f>Resultate!H4</f>
-        <v/>
-      </c>
-      <c r="H4" t="str">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <f>Resultate!J4</f>
-        <v/>
-      </c>
-      <c r="I4" s="132">
+        <v>0</v>
+      </c>
+      <c r="I4" s="129">
         <f>Resultate!K4</f>
         <v>0</v>
       </c>
       <c r="J4">
         <f>Resultate!L4</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <f>Resultate!N4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <f>Resultate!O4</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M4">
         <f>Resultate!Q4</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4">
         <f>Resultate!R4</f>
@@ -4584,11 +4676,11 @@
         <f>Resultate!T4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="132">
+      <c r="P4" s="129">
         <f>Resultate!U4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="132">
+      <c r="Q4" s="129">
         <f>Resultate!V4</f>
         <v>0</v>
       </c>
@@ -4609,10 +4701,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -4620,66 +4712,66 @@
         <f>Resultate!A5</f>
         <v>4</v>
       </c>
-      <c r="B5" s="133" t="str">
+      <c r="B5" s="130" t="str">
         <f>Resultate!B5</f>
         <v>I</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="132">
+      <c r="D5" s="129">
         <f>Resultate!D5</f>
-        <v>0.42708333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="E5" t="str">
         <f>Resultate!E5</f>
-        <v>Sieber / Müller</v>
+        <v>Ducret / Abassi</v>
       </c>
       <c r="F5" t="str">
         <f>Resultate!G5</f>
-        <v>Pérez / Lendzian</v>
-      </c>
-      <c r="G5" t="str">
+        <v>Stöckli / Stöckli</v>
+      </c>
+      <c r="G5">
         <f>Resultate!H5</f>
-        <v/>
-      </c>
-      <c r="H5" t="str">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <f>Resultate!J5</f>
-        <v/>
-      </c>
-      <c r="I5" s="132">
+        <v>1</v>
+      </c>
+      <c r="I5" s="129">
         <f>Resultate!K5</f>
         <v>0</v>
       </c>
       <c r="J5">
         <f>Resultate!L5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <f>Resultate!N5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f>Resultate!O5</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <f>Resultate!Q5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <f>Resultate!R5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O5">
         <f>Resultate!T5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="132">
+        <v>8</v>
+      </c>
+      <c r="P5" s="129">
         <f>Resultate!U5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="132">
+      <c r="Q5" s="129">
         <f>Resultate!V5</f>
         <v>0</v>
       </c>
@@ -4700,10 +4792,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>completed</v>
       </c>
       <c r="S5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -4711,17 +4803,17 @@
         <f>Resultate!A6</f>
         <v>5</v>
       </c>
-      <c r="B6" s="133" t="str">
+      <c r="B6" s="130" t="str">
         <f>Resultate!B6</f>
         <v>I</v>
       </c>
       <c r="C6">
         <f>Resultate!C6</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="132">
+        <v>1</v>
+      </c>
+      <c r="D6" s="129">
         <f>Resultate!D6</f>
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E6" t="str">
         <f>Resultate!E6</f>
@@ -4729,7 +4821,7 @@
       </c>
       <c r="F6" t="str">
         <f>Resultate!G6</f>
-        <v>Ducret / Abassi</v>
+        <v>Péter-Contesse / Känzig</v>
       </c>
       <c r="G6" t="str">
         <f>Resultate!H6</f>
@@ -4739,7 +4831,7 @@
         <f>Resultate!J6</f>
         <v/>
       </c>
-      <c r="I6" s="132">
+      <c r="I6" s="129">
         <f>Resultate!K6</f>
         <v>0</v>
       </c>
@@ -4767,11 +4859,11 @@
         <f>Resultate!T6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="132">
+      <c r="P6" s="129">
         <f>Resultate!U6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="132">
+      <c r="Q6" s="129">
         <f>Resultate!V6</f>
         <v>0</v>
       </c>
@@ -4792,10 +4884,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -4803,25 +4895,25 @@
         <f>Resultate!A7</f>
         <v>6</v>
       </c>
-      <c r="B7" s="133" t="str">
+      <c r="B7" s="130" t="str">
         <f>Resultate!B7</f>
         <v>I</v>
       </c>
       <c r="C7">
         <f>Resultate!C7</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="132">
+        <v>2</v>
+      </c>
+      <c r="D7" s="129">
         <f>Resultate!D7</f>
-        <v>0.42708333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="E7" t="str">
         <f>Resultate!E7</f>
-        <v>Addiechi / Flückiger</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="F7" t="str">
         <f>Resultate!G7</f>
-        <v>Bosshard / Strebel</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="G7" t="str">
         <f>Resultate!H7</f>
@@ -4831,7 +4923,7 @@
         <f>Resultate!J7</f>
         <v/>
       </c>
-      <c r="I7" s="132">
+      <c r="I7" s="129">
         <f>Resultate!K7</f>
         <v>0</v>
       </c>
@@ -4859,11 +4951,11 @@
         <f>Resultate!T7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="132">
+      <c r="P7" s="129">
         <f>Resultate!U7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="132">
+      <c r="Q7" s="129">
         <f>Resultate!V7</f>
         <v>0</v>
       </c>
@@ -4887,7 +4979,7 @@
         <v>in_progress</v>
       </c>
       <c r="S7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -4895,25 +4987,25 @@
         <f>Resultate!A8</f>
         <v>7</v>
       </c>
-      <c r="B8" s="133" t="str">
+      <c r="B8" s="130" t="str">
         <f>Resultate!B8</f>
         <v>I</v>
       </c>
       <c r="C8">
         <f>Resultate!C8</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="132">
+        <v>3</v>
+      </c>
+      <c r="D8" s="129">
         <f>Resultate!D8</f>
-        <v>0.44791666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E8" t="str">
         <f>Resultate!E8</f>
-        <v>Lendl / Kurzawa</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F8" t="str">
         <f>Resultate!G8</f>
-        <v>Mikami / Hofmann</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="G8" t="str">
         <f>Resultate!H8</f>
@@ -4923,7 +5015,7 @@
         <f>Resultate!J8</f>
         <v/>
       </c>
-      <c r="I8" s="132">
+      <c r="I8" s="129">
         <f>Resultate!K8</f>
         <v>0</v>
       </c>
@@ -4951,11 +5043,11 @@
         <f>Resultate!T8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="132">
+      <c r="P8" s="129">
         <f>Resultate!U8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="132">
+      <c r="Q8" s="129">
         <f>Resultate!V8</f>
         <v>0</v>
       </c>
@@ -4976,10 +5068,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
@@ -4987,21 +5079,21 @@
         <f>Resultate!A9</f>
         <v>8</v>
       </c>
-      <c r="B9" s="133" t="str">
+      <c r="B9" s="130" t="str">
         <f>Resultate!B9</f>
         <v>I</v>
       </c>
       <c r="C9">
         <f>Resultate!C9</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="132">
+        <v>1</v>
+      </c>
+      <c r="D9" s="129">
         <f>Resultate!D9</f>
-        <v>0.44791666666666669</v>
+        <v>0.46875</v>
       </c>
       <c r="E9" t="str">
         <f>Resultate!E9</f>
-        <v>Péter-Contesse / Känzig</v>
+        <v>Dürst / Dürst</v>
       </c>
       <c r="F9" t="str">
         <f>Resultate!G9</f>
@@ -5015,7 +5107,7 @@
         <f>Resultate!J9</f>
         <v/>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="129">
         <f>Resultate!K9</f>
         <v>0</v>
       </c>
@@ -5043,11 +5135,11 @@
         <f>Resultate!T9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="132">
+      <c r="P9" s="129">
         <f>Resultate!U9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="132">
+      <c r="Q9" s="129">
         <f>Resultate!V9</f>
         <v>0</v>
       </c>
@@ -5068,10 +5160,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -5079,7 +5171,7 @@
         <f>Resultate!A10</f>
         <v>9</v>
       </c>
-      <c r="B10" s="133">
+      <c r="B10" s="130">
         <f>Resultate!B10</f>
         <v>13</v>
       </c>
@@ -5087,17 +5179,17 @@
         <f>Resultate!C10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="132">
+      <c r="D10" s="129">
         <f>Resultate!D10</f>
         <v>0</v>
       </c>
       <c r="E10" t="str">
         <f>Resultate!E10</f>
-        <v>bye / bye</v>
+        <v xml:space="preserve">bye / bye </v>
       </c>
       <c r="F10" t="str">
         <f>Resultate!G10</f>
-        <v>Loser Match #2</v>
+        <v>Mikami / Hofmann</v>
       </c>
       <c r="G10">
         <f>Resultate!H10</f>
@@ -5107,7 +5199,7 @@
         <f>Resultate!J10</f>
         <v>2</v>
       </c>
-      <c r="I10" s="132">
+      <c r="I10" s="129">
         <f>Resultate!K10</f>
         <v>0</v>
       </c>
@@ -5135,11 +5227,11 @@
         <f>Resultate!T10</f>
         <v>0</v>
       </c>
-      <c r="P10" s="132">
+      <c r="P10" s="129">
         <f>Resultate!U10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="132">
+      <c r="Q10" s="129">
         <f>Resultate!V10</f>
         <v>0</v>
       </c>
@@ -5163,7 +5255,7 @@
         <v/>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -5171,25 +5263,25 @@
         <f>Resultate!A11</f>
         <v>10</v>
       </c>
-      <c r="B11" s="133">
+      <c r="B11" s="130">
         <f>Resultate!B11</f>
         <v>13</v>
       </c>
       <c r="C11">
         <f>Resultate!C11</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="132">
+        <v>2</v>
+      </c>
+      <c r="D11" s="129">
         <f>Resultate!D11</f>
         <v>0.46875</v>
       </c>
       <c r="E11" t="str">
         <f>Resultate!E11</f>
-        <v>Loser Match #3</v>
+        <v>Sieber / Müller</v>
       </c>
       <c r="F11" t="str">
         <f>Resultate!G11</f>
-        <v>Loser Match #4</v>
+        <v>Stöckli / Stöckli</v>
       </c>
       <c r="G11" t="str">
         <f>Resultate!H11</f>
@@ -5199,7 +5291,7 @@
         <f>Resultate!J11</f>
         <v/>
       </c>
-      <c r="I11" s="132">
+      <c r="I11" s="129">
         <f>Resultate!K11</f>
         <v>0</v>
       </c>
@@ -5227,11 +5319,11 @@
         <f>Resultate!T11</f>
         <v>0</v>
       </c>
-      <c r="P11" s="132">
+      <c r="P11" s="129">
         <f>Resultate!U11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="132">
+      <c r="Q11" s="129">
         <f>Resultate!V11</f>
         <v>0</v>
       </c>
@@ -5252,10 +5344,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -5263,15 +5355,15 @@
         <f>Resultate!A12</f>
         <v>11</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="130">
         <f>Resultate!B12</f>
         <v>13</v>
       </c>
       <c r="C12">
         <f>Resultate!C12</f>
-        <v>2</v>
-      </c>
-      <c r="D12" s="132">
+        <v>3</v>
+      </c>
+      <c r="D12" s="129">
         <f>Resultate!D12</f>
         <v>0.46875</v>
       </c>
@@ -5291,7 +5383,7 @@
         <f>Resultate!J12</f>
         <v/>
       </c>
-      <c r="I12" s="132">
+      <c r="I12" s="129">
         <f>Resultate!K12</f>
         <v>0</v>
       </c>
@@ -5319,11 +5411,11 @@
         <f>Resultate!T12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="132">
+      <c r="P12" s="129">
         <f>Resultate!U12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="132">
+      <c r="Q12" s="129">
         <f>Resultate!V12</f>
         <v>0</v>
       </c>
@@ -5344,10 +5436,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -5355,17 +5447,17 @@
         <f>Resultate!A13</f>
         <v>12</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="130">
         <f>Resultate!B13</f>
         <v>13</v>
       </c>
       <c r="C13">
         <f>Resultate!C13</f>
-        <v>3</v>
-      </c>
-      <c r="D13" s="132">
+        <v>1</v>
+      </c>
+      <c r="D13" s="129">
         <f>Resultate!D13</f>
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="str">
         <f>Resultate!E13</f>
@@ -5383,7 +5475,7 @@
         <f>Resultate!J13</f>
         <v/>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="129">
         <f>Resultate!K13</f>
         <v>0</v>
       </c>
@@ -5411,11 +5503,11 @@
         <f>Resultate!T13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="132">
+      <c r="P13" s="129">
         <f>Resultate!U13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="132">
+      <c r="Q13" s="129">
         <f>Resultate!V13</f>
         <v>0</v>
       </c>
@@ -5436,10 +5528,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -5447,17 +5539,17 @@
         <f>Resultate!A14</f>
         <v>13</v>
       </c>
-      <c r="B14" s="133" t="str">
+      <c r="B14" s="130" t="str">
         <f>Resultate!B14</f>
         <v>II</v>
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="132">
+        <v>2</v>
+      </c>
+      <c r="D14" s="129">
         <f>Resultate!D14</f>
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="str">
         <f>Resultate!E14</f>
@@ -5465,7 +5557,7 @@
       </c>
       <c r="F14" t="str">
         <f>Resultate!G14</f>
-        <v>Winner Match #2</v>
+        <v>Raffi / Röthlisberger</v>
       </c>
       <c r="G14" t="str">
         <f>Resultate!H14</f>
@@ -5475,7 +5567,7 @@
         <f>Resultate!J14</f>
         <v/>
       </c>
-      <c r="I14" s="132">
+      <c r="I14" s="129">
         <f>Resultate!K14</f>
         <v>0</v>
       </c>
@@ -5503,11 +5595,11 @@
         <f>Resultate!T14</f>
         <v>0</v>
       </c>
-      <c r="P14" s="132">
+      <c r="P14" s="129">
         <f>Resultate!U14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="132">
+      <c r="Q14" s="129">
         <f>Resultate!V14</f>
         <v>0</v>
       </c>
@@ -5528,10 +5620,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court1</v>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -5539,25 +5631,25 @@
         <f>Resultate!A15</f>
         <v>14</v>
       </c>
-      <c r="B15" s="133" t="str">
+      <c r="B15" s="130" t="str">
         <f>Resultate!B15</f>
         <v>II</v>
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="132">
+        <v>3</v>
+      </c>
+      <c r="D15" s="129">
         <f>Resultate!D15</f>
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="str">
         <f>Resultate!E15</f>
-        <v>Winner Match #3</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F15" t="str">
         <f>Resultate!G15</f>
-        <v>Winner Match #4</v>
+        <v>Ducret / Abassi</v>
       </c>
       <c r="G15" t="str">
         <f>Resultate!H15</f>
@@ -5567,7 +5659,7 @@
         <f>Resultate!J15</f>
         <v/>
       </c>
-      <c r="I15" s="132">
+      <c r="I15" s="129">
         <f>Resultate!K15</f>
         <v>0</v>
       </c>
@@ -5595,11 +5687,11 @@
         <f>Resultate!T15</f>
         <v>0</v>
       </c>
-      <c r="P15" s="132">
+      <c r="P15" s="129">
         <f>Resultate!U15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="132">
+      <c r="Q15" s="129">
         <f>Resultate!V15</f>
         <v>0</v>
       </c>
@@ -5620,10 +5712,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court2</v>
+        <v>upcoming_2_court3</v>
       </c>
       <c r="S15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -5631,17 +5723,17 @@
         <f>Resultate!A16</f>
         <v>15</v>
       </c>
-      <c r="B16" s="133" t="str">
+      <c r="B16" s="130" t="str">
         <f>Resultate!B16</f>
         <v>II</v>
       </c>
       <c r="C16">
         <f>Resultate!C16</f>
-        <v>3</v>
-      </c>
-      <c r="D16" s="132">
+        <v>1</v>
+      </c>
+      <c r="D16" s="129">
         <f>Resultate!D16</f>
-        <v>0.48958333333333331</v>
+        <v>0.53125</v>
       </c>
       <c r="E16" t="str">
         <f>Resultate!E16</f>
@@ -5659,7 +5751,7 @@
         <f>Resultate!J16</f>
         <v/>
       </c>
-      <c r="I16" s="132">
+      <c r="I16" s="129">
         <f>Resultate!K16</f>
         <v>0</v>
       </c>
@@ -5687,11 +5779,11 @@
         <f>Resultate!T16</f>
         <v>0</v>
       </c>
-      <c r="P16" s="132">
+      <c r="P16" s="129">
         <f>Resultate!U16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="132">
+      <c r="Q16" s="129">
         <f>Resultate!V16</f>
         <v>0</v>
       </c>
@@ -5712,10 +5804,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court3</v>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -5723,17 +5815,17 @@
         <f>Resultate!A17</f>
         <v>16</v>
       </c>
-      <c r="B17" s="133" t="str">
+      <c r="B17" s="130" t="str">
         <f>Resultate!B17</f>
         <v>II</v>
       </c>
       <c r="C17">
         <f>Resultate!C17</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="132">
+        <v>2</v>
+      </c>
+      <c r="D17" s="129">
         <f>Resultate!D17</f>
-        <v>0.51041666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="E17" t="str">
         <f>Resultate!E17</f>
@@ -5751,7 +5843,7 @@
         <f>Resultate!J17</f>
         <v/>
       </c>
-      <c r="I17" s="132">
+      <c r="I17" s="129">
         <f>Resultate!K17</f>
         <v>0</v>
       </c>
@@ -5779,11 +5871,11 @@
         <f>Resultate!T17</f>
         <v>0</v>
       </c>
-      <c r="P17" s="132">
+      <c r="P17" s="129">
         <f>Resultate!U17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="132">
+      <c r="Q17" s="129">
         <f>Resultate!V17</f>
         <v>0</v>
       </c>
@@ -5804,10 +5896,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court1</v>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -5815,17 +5907,17 @@
         <f>Resultate!A18</f>
         <v>17</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="130">
         <f>Resultate!B18</f>
         <v>9</v>
       </c>
       <c r="C18">
         <f>Resultate!C18</f>
-        <v>2</v>
-      </c>
-      <c r="D18" s="132">
+        <v>3</v>
+      </c>
+      <c r="D18" s="129">
         <f>Resultate!D18</f>
-        <v>0.51041666666666663</v>
+        <v>0.53125</v>
       </c>
       <c r="E18" t="str">
         <f>Resultate!E18</f>
@@ -5843,7 +5935,7 @@
         <f>Resultate!J18</f>
         <v/>
       </c>
-      <c r="I18" s="132">
+      <c r="I18" s="129">
         <f>Resultate!K18</f>
         <v>0</v>
       </c>
@@ -5871,11 +5963,11 @@
         <f>Resultate!T18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="132">
+      <c r="P18" s="129">
         <f>Resultate!U18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="132">
+      <c r="Q18" s="129">
         <f>Resultate!V18</f>
         <v>0</v>
       </c>
@@ -5896,10 +5988,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court2</v>
+        <v>upcoming_3_court3</v>
       </c>
       <c r="S18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -5907,17 +5999,17 @@
         <f>Resultate!A19</f>
         <v>18</v>
       </c>
-      <c r="B19" s="133">
+      <c r="B19" s="130">
         <f>Resultate!B19</f>
         <v>9</v>
       </c>
       <c r="C19">
         <f>Resultate!C19</f>
-        <v>3</v>
-      </c>
-      <c r="D19" s="132">
+        <v>1</v>
+      </c>
+      <c r="D19" s="129">
         <f>Resultate!D19</f>
-        <v>0.51041666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
@@ -5935,7 +6027,7 @@
         <f>Resultate!J19</f>
         <v/>
       </c>
-      <c r="I19" s="132">
+      <c r="I19" s="129">
         <f>Resultate!K19</f>
         <v>0</v>
       </c>
@@ -5963,11 +6055,11 @@
         <f>Resultate!T19</f>
         <v>0</v>
       </c>
-      <c r="P19" s="132">
+      <c r="P19" s="129">
         <f>Resultate!U19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="132">
+      <c r="Q19" s="129">
         <f>Resultate!V19</f>
         <v>0</v>
       </c>
@@ -5988,10 +6080,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court3</v>
+        <v>upcoming_4_court1</v>
       </c>
       <c r="S19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -5999,17 +6091,17 @@
         <f>Resultate!A20</f>
         <v>19</v>
       </c>
-      <c r="B20" s="133">
+      <c r="B20" s="130">
         <f>Resultate!B20</f>
         <v>9</v>
       </c>
       <c r="C20">
         <f>Resultate!C20</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="132">
+        <v>2</v>
+      </c>
+      <c r="D20" s="129">
         <f>Resultate!D20</f>
-        <v>0.53125</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
@@ -6027,7 +6119,7 @@
         <f>Resultate!J20</f>
         <v/>
       </c>
-      <c r="I20" s="132">
+      <c r="I20" s="129">
         <f>Resultate!K20</f>
         <v>0</v>
       </c>
@@ -6055,11 +6147,11 @@
         <f>Resultate!T20</f>
         <v>0</v>
       </c>
-      <c r="P20" s="132">
+      <c r="P20" s="129">
         <f>Resultate!U20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="132">
+      <c r="Q20" s="129">
         <f>Resultate!V20</f>
         <v>0</v>
       </c>
@@ -6080,10 +6172,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court1</v>
+        <v>upcoming_4_court2</v>
       </c>
       <c r="S20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
@@ -6091,21 +6183,21 @@
         <f>Resultate!A21</f>
         <v>20</v>
       </c>
-      <c r="B21" s="133">
+      <c r="B21" s="130">
         <f>Resultate!B21</f>
         <v>9</v>
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="132">
+        <v>3</v>
+      </c>
+      <c r="D21" s="129">
         <f>Resultate!D21</f>
-        <v>0.53125</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
-        <v>Loser Match #2</v>
+        <v>Mikami / Hofmann</v>
       </c>
       <c r="F21" t="str">
         <f>Resultate!G21</f>
@@ -6119,7 +6211,7 @@
         <f>Resultate!J21</f>
         <v/>
       </c>
-      <c r="I21" s="132">
+      <c r="I21" s="129">
         <f>Resultate!K21</f>
         <v>0</v>
       </c>
@@ -6147,11 +6239,11 @@
         <f>Resultate!T21</f>
         <v>0</v>
       </c>
-      <c r="P21" s="132">
+      <c r="P21" s="129">
         <f>Resultate!U21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="132">
+      <c r="Q21" s="129">
         <f>Resultate!V21</f>
         <v>0</v>
       </c>
@@ -6172,10 +6264,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_6_court2</v>
+        <v>upcoming_4_court3</v>
       </c>
       <c r="S21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -6183,17 +6275,17 @@
         <f>Resultate!A22</f>
         <v>21</v>
       </c>
-      <c r="B22" s="133" t="str">
+      <c r="B22" s="130" t="str">
         <f>Resultate!B22</f>
         <v>III</v>
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="132">
+        <v>1</v>
+      </c>
+      <c r="D22" s="129">
         <f>Resultate!D22</f>
-        <v>0.53125</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
@@ -6211,7 +6303,7 @@
         <f>Resultate!J22</f>
         <v/>
       </c>
-      <c r="I22" s="132">
+      <c r="I22" s="129">
         <f>Resultate!K22</f>
         <v>0</v>
       </c>
@@ -6239,11 +6331,11 @@
         <f>Resultate!T22</f>
         <v>0</v>
       </c>
-      <c r="P22" s="132">
+      <c r="P22" s="129">
         <f>Resultate!U22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="132">
+      <c r="Q22" s="129">
         <f>Resultate!V22</f>
         <v>0</v>
       </c>
@@ -6264,10 +6356,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court3</v>
+        <v>upcoming_5_court1</v>
       </c>
       <c r="S22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -6275,17 +6367,17 @@
         <f>Resultate!A23</f>
         <v>22</v>
       </c>
-      <c r="B23" s="133" t="str">
+      <c r="B23" s="130" t="str">
         <f>Resultate!B23</f>
         <v>III</v>
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="132">
+        <v>2</v>
+      </c>
+      <c r="D23" s="129">
         <f>Resultate!D23</f>
-        <v>0.55208333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E23" t="str">
         <f>Resultate!E23</f>
@@ -6303,7 +6395,7 @@
         <f>Resultate!J23</f>
         <v/>
       </c>
-      <c r="I23" s="132">
+      <c r="I23" s="129">
         <f>Resultate!K23</f>
         <v>0</v>
       </c>
@@ -6331,11 +6423,11 @@
         <f>Resultate!T23</f>
         <v>0</v>
       </c>
-      <c r="P23" s="132">
+      <c r="P23" s="129">
         <f>Resultate!U23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="132">
+      <c r="Q23" s="129">
         <f>Resultate!V23</f>
         <v>0</v>
       </c>
@@ -6356,10 +6448,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_7_court1</v>
+        <v>upcoming_5_court2</v>
       </c>
       <c r="S23" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -6367,17 +6459,17 @@
         <f>Resultate!A24</f>
         <v>23</v>
       </c>
-      <c r="B24" s="133">
+      <c r="B24" s="130">
         <f>Resultate!B24</f>
         <v>7</v>
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="132">
+        <v>3</v>
+      </c>
+      <c r="D24" s="129">
         <f>Resultate!D24</f>
-        <v>0.55208333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
@@ -6395,7 +6487,7 @@
         <f>Resultate!J24</f>
         <v/>
       </c>
-      <c r="I24" s="132">
+      <c r="I24" s="129">
         <f>Resultate!K24</f>
         <v>0</v>
       </c>
@@ -6423,11 +6515,11 @@
         <f>Resultate!T24</f>
         <v>0</v>
       </c>
-      <c r="P24" s="132">
+      <c r="P24" s="129">
         <f>Resultate!U24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="132">
+      <c r="Q24" s="129">
         <f>Resultate!V24</f>
         <v>0</v>
       </c>
@@ -6448,10 +6540,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_7_court2</v>
+        <v>upcoming_5_court3</v>
       </c>
       <c r="S24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -6459,17 +6551,17 @@
         <f>Resultate!A25</f>
         <v>24</v>
       </c>
-      <c r="B25" s="133">
+      <c r="B25" s="130">
         <f>Resultate!B25</f>
         <v>7</v>
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>3</v>
-      </c>
-      <c r="D25" s="132">
+        <v>0</v>
+      </c>
+      <c r="D25" s="129">
         <f>Resultate!D25</f>
-        <v>0.55208333333333337</v>
+        <v>0</v>
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
@@ -6487,7 +6579,7 @@
         <f>Resultate!J25</f>
         <v/>
       </c>
-      <c r="I25" s="132">
+      <c r="I25" s="129">
         <f>Resultate!K25</f>
         <v>0</v>
       </c>
@@ -6515,11 +6607,11 @@
         <f>Resultate!T25</f>
         <v>0</v>
       </c>
-      <c r="P25" s="132">
+      <c r="P25" s="129">
         <f>Resultate!U25</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="132">
+      <c r="Q25" s="129">
         <f>Resultate!V25</f>
         <v>0</v>
       </c>
@@ -6540,10 +6632,10 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court3</v>
+        <v/>
       </c>
       <c r="S25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -6551,7 +6643,7 @@
         <f>Resultate!A26</f>
         <v>25</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="130">
         <f>Resultate!B26</f>
         <v>5</v>
       </c>
@@ -6559,7 +6651,7 @@
         <f>Resultate!C26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="132">
+      <c r="D26" s="129">
         <f>Resultate!D26</f>
         <v>0</v>
       </c>
@@ -6579,7 +6671,7 @@
         <f>Resultate!J26</f>
         <v/>
       </c>
-      <c r="I26" s="132">
+      <c r="I26" s="129">
         <f>Resultate!K26</f>
         <v>0</v>
       </c>
@@ -6607,11 +6699,11 @@
         <f>Resultate!T26</f>
         <v>0</v>
       </c>
-      <c r="P26" s="132">
+      <c r="P26" s="129">
         <f>Resultate!U26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="132">
+      <c r="Q26" s="129">
         <f>Resultate!V26</f>
         <v>0</v>
       </c>
@@ -6635,7 +6727,7 @@
         <v/>
       </c>
       <c r="S26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -6643,7 +6735,7 @@
         <f>Resultate!A27</f>
         <v>26</v>
       </c>
-      <c r="B27" s="133">
+      <c r="B27" s="130">
         <f>Resultate!B27</f>
         <v>5</v>
       </c>
@@ -6651,7 +6743,7 @@
         <f>Resultate!C27</f>
         <v>0</v>
       </c>
-      <c r="D27" s="132">
+      <c r="D27" s="129">
         <f>Resultate!D27</f>
         <v>0</v>
       </c>
@@ -6671,7 +6763,7 @@
         <f>Resultate!J27</f>
         <v/>
       </c>
-      <c r="I27" s="132">
+      <c r="I27" s="129">
         <f>Resultate!K27</f>
         <v>0</v>
       </c>
@@ -6699,11 +6791,11 @@
         <f>Resultate!T27</f>
         <v>0</v>
       </c>
-      <c r="P27" s="132">
+      <c r="P27" s="129">
         <f>Resultate!U27</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="132">
+      <c r="Q27" s="129">
         <f>Resultate!V27</f>
         <v>0</v>
       </c>
@@ -6727,7 +6819,7 @@
         <v/>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -6735,7 +6827,7 @@
         <f>Resultate!A28</f>
         <v>27</v>
       </c>
-      <c r="B28" s="133" t="str">
+      <c r="B28" s="130" t="str">
         <f>Resultate!B28</f>
         <v>SF</v>
       </c>
@@ -6743,7 +6835,7 @@
         <f>Resultate!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="132">
+      <c r="D28" s="129">
         <f>Resultate!D28</f>
         <v>0</v>
       </c>
@@ -6763,7 +6855,7 @@
         <f>Resultate!J28</f>
         <v/>
       </c>
-      <c r="I28" s="132">
+      <c r="I28" s="129">
         <f>Resultate!K28</f>
         <v>0</v>
       </c>
@@ -6791,11 +6883,11 @@
         <f>Resultate!T28</f>
         <v>0</v>
       </c>
-      <c r="P28" s="132">
+      <c r="P28" s="129">
         <f>Resultate!U28</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="132">
+      <c r="Q28" s="129">
         <f>Resultate!V28</f>
         <v>0</v>
       </c>
@@ -6819,7 +6911,7 @@
         <v/>
       </c>
       <c r="S28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -6827,7 +6919,7 @@
         <f>Resultate!A29</f>
         <v>28</v>
       </c>
-      <c r="B29" s="133" t="str">
+      <c r="B29" s="130" t="str">
         <f>Resultate!B29</f>
         <v>SF</v>
       </c>
@@ -6835,7 +6927,7 @@
         <f>Resultate!C29</f>
         <v>0</v>
       </c>
-      <c r="D29" s="132">
+      <c r="D29" s="129">
         <f>Resultate!D29</f>
         <v>0</v>
       </c>
@@ -6855,7 +6947,7 @@
         <f>Resultate!J29</f>
         <v/>
       </c>
-      <c r="I29" s="132">
+      <c r="I29" s="129">
         <f>Resultate!K29</f>
         <v>0</v>
       </c>
@@ -6883,11 +6975,11 @@
         <f>Resultate!T29</f>
         <v>0</v>
       </c>
-      <c r="P29" s="132">
+      <c r="P29" s="129">
         <f>Resultate!U29</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="132">
+      <c r="Q29" s="129">
         <f>Resultate!V29</f>
         <v>0</v>
       </c>
@@ -6911,7 +7003,7 @@
         <v/>
       </c>
       <c r="S29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -6919,7 +7011,7 @@
         <f>Resultate!A30</f>
         <v>29</v>
       </c>
-      <c r="B30" s="133" t="str">
+      <c r="B30" s="130" t="str">
         <f>Resultate!B30</f>
         <v>3/4</v>
       </c>
@@ -6927,7 +7019,7 @@
         <f>Resultate!C30</f>
         <v>0</v>
       </c>
-      <c r="D30" s="132">
+      <c r="D30" s="129">
         <f>Resultate!D30</f>
         <v>0</v>
       </c>
@@ -6947,7 +7039,7 @@
         <f>Resultate!J30</f>
         <v/>
       </c>
-      <c r="I30" s="132">
+      <c r="I30" s="129">
         <f>Resultate!K30</f>
         <v>0</v>
       </c>
@@ -6975,11 +7067,11 @@
         <f>Resultate!T30</f>
         <v>0</v>
       </c>
-      <c r="P30" s="132">
+      <c r="P30" s="129">
         <f>Resultate!U30</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="132">
+      <c r="Q30" s="129">
         <f>Resultate!V30</f>
         <v>0</v>
       </c>
@@ -7003,12 +7095,12 @@
         <v/>
       </c>
       <c r="S30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7049,7 +7141,7 @@
       <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="107"/>
+      <c r="A2" s="104"/>
       <c r="B2"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -7065,7 +7157,7 @@
         <f>CONCATENATE("",Resultate!$A$2,"")</f>
         <v>1</v>
       </c>
-      <c r="B3" s="108" t="str">
+      <c r="B3" s="105" t="str">
         <f>CONCATENATE(Resultate!$E$14," ")</f>
         <v xml:space="preserve">Baltermi / Hill Azpeitia </v>
       </c>
@@ -7081,7 +7173,7 @@
       <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="109" t="str">
+      <c r="A4" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$2," : ",Resultate!$J$2,")")</f>
         <v>(2 : 0)</v>
       </c>
@@ -7098,9 +7190,9 @@
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="110" t="str">
+      <c r="A5" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$2," ")</f>
-        <v xml:space="preserve">bye / bye </v>
+        <v xml:space="preserve">bye / bye  </v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5"/>
@@ -7115,12 +7207,12 @@
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="111"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$14,"")</f>
         <v>13</v>
       </c>
-      <c r="C6" s="112" t="str">
+      <c r="C6" s="109" t="str">
         <f>CONCATENATE(Resultate!$E$22," ")</f>
         <v xml:space="preserve">Winner Match #13 </v>
       </c>
@@ -7137,7 +7229,7 @@
     <row r="7" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$3," ")</f>
-        <v xml:space="preserve">Raffi / Röthlisberger </v>
+        <v xml:space="preserve">Mikami / Hofmann </v>
       </c>
       <c r="B7" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$14," : ",Resultate!$J$14,")")</f>
@@ -7157,18 +7249,18 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="107"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
-      <c r="G8" s="111" t="str">
+      <c r="G8" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$26," ")</f>
         <v xml:space="preserve">Loser Match #22 </v>
       </c>
       <c r="I8"/>
-      <c r="J8" s="111" t="str">
+      <c r="J8" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$13," ")</f>
         <v xml:space="preserve">Loser Match #8 </v>
       </c>
@@ -7182,9 +7274,9 @@
         <f>CONCATENATE("",Resultate!$A$3,"")</f>
         <v>2</v>
       </c>
-      <c r="B9" s="113" t="str">
+      <c r="B9" s="110" t="str">
         <f>CONCATENATE(Resultate!$G$14," ")</f>
-        <v xml:space="preserve">Winner Match #2 </v>
+        <v xml:space="preserve">Raffi / Röthlisberger </v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
@@ -7194,24 +7286,24 @@
       <c r="G9" s="18"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="114"/>
+      <c r="J9" s="111"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109" t="str">
+      <c r="A10" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$3," : ",Resultate!$J$3,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="10"/>
       <c r="D10" s="14"/>
       <c r="E10" s="17"/>
-      <c r="G10" s="115"/>
+      <c r="G10" s="112"/>
       <c r="H10"/>
-      <c r="I10" s="116" t="str">
+      <c r="I10" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$18," ")</f>
         <v xml:space="preserve">Winner Match #12 </v>
       </c>
@@ -7225,17 +7317,17 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="str">
+      <c r="A11" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$3," ")</f>
-        <v xml:space="preserve">Charkin / Hrytsuk </v>
+        <v xml:space="preserve">Raffi / Röthlisberger </v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="117"/>
+      <c r="C11" s="114"/>
       <c r="D11" s="14"/>
       <c r="E11"/>
       <c r="G11" s="19"/>
       <c r="H11"/>
-      <c r="I11" s="118"/>
+      <c r="I11" s="115"/>
       <c r="J11" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$13," : ",Resultate!$H$13,")")</f>
         <v>( : )</v>
@@ -7246,13 +7338,13 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$22,"")</f>
         <v>21</v>
       </c>
-      <c r="D12" s="112" t="str">
+      <c r="D12" s="109" t="str">
         <f>CONCATENATE(Resultate!$E$28," ")</f>
         <v xml:space="preserve">Winner Match #21 </v>
       </c>
@@ -7268,7 +7360,7 @@
         <f>CONCATENATE("",Resultate!$A$26,"")</f>
         <v>25</v>
       </c>
-      <c r="H12" s="111" t="str">
+      <c r="H12" s="108" t="str">
         <f>CONCATENATE(Resultate!$E$24," ")</f>
         <v xml:space="preserve">Winner Match #17 </v>
       </c>
@@ -7276,7 +7368,7 @@
         <f>CONCATENATE("",Resultate!$A$18,"")</f>
         <v>17</v>
       </c>
-      <c r="J12" s="119" t="str">
+      <c r="J12" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$13," ")</f>
         <v xml:space="preserve">Loser Match #7 </v>
       </c>
@@ -7288,7 +7380,7 @@
     <row r="13" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$4," ")</f>
-        <v xml:space="preserve">Stöckli / Stöckli </v>
+        <v xml:space="preserve">Bosshard / Strebel </v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="str">
@@ -7296,7 +7388,7 @@
         <v>( : )</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="120" t="str">
+      <c r="E13" s="117" t="str">
         <f>CONCATENATE("(",Resultate!$H$28," : ",Resultate!$J$28,")")</f>
         <v>( : )</v>
       </c>
@@ -7317,14 +7409,14 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="107"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="14"/>
       <c r="C14" s="16"/>
       <c r="D14" s="14"/>
       <c r="E14"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="119" t="str">
+      <c r="I14" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$18," ")</f>
         <v xml:space="preserve">Loser Match #13 </v>
       </c>
@@ -7339,9 +7431,9 @@
         <f>CONCATENATE("",Resultate!$A$4,"")</f>
         <v>3</v>
       </c>
-      <c r="B15" s="112" t="str">
+      <c r="B15" s="109" t="str">
         <f>CONCATENATE(Resultate!$E$15," ")</f>
-        <v xml:space="preserve">Winner Match #3 </v>
+        <v xml:space="preserve">Bosshard / Strebel </v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="14"/>
@@ -7355,14 +7447,14 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="109" t="str">
+      <c r="A16" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$4," : ",Resultate!$J$4,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="16"/>
       <c r="D16" s="14"/>
-      <c r="G16" s="121" t="str">
+      <c r="G16" s="118" t="str">
         <f>CONCATENATE(Resultate!$E$26," ")</f>
         <v xml:space="preserve">Winner Match #23 </v>
       </c>
@@ -7371,7 +7463,7 @@
         <v>23</v>
       </c>
       <c r="I16"/>
-      <c r="J16" s="111" t="str">
+      <c r="J16" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$12," ")</f>
         <v xml:space="preserve">Loser Match #6 </v>
       </c>
@@ -7381,9 +7473,9 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="110" t="str">
+      <c r="A17" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$4," ")</f>
-        <v xml:space="preserve">Bothen / Arndt </v>
+        <v xml:space="preserve">Sieber / Müller </v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -7394,25 +7486,25 @@
         <v>( : )</v>
       </c>
       <c r="I17"/>
-      <c r="J17" s="114"/>
+      <c r="J17" s="111"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="122"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$15,"")</f>
         <v>14</v>
       </c>
-      <c r="C18" s="123" t="str">
+      <c r="C18" s="120" t="str">
         <f>CONCATENATE(Resultate!$G$22," ")</f>
         <v xml:space="preserve">Winner Match #14 </v>
       </c>
       <c r="D18" s="14"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="116" t="str">
+      <c r="I18" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$19," ")</f>
         <v xml:space="preserve">Winner Match #11 </v>
       </c>
@@ -7428,7 +7520,7 @@
     <row r="19" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$5," ")</f>
-        <v xml:space="preserve">Sieber / Müller </v>
+        <v xml:space="preserve">Ducret / Abassi </v>
       </c>
       <c r="B19" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$15," : ",Resultate!$J$15,")")</f>
@@ -7437,7 +7529,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="118"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$12," : ",Resultate!$H$12,")")</f>
         <v>( : )</v>
@@ -7448,19 +7540,19 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="16"/>
       <c r="C20"/>
-      <c r="D20" s="124" t="str">
+      <c r="D20" s="121" t="str">
         <f>CONCATENATE(Resultate!$E$31," ")</f>
         <v xml:space="preserve">Winner Match #27 </v>
       </c>
-      <c r="E20" s="125"/>
-      <c r="F20" s="124" t="str">
+      <c r="E20" s="122"/>
+      <c r="F20" s="121" t="str">
         <f>CONCATENATE(Resultate!$E$30," ")</f>
         <v xml:space="preserve">Loser Match #27 </v>
       </c>
-      <c r="H20" s="126" t="str">
+      <c r="H20" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$24," ")</f>
         <v xml:space="preserve">Winner Match #18 </v>
       </c>
@@ -7468,7 +7560,7 @@
         <f>CONCATENATE("",Resultate!$A$19,"")</f>
         <v>18</v>
       </c>
-      <c r="J20" s="119" t="str">
+      <c r="J20" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$12," ")</f>
         <v xml:space="preserve">Loser Match #5 </v>
       </c>
@@ -7482,9 +7574,9 @@
         <f>CONCATENATE("",Resultate!$A$5,"")</f>
         <v>4</v>
       </c>
-      <c r="B21" s="123" t="str">
+      <c r="B21" s="120" t="str">
         <f>CONCATENATE(Resultate!$G$15," ")</f>
-        <v xml:space="preserve">Winner Match #4 </v>
+        <v xml:space="preserve">Ducret / Abassi </v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="25"/>
@@ -7501,9 +7593,9 @@
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="109" t="str">
+      <c r="A22" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$5," : ",Resultate!$J$5,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="14"/>
@@ -7514,7 +7606,7 @@
         <v>24</v>
       </c>
       <c r="H22"/>
-      <c r="I22" s="119" t="str">
+      <c r="I22" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$19," ")</f>
         <v xml:space="preserve">Loser Match #14 </v>
       </c>
@@ -7525,9 +7617,9 @@
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="110" t="str">
+      <c r="A23" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$5," ")</f>
-        <v xml:space="preserve">Pérez / Lendzian </v>
+        <v xml:space="preserve">Stöckli / Stöckli </v>
       </c>
       <c r="B23"/>
       <c r="C23" s="14"/>
@@ -7579,7 +7671,7 @@
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
+      <c r="A26" s="104"/>
       <c r="B26"/>
       <c r="C26" s="14"/>
       <c r="D26" s="30" t="str">
@@ -7614,17 +7706,17 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109" t="str">
+      <c r="A28" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$6," : ",Resultate!$J$6,")")</f>
         <v>( : )</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28"/>
-      <c r="D28" s="127" t="str">
+      <c r="D28" s="124" t="str">
         <f>CONCATENATE(Resultate!$G$31," ")</f>
         <v xml:space="preserve">Winner Match #28 </v>
       </c>
-      <c r="F28" s="128" t="str">
+      <c r="F28" s="125" t="str">
         <f>CONCATENATE(Resultate!$G$30," ")</f>
         <v xml:space="preserve">Loser Match #28 </v>
       </c>
@@ -7632,9 +7724,9 @@
       <c r="J28"/>
     </row>
     <row r="29" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="110" t="str">
+      <c r="A29" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$6," ")</f>
-        <v xml:space="preserve">Ducret / Abassi </v>
+        <v xml:space="preserve">Péter-Contesse / Känzig </v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29"/>
@@ -7662,7 +7754,7 @@
     <row r="31" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$7," ")</f>
-        <v xml:space="preserve">Addiechi / Flückiger </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="B31" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$16," : ",Resultate!$J$16,")")</f>
@@ -7676,18 +7768,18 @@
       <c r="J31"/>
     </row>
     <row r="32" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="14"/>
-      <c r="G32" s="111" t="str">
+      <c r="G32" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$27," ")</f>
         <v xml:space="preserve">Loser Match #21 </v>
       </c>
       <c r="I32"/>
-      <c r="J32" s="111" t="str">
+      <c r="J32" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$11," ")</f>
-        <v xml:space="preserve">Loser Match #4 </v>
+        <v xml:space="preserve">Stöckli / Stöckli </v>
       </c>
       <c r="K32"/>
     </row>
@@ -7696,7 +7788,7 @@
         <f>CONCATENATE("",Resultate!$A$7,"")</f>
         <v>6</v>
       </c>
-      <c r="B33" s="110" t="str">
+      <c r="B33" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$16," ")</f>
         <v xml:space="preserve">Winner Match #6 </v>
       </c>
@@ -7704,19 +7796,19 @@
       <c r="D33" s="14"/>
       <c r="G33" s="18"/>
       <c r="I33"/>
-      <c r="J33" s="114"/>
+      <c r="J33" s="111"/>
       <c r="K33"/>
     </row>
     <row r="34" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="109" t="str">
+      <c r="A34" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$7," : ",Resultate!$J$7,")")</f>
         <v>( : )</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="10"/>
       <c r="D34" s="14"/>
-      <c r="G34" s="115"/>
-      <c r="I34" s="116" t="str">
+      <c r="G34" s="112"/>
+      <c r="I34" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$20," ")</f>
         <v xml:space="preserve">Winner Match #10 </v>
       </c>
@@ -7728,17 +7820,17 @@
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="110" t="str">
+      <c r="A35" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$7," ")</f>
-        <v xml:space="preserve">Bosshard / Strebel </v>
+        <v xml:space="preserve">Lendl / Kurzawa </v>
       </c>
       <c r="B35"/>
-      <c r="C35" s="129"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="14"/>
       <c r="E35" s="35"/>
       <c r="G35" s="24"/>
       <c r="H35"/>
-      <c r="I35" s="118"/>
+      <c r="I35" s="115"/>
       <c r="J35" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$11," : ",Resultate!$H$11,")")</f>
         <v>( : )</v>
@@ -7746,17 +7838,17 @@
       <c r="K35"/>
     </row>
     <row r="36" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="122"/>
+      <c r="A36" s="119"/>
       <c r="B36"/>
       <c r="C36" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$23,"")</f>
         <v>22</v>
       </c>
-      <c r="D36" s="130" t="str">
+      <c r="D36" s="127" t="str">
         <f>CONCATENATE(Resultate!$E$29," ")</f>
         <v xml:space="preserve">Winner Match #22 </v>
       </c>
-      <c r="E36" s="131" t="str">
+      <c r="E36" s="128" t="str">
         <f>CONCATENATE("",Resultate!$A$29,"")</f>
         <v>28</v>
       </c>
@@ -7773,16 +7865,16 @@
         <f>CONCATENATE("",Resultate!$A$20,"")</f>
         <v>19</v>
       </c>
-      <c r="J36" s="119" t="str">
+      <c r="J36" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$11," ")</f>
-        <v xml:space="preserve">Loser Match #3 </v>
+        <v xml:space="preserve">Sieber / Müller </v>
       </c>
       <c r="K36"/>
     </row>
     <row r="37" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$8," ")</f>
-        <v xml:space="preserve">Lendl / Kurzawa </v>
+        <v xml:space="preserve">Charkin / Hrytsuk </v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="12" t="str">
@@ -7799,7 +7891,7 @@
         <f>CONCATENATE("(",Resultate!$J$27," : ",Resultate!$H$27,")")</f>
         <v>( : )</v>
       </c>
-      <c r="H37" s="116" t="str">
+      <c r="H37" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$25," ")</f>
         <v xml:space="preserve">Winner Match #19 </v>
       </c>
@@ -7810,14 +7902,14 @@
       <c r="K37"/>
     </row>
     <row r="38" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="107"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="14"/>
       <c r="C38" s="16"/>
       <c r="D38" s="14"/>
       <c r="E38" s="9"/>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
-      <c r="I38" s="119" t="str">
+      <c r="I38" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$20," ")</f>
         <v xml:space="preserve">Loser Match #15 </v>
       </c>
@@ -7843,7 +7935,7 @@
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="109" t="str">
+      <c r="A40" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$8," : ",Resultate!$J$8,")")</f>
         <v>( : )</v>
       </c>
@@ -7852,7 +7944,7 @@
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" s="121" t="str">
+      <c r="G40" s="118" t="str">
         <f>CONCATENATE(Resultate!$E$27," ")</f>
         <v xml:space="preserve">Winner Match #24 </v>
       </c>
@@ -7861,17 +7953,17 @@
         <v>24</v>
       </c>
       <c r="I40"/>
-      <c r="J40" s="116" t="str">
+      <c r="J40" s="113" t="str">
         <f>CONCATENATE(Resultate!$G$10," ")</f>
-        <v xml:space="preserve">Loser Match #2 </v>
+        <v xml:space="preserve">Mikami / Hofmann </v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="110" t="str">
+      <c r="A41" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$8," ")</f>
-        <v xml:space="preserve">Mikami / Hofmann </v>
+        <v xml:space="preserve">Addiechi / Flückiger </v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -7888,12 +7980,12 @@
       <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="122"/>
+      <c r="A42" s="119"/>
       <c r="B42" s="11" t="str">
         <f>CONCATENATE("",Resultate!$A$17,"")</f>
         <v>16</v>
       </c>
-      <c r="C42" s="110" t="str">
+      <c r="C42" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$23," ")</f>
         <v xml:space="preserve">Winner Match #16 </v>
       </c>
@@ -7902,9 +7994,9 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" s="24"/>
-      <c r="I42" s="116" t="str">
+      <c r="I42" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$21," ")</f>
-        <v xml:space="preserve">Loser Match #2 </v>
+        <v xml:space="preserve">Mikami / Hofmann </v>
       </c>
       <c r="J42" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$10,"")</f>
@@ -7916,7 +8008,7 @@
     <row r="43" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$9," ")</f>
-        <v xml:space="preserve">Péter-Contesse / Känzig </v>
+        <v xml:space="preserve">Dürst / Dürst </v>
       </c>
       <c r="B43" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$17," : ",Resultate!$J$17,")")</f>
@@ -7928,7 +8020,7 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" s="24"/>
-      <c r="I43" s="118"/>
+      <c r="I43" s="115"/>
       <c r="J43" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$10," : ",Resultate!$H$10,")")</f>
         <v>(2 : 0)</v>
@@ -7936,14 +8028,14 @@
       <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="16"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" s="126" t="str">
+      <c r="H44" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$25," ")</f>
         <v xml:space="preserve">Winner Match #20 </v>
       </c>
@@ -7951,9 +8043,9 @@
         <f>CONCATENATE("",Resultate!$A$21,"")</f>
         <v>20</v>
       </c>
-      <c r="J44" s="119" t="str">
+      <c r="J44" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$10," ")</f>
-        <v xml:space="preserve">bye / bye </v>
+        <v xml:space="preserve">bye / bye  </v>
       </c>
       <c r="K44" s="9"/>
     </row>
@@ -7962,7 +8054,7 @@
         <f>CONCATENATE("",Resultate!$A$9,"")</f>
         <v>8</v>
       </c>
-      <c r="B45" s="110" t="str">
+      <c r="B45" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$17," ")</f>
         <v xml:space="preserve">Winner Match #8 </v>
       </c>
@@ -7978,7 +8070,7 @@
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="109" t="str">
+      <c r="A46" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$9," : ",Resultate!$J$9,")")</f>
         <v>( : )</v>
       </c>
@@ -7987,7 +8079,7 @@
       <c r="D46" s="14"/>
       <c r="E46"/>
       <c r="H46"/>
-      <c r="I46" s="119" t="str">
+      <c r="I46" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$21," ")</f>
         <v xml:space="preserve">Loser Match #16 </v>
       </c>
@@ -7995,7 +8087,7 @@
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="110" t="str">
+      <c r="A47" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$9," ")</f>
         <v xml:space="preserve">Adamson / Müller </v>
       </c>
@@ -8049,21 +8141,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73">
+      <c r="A2" s="71">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
@@ -8074,13 +8166,13 @@
         <f>IF(B2="1. Rang","mal schauen",VLOOKUP(B2,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D2" s="44" t="str">
+      <c r="D2" s="42" t="str">
         <f>IF(B2="1. Rang","zu Hause",VLOOKUP(B2,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73">
+      <c r="A3" s="71">
         <f>SUM(A2,1)</f>
         <v>2</v>
       </c>
@@ -8092,13 +8184,13 @@
         <f>IF(B3="2. Rang","mal schauen",VLOOKUP(B3,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D3" s="44" t="str">
+      <c r="D3" s="42" t="str">
         <f>IF(B3="2. Rang","zu Hause",VLOOKUP(B3,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="73">
+      <c r="A4" s="71">
         <f>SUM(A3,1)</f>
         <v>3</v>
       </c>
@@ -8110,13 +8202,13 @@
         <f>IF(B4="3. Rang","mal schauen",VLOOKUP(B4,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D4" s="44" t="str">
+      <c r="D4" s="42" t="str">
         <f>IF(B4="3. Rang","zu Hause",VLOOKUP(B4,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="73">
+      <c r="A5" s="71">
         <f>SUM(A4,1)</f>
         <v>4</v>
       </c>
@@ -8128,13 +8220,13 @@
         <f>IF(B5="4. Rang","mal schauen",VLOOKUP(B5,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D5" s="44" t="str">
+      <c r="D5" s="42" t="str">
         <f>IF(B5="4. Rang","zu Hause",VLOOKUP(B5,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="73">
+      <c r="A6" s="71">
         <f>SUM(A5,1)</f>
         <v>5</v>
       </c>
@@ -8146,13 +8238,13 @@
         <f>IF(B6="5. Rang","mal schauen",VLOOKUP(B6,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D6" s="44" t="str">
+      <c r="D6" s="42" t="str">
         <f>IF(B6="5. Rang","zu Hause",VLOOKUP(B6,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73">
+      <c r="A7" s="71">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="str">
@@ -8163,13 +8255,13 @@
         <f>IF(B7="5. Rang","mal schauen",VLOOKUP(B7,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D7" s="44" t="str">
+      <c r="D7" s="42" t="str">
         <f>IF(B7="5. Rang","zu Hause",VLOOKUP(B7,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="73">
+      <c r="A8" s="71">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="str">
@@ -8180,13 +8272,13 @@
         <f>IF(B8="7. Rang","mal schauen",VLOOKUP(B8,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D8" s="44" t="str">
+      <c r="D8" s="42" t="str">
         <f>IF(B8="7. Rang","zu Hause",VLOOKUP(B8,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="73">
+      <c r="A9" s="71">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="str">
@@ -8197,13 +8289,13 @@
         <f>IF(B9="7. Rang","mal schauen",VLOOKUP(B9,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D9" s="44" t="str">
+      <c r="D9" s="42" t="str">
         <f>IF(B9="7. Rang","zu Hause",VLOOKUP(B9,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="73">
+      <c r="A10" s="71">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -8214,13 +8306,13 @@
         <f>IF(B10="9. Rang","mal schauen",VLOOKUP(B10,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D10" s="44" t="str">
+      <c r="D10" s="42" t="str">
         <f>IF(B10="9. Rang","zu Hause",VLOOKUP(B10,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73">
+      <c r="A11" s="71">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="str">
@@ -8231,13 +8323,13 @@
         <f>IF(B11="9. Rang","mal schauen",VLOOKUP(B11,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D11" s="44" t="str">
+      <c r="D11" s="42" t="str">
         <f>IF(B11="9. Rang","zu Hause",VLOOKUP(B11,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73">
+      <c r="A12" s="71">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -8248,13 +8340,13 @@
         <f>IF(B12="9. Rang","mal schauen",VLOOKUP(B12,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D12" s="44" t="str">
+      <c r="D12" s="42" t="str">
         <f>IF(B12="9. Rang","zu Hause",VLOOKUP(B12,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="73">
+      <c r="A13" s="71">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="str">
@@ -8265,30 +8357,30 @@
         <f>IF(B13="9. Rang","mal schauen",VLOOKUP(B13,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D13" s="44" t="str">
+      <c r="D13" s="42" t="str">
         <f>IF(B13="9. Rang","zu Hause",VLOOKUP(B13,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="73">
+      <c r="A14" s="71">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="str">
         <f>IF(Resultate!$H$10=Resultate!$J$10,"13. Rang",IF(Resultate!$H$10&lt;Resultate!$J$10,Resultate!$E$10,Resultate!$G$10))</f>
-        <v>bye / bye</v>
+        <v xml:space="preserve">bye / bye </v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IF(B14="13. Rang","mal schauen",VLOOKUP(B14,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>bye bye / bye bye</v>
-      </c>
-      <c r="D14" s="44">
+        <v xml:space="preserve">bye bye / bye bye </v>
+      </c>
+      <c r="D14" s="42">
         <f>IF(B14="13. Rang","zu Hause",VLOOKUP(B14,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="73">
+      <c r="A15" s="71">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="str">
@@ -8299,13 +8391,13 @@
         <f>IF(B15="13. Rang","mal schauen",VLOOKUP(B15,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D15" s="44" t="str">
+      <c r="D15" s="42" t="str">
         <f>IF(B15="13. Rang","zu Hause",VLOOKUP(B15,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73">
+      <c r="A16" s="71">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="str">
@@ -8316,30 +8408,30 @@
         <f>IF(B16="13. Rang","mal schauen",VLOOKUP(B16,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D16" s="44" t="str">
+      <c r="D16" s="42" t="str">
         <f>IF(B16="13. Rang","zu Hause",VLOOKUP(B16,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="74">
+      <c r="A17" s="72">
         <v>13</v>
       </c>
-      <c r="B17" s="45" t="str">
+      <c r="B17" s="43" t="str">
         <f>IF(Resultate!$H$13=Resultate!$J$13,"13. Rang",IF(Resultate!$H$13&lt;Resultate!$J$13,Resultate!$E$13,Resultate!$G$13))</f>
         <v>13. Rang</v>
       </c>
-      <c r="C17" s="45" t="str">
+      <c r="C17" s="43" t="str">
         <f>IF(B17="13. Rang","mal schauen",VLOOKUP(B17,Anmeldung!$L$2:$M$17,2,FALSE))</f>
         <v>mal schauen</v>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="44" t="str">
         <f>IF(B17="13. Rang","zu Hause",VLOOKUP(B17,Anmeldung!$I$2:$J$17,2,FALSE))</f>
         <v>zu Hause</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="73" t="s">
         <v>38</v>
       </c>
     </row>
@@ -8357,26 +8449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8605,26 +8677,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8641,4 +8714,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98178A47-99AA-45A1-B67A-1CF07B90374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA459C8C-BCEE-4AD0-AC7A-7911EFB00ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="17999" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="817" yWindow="2235" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -925,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1340,68 +1340,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1878,14 +1818,14 @@
       <c r="B2" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="38" t="s">
         <v>45</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="38" t="s">
         <v>73</v>
       </c>
       <c r="G2" s="1"/>
@@ -1912,14 +1852,14 @@
       <c r="B3" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="39" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="39" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="3"/>
@@ -1946,14 +1886,14 @@
       <c r="B4" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="39" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="39" t="s">
         <v>77</v>
       </c>
       <c r="G4" s="3"/>
@@ -1980,14 +1920,14 @@
       <c r="B5" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="39" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G5" s="3"/>
@@ -2014,14 +1954,14 @@
       <c r="B6" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="39" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="142" t="s">
+      <c r="F6" s="39" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="3"/>
@@ -2048,14 +1988,14 @@
       <c r="B7" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="142" t="s">
+      <c r="F7" s="39" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="3"/>
@@ -2082,14 +2022,14 @@
       <c r="B8" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="39" t="s">
         <v>57</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="142" t="s">
+      <c r="F8" s="39" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="3"/>
@@ -2116,14 +2056,14 @@
       <c r="B9" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="39" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="142" t="s">
+      <c r="F9" s="39" t="s">
         <v>43</v>
       </c>
       <c r="G9" s="3"/>
@@ -2147,17 +2087,17 @@
       <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="75" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="76"/>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="144" t="s">
+      <c r="F10" s="75" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="76"/>
@@ -2184,14 +2124,14 @@
       <c r="B11" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="39" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="140" t="s">
+      <c r="E11" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="142" t="s">
+      <c r="F11" s="39" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="3"/>
@@ -2218,14 +2158,14 @@
       <c r="B12" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="39" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="142" t="s">
+      <c r="F12" s="39" t="s">
         <v>89</v>
       </c>
       <c r="G12" s="3"/>
@@ -2252,14 +2192,14 @@
       <c r="B13" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="39" t="s">
         <v>67</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="140" t="s">
+      <c r="E13" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="142" t="s">
+      <c r="F13" s="39" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="3"/>
@@ -2286,14 +2226,14 @@
       <c r="B14" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="39" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="142" t="s">
+      <c r="F14" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G14" s="3"/>
@@ -2320,14 +2260,14 @@
       <c r="B15" s="132" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="39" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="140" t="s">
+      <c r="E15" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="39" t="s">
         <v>93</v>
       </c>
       <c r="G15" s="3"/>
@@ -2354,14 +2294,14 @@
       <c r="B16" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="39" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="142" t="s">
+      <c r="F16" s="39" t="s">
         <v>100</v>
       </c>
       <c r="G16" s="3"/>
@@ -2385,17 +2325,17 @@
       <c r="A17" s="55">
         <v>16</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="135" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="149" t="s">
+      <c r="E17" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="150" t="s">
+      <c r="F17" s="135" t="s">
         <v>97</v>
       </c>
       <c r="G17" s="3"/>
@@ -2459,8 +2399,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2698,7 +2638,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="81">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O4" s="81">
         <v>21</v>
@@ -2707,7 +2647,7 @@
         <v>17</v>
       </c>
       <c r="Q4" s="81">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R4" s="79"/>
       <c r="S4" s="5" t="s">
@@ -2730,7 +2670,7 @@
       <c r="C5" s="79">
         <v>3</v>
       </c>
-      <c r="D5" s="146">
+      <c r="D5" s="80">
         <v>0.40625</v>
       </c>
       <c r="E5" s="5" t="str">
@@ -2799,7 +2739,7 @@
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="79">
         <v>1</v>
       </c>
       <c r="D6" s="80">
@@ -2859,7 +2799,7 @@
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="145">
+      <c r="C7" s="79">
         <v>2</v>
       </c>
       <c r="D7" s="80">
@@ -2919,10 +2859,10 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="79">
         <v>3</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="80">
         <v>0.4375</v>
       </c>
       <c r="E8" s="5" t="str">
@@ -3156,7 +3096,7 @@
       <c r="C12" s="79">
         <v>3</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="80">
         <v>0.46875</v>
       </c>
       <c r="E12" s="5" t="str">
@@ -3336,7 +3276,7 @@
       <c r="C15" s="79">
         <v>3</v>
       </c>
-      <c r="D15" s="146">
+      <c r="D15" s="80">
         <v>0.5</v>
       </c>
       <c r="E15" s="5" t="str">
@@ -3393,7 +3333,7 @@
       <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="145">
+      <c r="C16" s="79">
         <v>1</v>
       </c>
       <c r="D16" s="97">
@@ -3453,7 +3393,7 @@
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="145">
+      <c r="C17" s="79">
         <v>2</v>
       </c>
       <c r="D17" s="97">
@@ -3513,10 +3453,10 @@
       <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="145">
+      <c r="C18" s="79">
         <v>3</v>
       </c>
-      <c r="D18" s="148">
+      <c r="D18" s="97">
         <v>0.53125</v>
       </c>
       <c r="E18" s="7" t="str">
@@ -3573,10 +3513,10 @@
       <c r="B19" s="5">
         <v>9</v>
       </c>
-      <c r="C19" s="145">
+      <c r="C19" s="79">
         <v>1</v>
       </c>
-      <c r="D19" s="147">
+      <c r="D19" s="93">
         <v>0.55208333333333337</v>
       </c>
       <c r="E19" s="5" t="str">
@@ -3633,10 +3573,10 @@
       <c r="B20" s="5">
         <v>9</v>
       </c>
-      <c r="C20" s="145">
+      <c r="C20" s="79">
         <v>2</v>
       </c>
-      <c r="D20" s="147">
+      <c r="D20" s="93">
         <v>0.55208333333333337</v>
       </c>
       <c r="E20" s="5" t="str">
@@ -3693,10 +3633,10 @@
       <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="145">
+      <c r="C21" s="79">
         <v>3</v>
       </c>
-      <c r="D21" s="147">
+      <c r="D21" s="93">
         <v>0.55208333333333337</v>
       </c>
       <c r="E21" s="6" t="str">
@@ -3753,10 +3693,10 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="145">
+      <c r="C22" s="79">
         <v>1</v>
       </c>
-      <c r="D22" s="146">
+      <c r="D22" s="80">
         <v>0.58333333333333337</v>
       </c>
       <c r="E22" s="7" t="str">
@@ -3813,10 +3753,10 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="145">
+      <c r="C23" s="79">
         <v>2</v>
       </c>
-      <c r="D23" s="146">
+      <c r="D23" s="80">
         <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="6" t="str">
@@ -3873,10 +3813,10 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="145">
+      <c r="C24" s="79">
         <v>3</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="80">
         <v>0.58333333333333337</v>
       </c>
       <c r="E24" s="7" t="str">
@@ -4658,7 +4598,7 @@
       </c>
       <c r="K4">
         <f>Resultate!N4</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4">
         <f>Resultate!O4</f>
@@ -4666,7 +4606,7 @@
       </c>
       <c r="M4">
         <f>Resultate!Q4</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <f>Resultate!R4</f>
@@ -8678,15 +8618,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8695,6 +8626,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8717,14 +8657,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8733,4 +8665,12 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA459C8C-BCEE-4AD0-AC7A-7911EFB00ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6087381-3AC8-4666-B963-A457A9A44773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="817" yWindow="2235" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2663" yWindow="975" windowWidth="17999" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2756,31 +2756,39 @@
         <f>IF(Anmeldung!$I$15=" / ",CONCATENATE("Seed #",Anmeldung!$A$15),Anmeldung!$I$15)</f>
         <v>Péter-Contesse / Känzig</v>
       </c>
-      <c r="H6" s="65" t="str">
+      <c r="H6" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="65" t="str">
+      <c r="J6" s="65">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="83">
+        <v>21</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
+      <c r="N6" s="81">
+        <v>11</v>
+      </c>
+      <c r="O6" s="81">
+        <v>21</v>
+      </c>
       <c r="P6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="81">
+        <v>15</v>
+      </c>
       <c r="R6" s="79"/>
       <c r="S6" s="5" t="s">
         <v>17</v>
@@ -3101,7 +3109,7 @@
       </c>
       <c r="E12" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Loser Match #",$A$6),IF($H$6&lt;$J$6,$E$6,$G$6))</f>
-        <v>Loser Match #5</v>
+        <v>Péter-Contesse / Känzig</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>7</v>
@@ -3341,7 +3349,7 @@
       </c>
       <c r="E16" s="5" t="str">
         <f>IF($H$6=$J$6,CONCATENATE("Winner Match #",$A$6),IF($H$6&gt;$J$6,$E$6,$G$6))</f>
-        <v>Winner Match #5</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>7</v>
@@ -4763,13 +4771,13 @@
         <f>Resultate!G6</f>
         <v>Péter-Contesse / Känzig</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6">
         <f>Resultate!H6</f>
-        <v/>
-      </c>
-      <c r="H6" t="str">
+        <v>2</v>
+      </c>
+      <c r="H6">
         <f>Resultate!J6</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I6" s="129">
         <f>Resultate!K6</f>
@@ -4777,19 +4785,19 @@
       </c>
       <c r="J6">
         <f>Resultate!L6</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <f>Resultate!N6</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <f>Resultate!O6</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M6">
         <f>Resultate!Q6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <f>Resultate!R6</f>
@@ -4824,7 +4832,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S6" t="s">
         <v>96</v>
@@ -5100,7 +5108,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S9" t="s">
         <v>96</v>
@@ -5309,7 +5317,7 @@
       </c>
       <c r="E12" t="str">
         <f>Resultate!E12</f>
-        <v>Loser Match #5</v>
+        <v>Péter-Contesse / Känzig</v>
       </c>
       <c r="F12" t="str">
         <f>Resultate!G12</f>
@@ -5468,7 +5476,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S13" t="s">
         <v>96</v>
@@ -5677,7 +5685,7 @@
       </c>
       <c r="E16" t="str">
         <f>Resultate!E16</f>
-        <v>Winner Match #5</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="F16" t="str">
         <f>Resultate!G16</f>
@@ -5744,7 +5752,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S16" t="s">
         <v>96</v>
@@ -6020,7 +6028,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court1</v>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S19" t="s">
         <v>96</v>
@@ -6296,7 +6304,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court1</v>
+        <v>upcoming_4_court1</v>
       </c>
       <c r="S22" t="s">
         <v>96</v>
@@ -7502,7 +7510,7 @@
       </c>
       <c r="J20" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$12," ")</f>
-        <v xml:space="preserve">Loser Match #5 </v>
+        <v xml:space="preserve">Péter-Contesse / Känzig </v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -7638,7 +7646,7 @@
       </c>
       <c r="B27" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$16," ")</f>
-        <v xml:space="preserve">Winner Match #5 </v>
+        <v xml:space="preserve">Allemann / Schaller </v>
       </c>
       <c r="C27"/>
       <c r="D27" s="30"/>
@@ -7648,7 +7656,7 @@
     <row r="28" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$6," : ",Resultate!$J$6,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28"/>
@@ -8618,6 +8626,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8626,15 +8643,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8657,6 +8665,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8665,12 +8681,4 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6087381-3AC8-4666-B963-A457A9A44773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AF1EC6-F46E-4F3A-BC33-4D7CC1C91D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2663" yWindow="975" windowWidth="17999" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2686,45 +2686,45 @@
       </c>
       <c r="H5" s="65">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="65">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="83">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="81">
         <v>21</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="81">
+      <c r="O5" s="81">
+        <v>21</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="81">
+        <v>11</v>
+      </c>
+      <c r="R5" s="79">
+        <v>8</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="79">
         <v>15</v>
-      </c>
-      <c r="O5" s="81">
-        <v>11</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="81">
-        <v>21</v>
-      </c>
-      <c r="R5" s="79">
-        <v>15</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="79">
-        <v>8</v>
       </c>
       <c r="U5" s="68"/>
       <c r="V5" s="68"/>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="G11" s="5" t="str">
         <f>IF($H$5=$J$5,CONCATENATE("Loser Match #",$A$5),IF($H$5&lt;$J$5,$E$5,$G$5))</f>
-        <v>Stöckli / Stöckli</v>
+        <v>Ducret / Abassi</v>
       </c>
       <c r="H11" s="65" t="str">
         <f t="shared" si="2"/>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="G15" s="5" t="str">
         <f>IF($H$5=$J$5,CONCATENATE("Winner Match #",$A$5),IF($H$5&gt;$J$5,$E$5,$G$5))</f>
-        <v>Ducret / Abassi</v>
+        <v>Stöckli / Stöckli</v>
       </c>
       <c r="H15" s="65" t="str">
         <f t="shared" si="2"/>
@@ -4681,11 +4681,11 @@
       </c>
       <c r="G5">
         <f>Resultate!H5</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f>Resultate!J5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="129">
         <f>Resultate!K5</f>
@@ -4693,27 +4693,27 @@
       </c>
       <c r="J5">
         <f>Resultate!L5</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K5">
         <f>Resultate!N5</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L5">
         <f>Resultate!O5</f>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M5">
         <f>Resultate!Q5</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N5">
         <f>Resultate!R5</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O5">
         <f>Resultate!T5</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P5" s="129">
         <f>Resultate!U5</f>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F11" t="str">
         <f>Resultate!G11</f>
-        <v>Stöckli / Stöckli</v>
+        <v>Ducret / Abassi</v>
       </c>
       <c r="G11" t="str">
         <f>Resultate!H11</f>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="F15" t="str">
         <f>Resultate!G15</f>
-        <v>Ducret / Abassi</v>
+        <v>Stöckli / Stöckli</v>
       </c>
       <c r="G15" t="str">
         <f>Resultate!H15</f>
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B21" s="120" t="str">
         <f>CONCATENATE(Resultate!$G$15," ")</f>
-        <v xml:space="preserve">Ducret / Abassi </v>
+        <v xml:space="preserve">Stöckli / Stöckli </v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="25"/>
@@ -7543,7 +7543,7 @@
     <row r="22" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$5," : ",Resultate!$J$5,")")</f>
-        <v>(2 : 1)</v>
+        <v>(1 : 2)</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="14"/>
@@ -7727,7 +7727,7 @@
       <c r="I32"/>
       <c r="J32" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$11," ")</f>
-        <v xml:space="preserve">Stöckli / Stöckli </v>
+        <v xml:space="preserve">Ducret / Abassi </v>
       </c>
       <c r="K32"/>
     </row>
@@ -8626,15 +8626,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8643,6 +8634,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8665,14 +8665,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8681,4 +8673,12 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AF1EC6-F46E-4F3A-BC33-4D7CC1C91D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6CC6C-FAC4-476B-AF57-829913D9FD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2663" yWindow="975" windowWidth="17999" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="338" yWindow="2880" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2884,31 +2884,39 @@
         <f>IF(Anmeldung!$I$11=" / ",CONCATENATE("Seed #",Anmeldung!$A$11),Anmeldung!$I$11)</f>
         <v>Addiechi / Flückiger</v>
       </c>
-      <c r="H8" s="65" t="str">
+      <c r="H8" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="65" t="str">
+      <c r="J8" s="65">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K8" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="83">
+        <v>15</v>
+      </c>
       <c r="M8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
+      <c r="N8" s="81">
+        <v>21</v>
+      </c>
+      <c r="O8" s="81">
+        <v>15</v>
+      </c>
       <c r="P8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="81"/>
+      <c r="Q8" s="81">
+        <v>21</v>
+      </c>
       <c r="R8" s="79"/>
       <c r="S8" s="5" t="s">
         <v>17</v>
@@ -3169,7 +3177,7 @@
       </c>
       <c r="E13" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Loser Match #",$A$8),IF($H$8&lt;$J$8,$E$8,$G$8))</f>
-        <v>Loser Match #7</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>7</v>
@@ -3409,7 +3417,7 @@
       </c>
       <c r="E17" s="6" t="str">
         <f>IF($H$8=$J$8,CONCATENATE("Winner Match #",$A$8),IF($H$8&gt;$J$8,$E$8,$G$8))</f>
-        <v>Winner Match #7</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>7</v>
@@ -4955,13 +4963,13 @@
         <f>Resultate!G8</f>
         <v>Addiechi / Flückiger</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8">
         <f>Resultate!H8</f>
-        <v/>
-      </c>
-      <c r="H8" t="str">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f>Resultate!J8</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I8" s="129">
         <f>Resultate!K8</f>
@@ -4969,19 +4977,19 @@
       </c>
       <c r="J8">
         <f>Resultate!L8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K8">
         <f>Resultate!N8</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <f>Resultate!O8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M8">
         <f>Resultate!Q8</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <f>Resultate!R8</f>
@@ -5016,7 +5024,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S8" t="s">
         <v>96</v>
@@ -5384,7 +5392,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>in_progress</v>
       </c>
       <c r="S12" t="s">
         <v>96</v>
@@ -5409,7 +5417,7 @@
       </c>
       <c r="E13" t="str">
         <f>Resultate!E13</f>
-        <v>Loser Match #7</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F13" t="str">
         <f>Resultate!G13</f>
@@ -5660,7 +5668,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court3</v>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S15" t="s">
         <v>96</v>
@@ -5777,7 +5785,7 @@
       </c>
       <c r="E17" t="str">
         <f>Resultate!E17</f>
-        <v>Winner Match #7</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="F17" t="str">
         <f>Resultate!G17</f>
@@ -5936,7 +5944,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court3</v>
+        <v>upcoming_2_court3</v>
       </c>
       <c r="S18" t="s">
         <v>96</v>
@@ -6212,7 +6220,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court3</v>
+        <v>upcoming_3_court3</v>
       </c>
       <c r="S21" t="s">
         <v>96</v>
@@ -6488,7 +6496,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court3</v>
+        <v>upcoming_4_court3</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -7318,7 +7326,7 @@
       </c>
       <c r="J12" s="116" t="str">
         <f>CONCATENATE(Resultate!$E$13," ")</f>
-        <v xml:space="preserve">Loser Match #7 </v>
+        <v xml:space="preserve">Charkin / Hrytsuk </v>
       </c>
       <c r="K12"/>
       <c r="L12" s="9"/>
@@ -7872,7 +7880,7 @@
       </c>
       <c r="B39" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$17," ")</f>
-        <v xml:space="preserve">Winner Match #7 </v>
+        <v xml:space="preserve">Addiechi / Flückiger </v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="14"/>
@@ -7885,7 +7893,7 @@
     <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$8," : ",Resultate!$J$8,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="16"/>
@@ -8397,6 +8405,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8625,27 +8653,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8662,23 +8689,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6CC6C-FAC4-476B-AF57-829913D9FD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F222D2-0C46-4E6D-A8DA-272E98E46D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="2880" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2824,31 +2824,39 @@
         <f>IF(Anmeldung!$I$7=" / ",CONCATENATE("Seed #",Anmeldung!$A$7),Anmeldung!$I$7)</f>
         <v>Lendl / Kurzawa</v>
       </c>
-      <c r="H7" s="65" t="str">
+      <c r="H7" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="65" t="str">
+      <c r="J7" s="65">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="83">
+        <v>21</v>
+      </c>
       <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
+      <c r="N7" s="81">
+        <v>15</v>
+      </c>
+      <c r="O7" s="81">
+        <v>21</v>
+      </c>
       <c r="P7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="81"/>
+      <c r="Q7" s="81">
+        <v>15</v>
+      </c>
       <c r="R7" s="79"/>
       <c r="S7" s="5" t="s">
         <v>17</v>
@@ -3124,7 +3132,7 @@
       </c>
       <c r="G12" s="5" t="str">
         <f>IF($H$7=$J$7,CONCATENATE("Loser Match #",$A$7),IF($H$7&lt;$J$7,$E$7,$G$7))</f>
-        <v>Loser Match #6</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="H12" s="65" t="str">
         <f t="shared" si="2"/>
@@ -3364,7 +3372,7 @@
       </c>
       <c r="G16" s="5" t="str">
         <f>IF($H$7=$J$7,CONCATENATE("Winner Match #",$A$7),IF($H$7&gt;$J$7,$E$7,$G$7))</f>
-        <v>Winner Match #6</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="H16" s="65" t="str">
         <f t="shared" ref="H16:H29" si="4">IF(L16=N16,"",SUM(IF(L16&gt;N16,1,0),IF(O16&gt;Q16,1,0),IF(R16&lt;=T16,0,1)))</f>
@@ -4871,13 +4879,13 @@
         <f>Resultate!G7</f>
         <v>Lendl / Kurzawa</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7">
         <f>Resultate!H7</f>
-        <v/>
-      </c>
-      <c r="H7" t="str">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <f>Resultate!J7</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I7" s="129">
         <f>Resultate!K7</f>
@@ -4885,19 +4893,19 @@
       </c>
       <c r="J7">
         <f>Resultate!L7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <f>Resultate!N7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <f>Resultate!O7</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M7">
         <f>Resultate!Q7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <f>Resultate!R7</f>
@@ -4932,7 +4940,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S7" t="s">
         <v>96</v>
@@ -5300,7 +5308,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S11" t="s">
         <v>96</v>
@@ -5329,7 +5337,7 @@
       </c>
       <c r="F12" t="str">
         <f>Resultate!G12</f>
-        <v>Loser Match #6</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="G12" t="str">
         <f>Resultate!H12</f>
@@ -5576,7 +5584,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S14" t="s">
         <v>96</v>
@@ -5697,7 +5705,7 @@
       </c>
       <c r="F16" t="str">
         <f>Resultate!G16</f>
-        <v>Winner Match #6</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="G16" t="str">
         <f>Resultate!H16</f>
@@ -5852,7 +5860,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S17" t="s">
         <v>96</v>
@@ -6128,7 +6136,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court2</v>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S20" t="s">
         <v>96</v>
@@ -6404,7 +6412,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court2</v>
+        <v>upcoming_4_court2</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -7421,7 +7429,7 @@
       <c r="I16"/>
       <c r="J16" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$12," ")</f>
-        <v xml:space="preserve">Loser Match #6 </v>
+        <v xml:space="preserve">Lendl / Kurzawa </v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -7746,7 +7754,7 @@
       </c>
       <c r="B33" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$16," ")</f>
-        <v xml:space="preserve">Winner Match #6 </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="14"/>
@@ -7758,7 +7766,7 @@
     <row r="34" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$7," : ",Resultate!$J$7,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="10"/>
@@ -8414,17 +8422,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8653,6 +8650,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8662,17 +8670,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8689,4 +8686,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F222D2-0C46-4E6D-A8DA-272E98E46D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE56469-E462-4ACB-8B11-814B7679F3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3058,7 +3058,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="80">
         <v>0.46875</v>
@@ -3118,7 +3118,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="80">
         <v>0.46875</v>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C11">
         <f>Resultate!C11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="129">
         <f>Resultate!D11</f>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="C12">
         <f>Resultate!C12</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="129">
         <f>Resultate!D12</f>
@@ -8422,6 +8422,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8650,17 +8661,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8670,6 +8670,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8686,15 +8697,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE56469-E462-4ACB-8B11-814B7679F3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E898E-56E7-442A-A8A9-15D544573A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="338" yWindow="2880" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -8413,26 +8413,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8661,10 +8641,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8681,20 +8692,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E898E-56E7-442A-A8A9-15D544573A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8A39A-37ED-42B2-88A7-818920FA192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="2880" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2960,31 +2960,39 @@
         <f>IF(Anmeldung!$I$3=" / ",CONCATENATE("Seed #",Anmeldung!$A$3),Anmeldung!$I$3)</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="H9" s="66" t="str">
+      <c r="H9" s="66">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="66" t="str">
+      <c r="J9" s="66">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K9" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="101"/>
+      <c r="L9" s="101">
+        <v>19</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
+      <c r="N9" s="102">
+        <v>21</v>
+      </c>
+      <c r="O9" s="102">
+        <v>15</v>
+      </c>
       <c r="P9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" s="102"/>
+      <c r="Q9" s="102">
+        <v>21</v>
+      </c>
       <c r="R9" s="92"/>
       <c r="S9" s="6" t="s">
         <v>17</v>
@@ -3192,7 +3200,7 @@
       </c>
       <c r="G13" s="6" t="str">
         <f>IF($H$9=$J$9,CONCATENATE("Loser Match #",$A$9),IF($H$9&lt;$J$9,$E$9,$G$9))</f>
-        <v>Loser Match #8</v>
+        <v>Dürst / Dürst</v>
       </c>
       <c r="H13" s="66" t="str">
         <f t="shared" si="2"/>
@@ -3432,7 +3440,7 @@
       </c>
       <c r="G17" s="6" t="str">
         <f>IF($H$9=$J$9,CONCATENATE("Winner Match #",$A$9),IF($H$9&gt;$J$9,$E$9,$G$9))</f>
-        <v>Winner Match #8</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="H17" s="66" t="str">
         <f t="shared" si="4"/>
@@ -5063,13 +5071,13 @@
         <f>Resultate!G9</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9">
         <f>Resultate!H9</f>
-        <v/>
-      </c>
-      <c r="H9" t="str">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <f>Resultate!J9</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I9" s="129">
         <f>Resultate!K9</f>
@@ -5077,19 +5085,19 @@
       </c>
       <c r="J9">
         <f>Resultate!L9</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <f>Resultate!N9</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <f>Resultate!O9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M9">
         <f>Resultate!Q9</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <f>Resultate!R9</f>
@@ -5124,7 +5132,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S9" t="s">
         <v>96</v>
@@ -5429,7 +5437,7 @@
       </c>
       <c r="F13" t="str">
         <f>Resultate!G13</f>
-        <v>Loser Match #8</v>
+        <v>Dürst / Dürst</v>
       </c>
       <c r="G13" t="str">
         <f>Resultate!H13</f>
@@ -5492,7 +5500,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S13" t="s">
         <v>96</v>
@@ -5768,7 +5776,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S16" t="s">
         <v>96</v>
@@ -5797,7 +5805,7 @@
       </c>
       <c r="F17" t="str">
         <f>Resultate!G17</f>
-        <v>Winner Match #8</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="G17" t="str">
         <f>Resultate!H17</f>
@@ -6044,7 +6052,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S19" t="s">
         <v>96</v>
@@ -6320,7 +6328,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court1</v>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S22" t="s">
         <v>96</v>
@@ -7226,7 +7234,7 @@
       <c r="I8"/>
       <c r="J8" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$13," ")</f>
-        <v xml:space="preserve">Loser Match #8 </v>
+        <v xml:space="preserve">Dürst / Dürst </v>
       </c>
       <c r="K8"/>
       <c r="L8" s="9"/>
@@ -8020,7 +8028,7 @@
       </c>
       <c r="B45" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$17," ")</f>
-        <v xml:space="preserve">Winner Match #8 </v>
+        <v xml:space="preserve">Adamson / Müller </v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
@@ -8036,7 +8044,7 @@
     <row r="46" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="106" t="str">
         <f>CONCATENATE("(",Resultate!$H$9," : ",Resultate!$J$9,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="14"/>
@@ -8413,6 +8421,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8641,27 +8669,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8678,23 +8705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8A39A-37ED-42B2-88A7-818920FA192F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B8BB06-8060-4A56-9573-DD4D332AC543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="18000" windowHeight="10973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3082,31 +3082,39 @@
         <f>IF($H$5=$J$5,CONCATENATE("Loser Match #",$A$5),IF($H$5&lt;$J$5,$E$5,$G$5))</f>
         <v>Ducret / Abassi</v>
       </c>
-      <c r="H11" s="65" t="str">
+      <c r="H11" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="65" t="str">
+      <c r="J11" s="65">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="83">
+        <v>21</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
+      <c r="N11" s="81">
+        <v>15</v>
+      </c>
+      <c r="O11" s="81">
+        <v>21</v>
+      </c>
       <c r="P11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="81"/>
+      <c r="Q11" s="81">
+        <v>15</v>
+      </c>
       <c r="R11" s="79"/>
       <c r="S11" s="5" t="s">
         <v>17</v>
@@ -3613,7 +3621,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
-        <v>Winner Match #10</v>
+        <v>Sieber / Müller</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>7</v>
@@ -5255,13 +5263,13 @@
         <f>Resultate!G11</f>
         <v>Ducret / Abassi</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11">
         <f>Resultate!H11</f>
-        <v/>
-      </c>
-      <c r="H11" t="str">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <f>Resultate!J11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I11" s="129">
         <f>Resultate!K11</f>
@@ -5269,19 +5277,19 @@
       </c>
       <c r="J11">
         <f>Resultate!L11</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <f>Resultate!N11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <f>Resultate!O11</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M11">
         <f>Resultate!Q11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N11">
         <f>Resultate!R11</f>
@@ -5316,7 +5324,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S11" t="s">
         <v>96</v>
@@ -5684,7 +5692,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>in_progress</v>
       </c>
       <c r="S15" t="s">
         <v>96</v>
@@ -5960,7 +5968,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court3</v>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S18" t="s">
         <v>96</v>
@@ -6077,7 +6085,7 @@
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
-        <v>Winner Match #10</v>
+        <v>Sieber / Müller</v>
       </c>
       <c r="F20" t="str">
         <f>Resultate!G20</f>
@@ -6236,7 +6244,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court3</v>
+        <v>upcoming_2_court3</v>
       </c>
       <c r="S21" t="s">
         <v>96</v>
@@ -6512,7 +6520,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court3</v>
+        <v>upcoming_3_court3</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -7782,7 +7790,7 @@
       <c r="G34" s="112"/>
       <c r="I34" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$20," ")</f>
-        <v xml:space="preserve">Winner Match #10 </v>
+        <v xml:space="preserve">Sieber / Müller </v>
       </c>
       <c r="J34" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$11,"")</f>
@@ -7805,7 +7813,7 @@
       <c r="I35" s="115"/>
       <c r="J35" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$11," : ",Resultate!$H$11,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="K35"/>
     </row>
@@ -8357,15 +8365,15 @@
       </c>
       <c r="B15" s="2" t="str">
         <f>IF(Resultate!$H$11=Resultate!$J$11,"13. Rang",IF(Resultate!$H$11&lt;Resultate!$J$11,Resultate!$E$11,Resultate!$G$11))</f>
-        <v>13. Rang</v>
+        <v>Ducret / Abassi</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>IF(B15="13. Rang","mal schauen",VLOOKUP(B15,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D15" s="42" t="str">
+        <v>Noah Ducret / Mike Abassi</v>
+      </c>
+      <c r="D15" s="42">
         <f>IF(B15="13. Rang","zu Hause",VLOOKUP(B15,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8430,17 +8438,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8669,6 +8666,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8678,17 +8686,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8705,4 +8702,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B8BB06-8060-4A56-9573-DD4D332AC543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D855BD-2C18-4F6C-AB4C-9B01AA141FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3254,7 +3254,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="80">
         <v>0.5</v>
@@ -3314,7 +3314,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="80">
         <v>0.5</v>
@@ -4317,7 +4317,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4325,20 +4325,20 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.9296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.9296875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.46484375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="1.796875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9296875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.59765625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="2.796875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.59765625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="2.796875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="5.59765625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="1.796875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.59765625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.9296875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="17.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="129">
         <f>Resultate!D14</f>
@@ -5600,7 +5600,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S14" t="s">
         <v>96</v>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="129">
         <f>Resultate!D15</f>
@@ -5692,7 +5692,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S15" t="s">
         <v>96</v>
@@ -8438,6 +8438,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8666,17 +8677,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8686,6 +8686,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8702,15 +8713,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D855BD-2C18-4F6C-AB4C-9B01AA141FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894DCBE-9FA2-4FAD-8594-8F51899894A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2399,8 +2399,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3254,7 +3254,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="80">
         <v>0.5</v>
@@ -3314,7 +3314,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="80">
         <v>0.5</v>
@@ -4317,7 +4317,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="129">
         <f>Resultate!D14</f>
@@ -5600,7 +5600,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S14" t="s">
         <v>96</v>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="129">
         <f>Resultate!D15</f>
@@ -5692,7 +5692,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S15" t="s">
         <v>96</v>
@@ -8438,17 +8438,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8677,6 +8666,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8686,17 +8686,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8713,4 +8702,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8894DCBE-9FA2-4FAD-8594-8F51899894A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F1AD85-7470-4E4F-BC2A-CDBF54A58480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3210,31 +3210,39 @@
         <f>IF($H$9=$J$9,CONCATENATE("Loser Match #",$A$9),IF($H$9&lt;$J$9,$E$9,$G$9))</f>
         <v>Dürst / Dürst</v>
       </c>
-      <c r="H13" s="66" t="str">
+      <c r="H13" s="66">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="66" t="str">
+      <c r="J13" s="66">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="101"/>
+      <c r="L13" s="101">
+        <v>21</v>
+      </c>
       <c r="M13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
+      <c r="N13" s="102">
+        <v>15</v>
+      </c>
+      <c r="O13" s="102">
+        <v>21</v>
+      </c>
       <c r="P13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="102"/>
+      <c r="Q13" s="102">
+        <v>15</v>
+      </c>
       <c r="R13" s="92"/>
       <c r="S13" s="6" t="s">
         <v>17</v>
@@ -3254,7 +3262,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="80">
         <v>0.5</v>
@@ -3314,7 +3322,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="80">
         <v>0.5</v>
@@ -3501,7 +3509,7 @@
       </c>
       <c r="E18" s="7" t="str">
         <f>IF($H$13=$J$13,CONCATENATE("Winner Match #",$A$13),IF($H$13&gt;$J$13,$E$13,$G$13))</f>
-        <v>Winner Match #12</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>7</v>
@@ -5447,13 +5455,13 @@
         <f>Resultate!G13</f>
         <v>Dürst / Dürst</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13">
         <f>Resultate!H13</f>
-        <v/>
-      </c>
-      <c r="H13" t="str">
+        <v>2</v>
+      </c>
+      <c r="H13">
         <f>Resultate!J13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I13" s="129">
         <f>Resultate!K13</f>
@@ -5461,19 +5469,19 @@
       </c>
       <c r="J13">
         <f>Resultate!L13</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K13">
         <f>Resultate!N13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13">
         <f>Resultate!O13</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M13">
         <f>Resultate!Q13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <f>Resultate!R13</f>
@@ -5508,7 +5516,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S13" t="s">
         <v>96</v>
@@ -5525,7 +5533,7 @@
       </c>
       <c r="C14">
         <f>Resultate!C14</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="129">
         <f>Resultate!D14</f>
@@ -5600,7 +5608,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S14" t="s">
         <v>96</v>
@@ -5617,7 +5625,7 @@
       </c>
       <c r="C15">
         <f>Resultate!C15</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" s="129">
         <f>Resultate!D15</f>
@@ -5876,7 +5884,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S17" t="s">
         <v>96</v>
@@ -5901,7 +5909,7 @@
       </c>
       <c r="E18" t="str">
         <f>Resultate!E18</f>
-        <v>Winner Match #12</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F18" t="str">
         <f>Resultate!G18</f>
@@ -6152,7 +6160,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S20" t="s">
         <v>96</v>
@@ -6428,7 +6436,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court2</v>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -7285,7 +7293,7 @@
       <c r="H10"/>
       <c r="I10" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$18," ")</f>
-        <v xml:space="preserve">Winner Match #12 </v>
+        <v xml:space="preserve">Charkin / Hrytsuk </v>
       </c>
       <c r="J10" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$13,"")</f>
@@ -7310,7 +7318,7 @@
       <c r="I11" s="115"/>
       <c r="J11" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$13," : ",Resultate!$H$13,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="K11"/>
       <c r="L11"/>
@@ -8399,15 +8407,15 @@
       </c>
       <c r="B17" s="43" t="str">
         <f>IF(Resultate!$H$13=Resultate!$J$13,"13. Rang",IF(Resultate!$H$13&lt;Resultate!$J$13,Resultate!$E$13,Resultate!$G$13))</f>
-        <v>13. Rang</v>
+        <v>Dürst / Dürst</v>
       </c>
       <c r="C17" s="43" t="str">
         <f>IF(B17="13. Rang","mal schauen",VLOOKUP(B17,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D17" s="44" t="str">
+        <v>Linus Dürst / Marwin Dürst</v>
+      </c>
+      <c r="D17" s="44">
         <f>IF(B17="13. Rang","zu Hause",VLOOKUP(B17,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -8438,6 +8446,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8666,17 +8685,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8686,6 +8694,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8702,15 +8721,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F1AD85-7470-4E4F-BC2A-CDBF54A58480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9FD1C6-AC5D-4674-8F15-388E9CE5F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2543" windowWidth="18000" windowHeight="10972" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3278,31 +3278,39 @@
         <f>IF($H$3=$J$3,CONCATENATE("Winner Match #",$A$3),IF($H$3&gt;$J$3,$E$3,$G$3))</f>
         <v>Raffi / Röthlisberger</v>
       </c>
-      <c r="H14" s="67" t="str">
+      <c r="H14" s="67">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="67" t="str">
+      <c r="J14" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="99"/>
+      <c r="L14" s="99">
+        <v>21</v>
+      </c>
       <c r="M14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="N14" s="100">
+        <v>15</v>
+      </c>
+      <c r="O14" s="100">
+        <v>21</v>
+      </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="100"/>
+      <c r="Q14" s="100">
+        <v>15</v>
+      </c>
       <c r="R14" s="96"/>
       <c r="S14" s="7" t="s">
         <v>17</v>
@@ -3516,7 +3524,7 @@
       </c>
       <c r="G18" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Loser Match #",$A$14),IF($H$14&lt;$J$14,$E$14,$G$14))</f>
-        <v>Loser Match #13</v>
+        <v>Raffi / Röthlisberger</v>
       </c>
       <c r="H18" s="67" t="str">
         <f t="shared" si="4"/>
@@ -3749,7 +3757,7 @@
       </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
-        <v>Winner Match #13</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>7</v>
@@ -5547,13 +5555,13 @@
         <f>Resultate!G14</f>
         <v>Raffi / Röthlisberger</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14">
         <f>Resultate!H14</f>
-        <v/>
-      </c>
-      <c r="H14" t="str">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <f>Resultate!J14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I14" s="129">
         <f>Resultate!K14</f>
@@ -5561,19 +5569,19 @@
       </c>
       <c r="J14">
         <f>Resultate!L14</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K14">
         <f>Resultate!N14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14">
         <f>Resultate!O14</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M14">
         <f>Resultate!Q14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <f>Resultate!R14</f>
@@ -5608,7 +5616,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S14" t="s">
         <v>96</v>
@@ -5913,7 +5921,7 @@
       </c>
       <c r="F18" t="str">
         <f>Resultate!G18</f>
-        <v>Loser Match #13</v>
+        <v>Raffi / Röthlisberger</v>
       </c>
       <c r="G18" t="str">
         <f>Resultate!H18</f>
@@ -5976,7 +5984,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>in_progress</v>
       </c>
       <c r="S18" t="s">
         <v>96</v>
@@ -6252,7 +6260,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court3</v>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S21" t="s">
         <v>96</v>
@@ -6277,7 +6285,7 @@
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
-        <v>Winner Match #13</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="F22" t="str">
         <f>Resultate!G22</f>
@@ -6528,7 +6536,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court3</v>
+        <v>upcoming_2_court3</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -7202,7 +7210,7 @@
       </c>
       <c r="C6" s="109" t="str">
         <f>CONCATENATE(Resultate!$E$22," ")</f>
-        <v xml:space="preserve">Winner Match #13 </v>
+        <v xml:space="preserve">Baltermi / Hill Azpeitia </v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -7221,7 +7229,7 @@
       </c>
       <c r="B7" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$14," : ",Resultate!$J$14,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7"/>
@@ -7406,7 +7414,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$18," ")</f>
-        <v xml:space="preserve">Loser Match #13 </v>
+        <v xml:space="preserve">Raffi / Röthlisberger </v>
       </c>
       <c r="J14"/>
       <c r="K14" s="9"/>
@@ -8437,26 +8445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8685,10 +8673,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8705,20 +8724,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9FD1C6-AC5D-4674-8F15-388E9CE5F8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7B5EC-5625-474F-81F1-3BCAB6CFC403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3037,16 +3037,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="99"/>
+      <c r="L10" s="99">
+        <v>0</v>
+      </c>
       <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="N10" s="100">
+        <v>21</v>
+      </c>
+      <c r="O10" s="100">
+        <v>0</v>
+      </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="100"/>
+      <c r="Q10" s="100">
+        <v>21</v>
+      </c>
       <c r="R10" s="96"/>
       <c r="S10" s="7" t="s">
         <v>17</v>
@@ -3150,31 +3158,39 @@
         <f>IF($H$7=$J$7,CONCATENATE("Loser Match #",$A$7),IF($H$7&lt;$J$7,$E$7,$G$7))</f>
         <v>Lendl / Kurzawa</v>
       </c>
-      <c r="H12" s="65" t="str">
+      <c r="H12" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="65" t="str">
+      <c r="J12" s="65">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K12" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="83">
+        <v>15</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
+      <c r="N12" s="81">
+        <v>21</v>
+      </c>
+      <c r="O12" s="81">
+        <v>15</v>
+      </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="81"/>
+      <c r="Q12" s="81">
+        <v>21</v>
+      </c>
       <c r="R12" s="79"/>
       <c r="S12" s="5" t="s">
         <v>17</v>
@@ -3346,31 +3362,39 @@
         <f>IF($H$5=$J$5,CONCATENATE("Winner Match #",$A$5),IF($H$5&gt;$J$5,$E$5,$G$5))</f>
         <v>Stöckli / Stöckli</v>
       </c>
-      <c r="H15" s="65" t="str">
+      <c r="H15" s="65">
         <f t="shared" si="2"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="65" t="str">
+      <c r="J15" s="65">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="83">
+        <v>21</v>
+      </c>
       <c r="M15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
+      <c r="N15" s="81">
+        <v>15</v>
+      </c>
+      <c r="O15" s="81">
+        <v>21</v>
+      </c>
       <c r="P15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="81"/>
+      <c r="Q15" s="81">
+        <v>15</v>
+      </c>
       <c r="R15" s="79"/>
       <c r="S15" s="5" t="s">
         <v>17</v>
@@ -3577,14 +3601,14 @@
       </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
-        <v>Winner Match #11</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>IF($H$15=$J$15,CONCATENATE("Loser Match #",$A$15),IF($H$15&lt;$J$15,$E$15,$G$15))</f>
-        <v>Loser Match #14</v>
+        <v>Stöckli / Stöckli</v>
       </c>
       <c r="H19" s="65" t="str">
         <f t="shared" si="4"/>
@@ -3764,7 +3788,7 @@
       </c>
       <c r="G22" s="7" t="str">
         <f>IF($H$15=$J$15,CONCATENATE("Winner Match #",$A$15),IF($H$15&gt;$J$15,$E$15,$G$15))</f>
-        <v>Winner Match #14</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="H22" s="67" t="str">
         <f t="shared" si="4"/>
@@ -5205,7 +5229,7 @@
       </c>
       <c r="K10">
         <f>Resultate!N10</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <f>Resultate!O10</f>
@@ -5213,7 +5237,7 @@
       </c>
       <c r="M10">
         <f>Resultate!Q10</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <f>Resultate!R10</f>
@@ -5371,13 +5395,13 @@
         <f>Resultate!G12</f>
         <v>Lendl / Kurzawa</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12">
         <f>Resultate!H12</f>
-        <v/>
-      </c>
-      <c r="H12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f>Resultate!J12</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I12" s="129">
         <f>Resultate!K12</f>
@@ -5385,19 +5409,19 @@
       </c>
       <c r="J12">
         <f>Resultate!L12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K12">
         <f>Resultate!N12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L12">
         <f>Resultate!O12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M12">
         <f>Resultate!Q12</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <f>Resultate!R12</f>
@@ -5432,7 +5456,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S12" t="s">
         <v>96</v>
@@ -5647,13 +5671,13 @@
         <f>Resultate!G15</f>
         <v>Stöckli / Stöckli</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15">
         <f>Resultate!H15</f>
-        <v/>
-      </c>
-      <c r="H15" t="str">
+        <v>2</v>
+      </c>
+      <c r="H15">
         <f>Resultate!J15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I15" s="129">
         <f>Resultate!K15</f>
@@ -5661,19 +5685,19 @@
       </c>
       <c r="J15">
         <f>Resultate!L15</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K15">
         <f>Resultate!N15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L15">
         <f>Resultate!O15</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M15">
         <f>Resultate!Q15</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <f>Resultate!R15</f>
@@ -5708,7 +5732,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S15" t="s">
         <v>96</v>
@@ -5800,7 +5824,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S16" t="s">
         <v>96</v>
@@ -5892,7 +5916,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S17" t="s">
         <v>96</v>
@@ -6009,11 +6033,11 @@
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
-        <v>Winner Match #11</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="F19" t="str">
         <f>Resultate!G19</f>
-        <v>Loser Match #14</v>
+        <v>Stöckli / Stöckli</v>
       </c>
       <c r="G19" t="str">
         <f>Resultate!H19</f>
@@ -6076,7 +6100,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S19" t="s">
         <v>96</v>
@@ -6168,7 +6192,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S20" t="s">
         <v>96</v>
@@ -6289,7 +6313,7 @@
       </c>
       <c r="F22" t="str">
         <f>Resultate!G22</f>
-        <v>Winner Match #14</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="G22" t="str">
         <f>Resultate!H22</f>
@@ -6352,7 +6376,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S22" t="s">
         <v>96</v>
@@ -6444,7 +6468,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -7496,13 +7520,13 @@
       </c>
       <c r="C18" s="120" t="str">
         <f>CONCATENATE(Resultate!$G$22," ")</f>
-        <v xml:space="preserve">Winner Match #14 </v>
+        <v xml:space="preserve">Bosshard / Strebel </v>
       </c>
       <c r="D18" s="14"/>
       <c r="H18" s="24"/>
       <c r="I18" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$19," ")</f>
-        <v xml:space="preserve">Winner Match #11 </v>
+        <v xml:space="preserve">Lendl / Kurzawa </v>
       </c>
       <c r="J18" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$12,"")</f>
@@ -7520,7 +7544,7 @@
       </c>
       <c r="B19" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$15," : ",Resultate!$J$15,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="14"/>
@@ -7528,7 +7552,7 @@
       <c r="I19" s="115"/>
       <c r="J19" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$12," : ",Resultate!$H$12,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19"/>
@@ -7604,7 +7628,7 @@
       <c r="H22"/>
       <c r="I22" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$19," ")</f>
-        <v xml:space="preserve">Loser Match #14 </v>
+        <v xml:space="preserve">Stöckli / Stöckli </v>
       </c>
       <c r="J22"/>
       <c r="K22" s="9"/>
@@ -8398,15 +8422,15 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>IF(Resultate!$H$12=Resultate!$J$12,"13. Rang",IF(Resultate!$H$12&lt;Resultate!$J$12,Resultate!$E$12,Resultate!$G$12))</f>
-        <v>13. Rang</v>
+        <v>Péter-Contesse / Känzig</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IF(B16="13. Rang","mal schauen",VLOOKUP(B16,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D16" s="42" t="str">
+        <v>Luc Péter-Contesse / Yanis Känzig</v>
+      </c>
+      <c r="D16" s="42">
         <f>IF(B16="13. Rang","zu Hause",VLOOKUP(B16,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -8445,6 +8469,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8673,27 +8717,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8710,23 +8753,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA7B5EC-5625-474F-81F1-3BCAB6CFC403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3CA24-5B8E-4856-AAA4-BE39635397B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2399,8 +2399,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3414,7 +3414,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="97">
         <v>0.53125</v>
@@ -3490,31 +3490,39 @@
         <f>IF($H$9=$J$9,CONCATENATE("Winner Match #",$A$9),IF($H$9&gt;$J$9,$E$9,$G$9))</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="H17" s="66" t="str">
+      <c r="H17" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="66" t="str">
+      <c r="J17" s="66">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L17" s="101"/>
+      <c r="L17" s="101">
+        <v>21</v>
+      </c>
       <c r="M17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
+      <c r="N17" s="102">
+        <v>15</v>
+      </c>
+      <c r="O17" s="102">
+        <v>21</v>
+      </c>
       <c r="P17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="102"/>
+      <c r="Q17" s="102">
+        <v>15</v>
+      </c>
       <c r="R17" s="92"/>
       <c r="S17" s="6" t="s">
         <v>17</v>
@@ -3534,7 +3542,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="97">
         <v>0.53125</v>
@@ -3728,7 +3736,7 @@
       </c>
       <c r="G21" s="6" t="str">
         <f>IF($H$17=$J$17,CONCATENATE("Loser Match #",$A$17),IF($H$17&lt;$J$17,$E$17,$G$17))</f>
-        <v>Loser Match #16</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="H21" s="66" t="str">
         <f t="shared" si="4"/>
@@ -3848,7 +3856,7 @@
       </c>
       <c r="G23" s="6" t="str">
         <f>IF($H$17=$J$17,CONCATENATE("Winner Match #",$A$17),IF($H$17&gt;$J$17,$E$17,$G$17))</f>
-        <v>Winner Match #16</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="H23" s="66" t="str">
         <f t="shared" si="4"/>
@@ -3953,8 +3961,12 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="93"/>
+      <c r="C25" s="79">
+        <v>1</v>
+      </c>
+      <c r="D25" s="93">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
         <v>Winner Match #19</v>
@@ -4009,8 +4021,12 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="97"/>
+      <c r="C26" s="79">
+        <v>2</v>
+      </c>
+      <c r="D26" s="97">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
         <v>Winner Match #23</v>
@@ -4065,8 +4081,12 @@
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
+      <c r="C27" s="92">
+        <v>3</v>
+      </c>
+      <c r="D27" s="93">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E27" s="6" t="str">
         <f>IF($H$25=$J$25,CONCATENATE("Winner Match #",$A$25),IF($H$25&gt;$J$25,$E$25,$G$25))</f>
         <v>Winner Match #24</v>
@@ -4121,8 +4141,12 @@
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="96"/>
-      <c r="D28" s="97"/>
+      <c r="C28" s="96">
+        <v>1</v>
+      </c>
+      <c r="D28" s="97">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="E28" s="7" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Winner Match #",$A$22),IF($H$22&gt;$J$22,$E$22,$G$22))</f>
         <v>Winner Match #21</v>
@@ -4177,8 +4201,12 @@
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
+      <c r="C29" s="92">
+        <v>2</v>
+      </c>
+      <c r="D29" s="93">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="E29" s="6" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Winner Match #",$A$23),IF($H$23&gt;$J$23,$E$23,$G$23))</f>
         <v>Winner Match #22</v>
@@ -4233,8 +4261,12 @@
       <c r="B30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="96">
+        <v>1</v>
+      </c>
+      <c r="D30" s="97">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E30" s="7" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Loser Match #",$A$28),IF($H$28&lt;$J$28,$E$28,$G$28))</f>
         <v>Loser Match #27</v>
@@ -4289,8 +4321,12 @@
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
+      <c r="C31" s="92">
+        <v>2</v>
+      </c>
+      <c r="D31" s="93">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E31" s="6" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Winner Match #",$A$28),IF($H$28&gt;$J$28,$E$28,$G$28))</f>
         <v>Winner Match #27</v>
@@ -5749,7 +5785,7 @@
       </c>
       <c r="C16">
         <f>Resultate!C16</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="129">
         <f>Resultate!D16</f>
@@ -5855,13 +5891,13 @@
         <f>Resultate!G17</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17">
         <f>Resultate!H17</f>
-        <v/>
-      </c>
-      <c r="H17" t="str">
+        <v>2</v>
+      </c>
+      <c r="H17">
         <f>Resultate!J17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I17" s="129">
         <f>Resultate!K17</f>
@@ -5869,19 +5905,19 @@
       </c>
       <c r="J17">
         <f>Resultate!L17</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K17">
         <f>Resultate!N17</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L17">
         <f>Resultate!O17</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M17">
         <f>Resultate!Q17</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <f>Resultate!R17</f>
@@ -5916,7 +5952,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S17" t="s">
         <v>96</v>
@@ -5933,7 +5969,7 @@
       </c>
       <c r="C18">
         <f>Resultate!C18</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="129">
         <f>Resultate!D18</f>
@@ -6192,7 +6228,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S20" t="s">
         <v>96</v>
@@ -6221,7 +6257,7 @@
       </c>
       <c r="F21" t="str">
         <f>Resultate!G21</f>
-        <v>Loser Match #16</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="G21" t="str">
         <f>Resultate!H21</f>
@@ -6405,7 +6441,7 @@
       </c>
       <c r="F23" t="str">
         <f>Resultate!G23</f>
-        <v>Winner Match #16</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="G23" t="str">
         <f>Resultate!H23</f>
@@ -6468,7 +6504,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -6577,11 +6613,11 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="129">
         <f>Resultate!D25</f>
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
@@ -6652,7 +6688,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S25" t="s">
         <v>96</v>
@@ -6669,11 +6705,11 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="129">
         <f>Resultate!D26</f>
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E26" t="str">
         <f>Resultate!E26</f>
@@ -6744,7 +6780,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S26" t="s">
         <v>96</v>
@@ -6761,11 +6797,11 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="129">
         <f>Resultate!D27</f>
-        <v>0</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="E27" t="str">
         <f>Resultate!E27</f>
@@ -6836,7 +6872,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court3</v>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -6853,11 +6889,11 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="129">
         <f>Resultate!D28</f>
-        <v>0</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E28" t="str">
         <f>Resultate!E28</f>
@@ -6928,7 +6964,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_4_court1</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -6945,11 +6981,11 @@
       </c>
       <c r="C29">
         <f>Resultate!C29</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="129">
         <f>Resultate!D29</f>
-        <v>0</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E29" t="str">
         <f>Resultate!E29</f>
@@ -7020,7 +7056,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7037,11 +7073,11 @@
       </c>
       <c r="C30">
         <f>Resultate!C30</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="129">
         <f>Resultate!D30</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E30" t="str">
         <f>Resultate!E30</f>
@@ -7112,7 +7148,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_5_court1</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -8007,7 +8043,7 @@
       </c>
       <c r="C42" s="107" t="str">
         <f>CONCATENATE(Resultate!$G$23," ")</f>
-        <v xml:space="preserve">Winner Match #16 </v>
+        <v xml:space="preserve">Addiechi / Flückiger </v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -8032,7 +8068,7 @@
       </c>
       <c r="B43" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$17," : ",Resultate!$J$17,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="C43" s="22"/>
       <c r="D43"/>
@@ -8101,7 +8137,7 @@
       <c r="H46"/>
       <c r="I46" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$21," ")</f>
-        <v xml:space="preserve">Loser Match #16 </v>
+        <v xml:space="preserve">Adamson / Müller </v>
       </c>
       <c r="J46"/>
       <c r="K46" s="9"/>
@@ -8469,26 +8505,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8717,10 +8733,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8737,20 +8784,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE3CA24-5B8E-4856-AAA4-BE39635397B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F3542-403C-476B-93EF-6D5E08EE4A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3430,31 +3430,39 @@
         <f>IF($H$7=$J$7,CONCATENATE("Winner Match #",$A$7),IF($H$7&gt;$J$7,$E$7,$G$7))</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="H16" s="65" t="str">
+      <c r="H16" s="65">
         <f t="shared" ref="H16:H29" si="4">IF(L16=N16,"",SUM(IF(L16&gt;N16,1,0),IF(O16&gt;Q16,1,0),IF(R16&lt;=T16,0,1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="65" t="str">
+      <c r="J16" s="65">
         <f t="shared" ref="J16:J29" si="5">IF(L16=N16,"",SUM(IF(L16&lt;N16,1,0),IF(O16&lt;Q16,1,0),IF(R16&gt;=T16,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="90">
         <f t="shared" ref="K16:K29" si="6">SUM(V16-U16)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="83"/>
+      <c r="L16" s="83">
+        <v>21</v>
+      </c>
       <c r="M16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
+      <c r="N16" s="81">
+        <v>15</v>
+      </c>
+      <c r="O16" s="81">
+        <v>21</v>
+      </c>
       <c r="P16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q16" s="81"/>
+      <c r="Q16" s="81">
+        <v>15</v>
+      </c>
       <c r="R16" s="79"/>
       <c r="S16" s="5" t="s">
         <v>17</v>
@@ -3602,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="93">
         <v>0.55208333333333337</v>
@@ -3662,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="93">
         <v>0.55208333333333337</v>
@@ -3676,7 +3684,7 @@
       </c>
       <c r="G20" s="5" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Loser Match #",$A$16),IF($H$16&lt;$J$16,$E$16,$G$16))</f>
-        <v>Loser Match #15</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="H20" s="65" t="str">
         <f t="shared" si="4"/>
@@ -3721,9 +3729,7 @@
       <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="79">
-        <v>3</v>
-      </c>
+      <c r="C21" s="79"/>
       <c r="D21" s="93">
         <v>0.55208333333333337</v>
       </c>
@@ -3781,9 +3787,7 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="79">
-        <v>1</v>
-      </c>
+      <c r="C22" s="79"/>
       <c r="D22" s="80">
         <v>0.58333333333333337</v>
       </c>
@@ -3841,15 +3845,13 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="79">
-        <v>2</v>
-      </c>
+      <c r="C23" s="79"/>
       <c r="D23" s="80">
         <v>0.58333333333333337</v>
       </c>
       <c r="E23" s="6" t="str">
         <f>IF($H$16=$J$16,CONCATENATE("Winner Match #",$A$16),IF($H$16&gt;$J$16,$E$16,$G$16))</f>
-        <v>Winner Match #15</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>7</v>
@@ -3901,9 +3903,7 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="79">
-        <v>3</v>
-      </c>
+      <c r="C24" s="79"/>
       <c r="D24" s="80">
         <v>0.58333333333333337</v>
       </c>
@@ -3961,9 +3961,7 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="79">
-        <v>1</v>
-      </c>
+      <c r="C25" s="79"/>
       <c r="D25" s="93">
         <v>0.60416666666666663</v>
       </c>
@@ -4021,9 +4019,7 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="79">
-        <v>2</v>
-      </c>
+      <c r="C26" s="79"/>
       <c r="D26" s="97">
         <v>0.60416666666666663</v>
       </c>
@@ -4081,9 +4077,7 @@
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="92">
-        <v>3</v>
-      </c>
+      <c r="C27" s="92"/>
       <c r="D27" s="93">
         <v>0.60416666666666663</v>
       </c>
@@ -4141,9 +4135,7 @@
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="96">
-        <v>1</v>
-      </c>
+      <c r="C28" s="96"/>
       <c r="D28" s="97">
         <v>0.63541666666666663</v>
       </c>
@@ -4201,9 +4193,7 @@
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="92">
-        <v>2</v>
-      </c>
+      <c r="C29" s="92"/>
       <c r="D29" s="93">
         <v>0.63541666666666663</v>
       </c>
@@ -4261,9 +4251,7 @@
       <c r="B30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="96">
-        <v>1</v>
-      </c>
+      <c r="C30" s="96"/>
       <c r="D30" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -4321,9 +4309,7 @@
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="92">
-        <v>2</v>
-      </c>
+      <c r="C31" s="92"/>
       <c r="D31" s="93">
         <v>0.66666666666666663</v>
       </c>
@@ -5799,13 +5785,13 @@
         <f>Resultate!G16</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <f>Resultate!H16</f>
-        <v/>
-      </c>
-      <c r="H16" t="str">
+        <v>2</v>
+      </c>
+      <c r="H16">
         <f>Resultate!J16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I16" s="129">
         <f>Resultate!K16</f>
@@ -5813,19 +5799,19 @@
       </c>
       <c r="J16">
         <f>Resultate!L16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K16">
         <f>Resultate!N16</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L16">
         <f>Resultate!O16</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <f>Resultate!Q16</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N16">
         <f>Resultate!R16</f>
@@ -5860,7 +5846,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S16" t="s">
         <v>96</v>
@@ -6061,7 +6047,7 @@
       </c>
       <c r="C19">
         <f>Resultate!C19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="129">
         <f>Resultate!D19</f>
@@ -6136,7 +6122,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S19" t="s">
         <v>96</v>
@@ -6153,7 +6139,7 @@
       </c>
       <c r="C20">
         <f>Resultate!C20</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="129">
         <f>Resultate!D20</f>
@@ -6165,7 +6151,7 @@
       </c>
       <c r="F20" t="str">
         <f>Resultate!G20</f>
-        <v>Loser Match #15</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="G20" t="str">
         <f>Resultate!H20</f>
@@ -6245,7 +6231,7 @@
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" s="129">
         <f>Resultate!D21</f>
@@ -6320,7 +6306,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v/>
       </c>
       <c r="S21" t="s">
         <v>96</v>
@@ -6337,7 +6323,7 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="129">
         <f>Resultate!D22</f>
@@ -6412,7 +6398,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v/>
       </c>
       <c r="S22" t="s">
         <v>96</v>
@@ -6429,7 +6415,7 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" s="129">
         <f>Resultate!D23</f>
@@ -6437,7 +6423,7 @@
       </c>
       <c r="E23" t="str">
         <f>Resultate!E23</f>
-        <v>Winner Match #15</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="F23" t="str">
         <f>Resultate!G23</f>
@@ -6504,7 +6490,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v/>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -6521,7 +6507,7 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" s="129">
         <f>Resultate!D24</f>
@@ -6596,7 +6582,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court3</v>
+        <v/>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -6613,7 +6599,7 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="129">
         <f>Resultate!D25</f>
@@ -6688,7 +6674,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v/>
       </c>
       <c r="S25" t="s">
         <v>96</v>
@@ -6705,7 +6691,7 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="129">
         <f>Resultate!D26</f>
@@ -6780,7 +6766,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v/>
       </c>
       <c r="S26" t="s">
         <v>96</v>
@@ -6797,7 +6783,7 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="129">
         <f>Resultate!D27</f>
@@ -6872,7 +6858,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court3</v>
+        <v/>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -6889,7 +6875,7 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="129">
         <f>Resultate!D28</f>
@@ -6964,7 +6950,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court1</v>
+        <v/>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -6981,7 +6967,7 @@
       </c>
       <c r="C29">
         <f>Resultate!C29</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" s="129">
         <f>Resultate!D29</f>
@@ -7056,7 +7042,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v/>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7073,7 +7059,7 @@
       </c>
       <c r="C30">
         <f>Resultate!C30</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="129">
         <f>Resultate!D30</f>
@@ -7148,7 +7134,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_5_court1</v>
+        <v/>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -7798,7 +7784,7 @@
       </c>
       <c r="C30" s="34" t="str">
         <f>CONCATENATE(Resultate!$E$23," ")</f>
-        <v xml:space="preserve">Winner Match #15 </v>
+        <v xml:space="preserve">Allemann / Schaller </v>
       </c>
       <c r="D30"/>
       <c r="F30"/>
@@ -7814,7 +7800,7 @@
       </c>
       <c r="B31" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$16," : ",Resultate!$J$16,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31"/>
@@ -7967,7 +7953,7 @@
       <c r="H38" s="24"/>
       <c r="I38" s="116" t="str">
         <f>CONCATENATE(Resultate!$G$20," ")</f>
-        <v xml:space="preserve">Loser Match #15 </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="J38"/>
       <c r="K38" s="9"/>
@@ -8734,6 +8720,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8742,15 +8737,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8773,6 +8759,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8781,12 +8775,4 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F3542-403C-476B-93EF-6D5E08EE4A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA7EDE-BEB7-4FF9-B719-B535AFE45998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3613,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="93">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E19" s="5" t="str">
         <f>IF($H$12=$J$12,CONCATENATE("Winner Match #",$A$12),IF($H$12&gt;$J$12,$E$12,$G$12))</f>
@@ -3626,31 +3626,39 @@
         <f>IF($H$15=$J$15,CONCATENATE("Loser Match #",$A$15),IF($H$15&lt;$J$15,$E$15,$G$15))</f>
         <v>Stöckli / Stöckli</v>
       </c>
-      <c r="H19" s="65" t="str">
+      <c r="H19" s="65">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="65" t="str">
+      <c r="J19" s="65">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K19" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L19" s="83"/>
+      <c r="L19" s="83">
+        <v>21</v>
+      </c>
       <c r="M19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
+      <c r="N19" s="81">
+        <v>15</v>
+      </c>
+      <c r="O19" s="81">
+        <v>21</v>
+      </c>
       <c r="P19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="81"/>
+      <c r="Q19" s="81">
+        <v>15</v>
+      </c>
       <c r="R19" s="79"/>
       <c r="S19" s="5" t="s">
         <v>17</v>
@@ -3673,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="93">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E20" s="5" t="str">
         <f>IF($H$11=$J$11,CONCATENATE("Winner Match #",$A$11),IF($H$11&gt;$J$11,$E$11,$G$11))</f>
@@ -3686,31 +3694,39 @@
         <f>IF($H$16=$J$16,CONCATENATE("Loser Match #",$A$16),IF($H$16&lt;$J$16,$E$16,$G$16))</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="H20" s="65" t="str">
+      <c r="H20" s="65">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="65" t="str">
+      <c r="J20" s="65">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K20" s="90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="83"/>
+      <c r="L20" s="83">
+        <v>15</v>
+      </c>
       <c r="M20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
+      <c r="N20" s="81">
+        <v>21</v>
+      </c>
+      <c r="O20" s="81">
+        <v>15</v>
+      </c>
       <c r="P20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="81"/>
+      <c r="Q20" s="81">
+        <v>21</v>
+      </c>
       <c r="R20" s="79"/>
       <c r="S20" s="5" t="s">
         <v>17</v>
@@ -3729,9 +3745,11 @@
       <c r="B21" s="6">
         <v>9</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="79">
+        <v>2</v>
+      </c>
       <c r="D21" s="93">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E21" s="6" t="str">
         <f>IF($H$10=$J$10,CONCATENATE("Winner Match #",$A$10),IF($H$10&gt;$J$10,$E$10,$G$10))</f>
@@ -3787,9 +3805,11 @@
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="79"/>
+      <c r="C22" s="79">
+        <v>3</v>
+      </c>
       <c r="D22" s="80">
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E22" s="7" t="str">
         <f>IF($H$14=$J$14,CONCATENATE("Winner Match #",$A$14),IF($H$14&gt;$J$14,$E$14,$G$14))</f>
@@ -3916,7 +3936,7 @@
       </c>
       <c r="G24" s="7" t="str">
         <f>IF($H$19=$J$19,CONCATENATE("Winner Match #",$A$19),IF($H$19&gt;$J$19,$E$19,$G$19))</f>
-        <v>Winner Match #18</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="H24" s="67" t="str">
         <f t="shared" si="4"/>
@@ -3967,7 +3987,7 @@
       </c>
       <c r="E25" s="6" t="str">
         <f>IF($H$20=$J$20,CONCATENATE("Winner Match #",$A$20),IF($H$20&gt;$J$20,$E$20,$G$20))</f>
-        <v>Winner Match #19</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>7</v>
@@ -4135,7 +4155,9 @@
       <c r="B28" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="96"/>
+      <c r="C28" s="96">
+        <v>2</v>
+      </c>
       <c r="D28" s="97">
         <v>0.63541666666666663</v>
       </c>
@@ -4193,7 +4215,9 @@
       <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="92"/>
+      <c r="C29" s="92">
+        <v>1</v>
+      </c>
       <c r="D29" s="93">
         <v>0.63541666666666663</v>
       </c>
@@ -4251,7 +4275,9 @@
       <c r="B30" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="96"/>
+      <c r="C30" s="96">
+        <v>2</v>
+      </c>
       <c r="D30" s="97">
         <v>0.66666666666666663</v>
       </c>
@@ -4309,7 +4335,9 @@
       <c r="B31" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="92">
+        <v>1</v>
+      </c>
       <c r="D31" s="93">
         <v>0.66666666666666663</v>
       </c>
@@ -6051,7 +6079,7 @@
       </c>
       <c r="D19" s="129">
         <f>Resultate!D19</f>
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E19" t="str">
         <f>Resultate!E19</f>
@@ -6061,13 +6089,13 @@
         <f>Resultate!G19</f>
         <v>Stöckli / Stöckli</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19">
         <f>Resultate!H19</f>
-        <v/>
-      </c>
-      <c r="H19" t="str">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <f>Resultate!J19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I19" s="129">
         <f>Resultate!K19</f>
@@ -6075,19 +6103,19 @@
       </c>
       <c r="J19">
         <f>Resultate!L19</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <f>Resultate!N19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L19">
         <f>Resultate!O19</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M19">
         <f>Resultate!Q19</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <f>Resultate!R19</f>
@@ -6122,7 +6150,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S19" t="s">
         <v>96</v>
@@ -6143,7 +6171,7 @@
       </c>
       <c r="D20" s="129">
         <f>Resultate!D20</f>
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E20" t="str">
         <f>Resultate!E20</f>
@@ -6153,13 +6181,13 @@
         <f>Resultate!G20</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20">
         <f>Resultate!H20</f>
-        <v/>
-      </c>
-      <c r="H20" t="str">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <f>Resultate!J20</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I20" s="129">
         <f>Resultate!K20</f>
@@ -6167,19 +6195,19 @@
       </c>
       <c r="J20">
         <f>Resultate!L20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K20">
         <f>Resultate!N20</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L20">
         <f>Resultate!O20</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M20">
         <f>Resultate!Q20</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <f>Resultate!R20</f>
@@ -6214,7 +6242,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S20" t="s">
         <v>96</v>
@@ -6231,11 +6259,11 @@
       </c>
       <c r="C21">
         <f>Resultate!C21</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="129">
         <f>Resultate!D21</f>
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E21" t="str">
         <f>Resultate!E21</f>
@@ -6306,7 +6334,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S21" t="s">
         <v>96</v>
@@ -6323,11 +6351,11 @@
       </c>
       <c r="C22">
         <f>Resultate!C22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="129">
         <f>Resultate!D22</f>
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E22" t="str">
         <f>Resultate!E22</f>
@@ -6398,7 +6426,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>in_progress</v>
       </c>
       <c r="S22" t="s">
         <v>96</v>
@@ -6519,7 +6547,7 @@
       </c>
       <c r="F24" t="str">
         <f>Resultate!G24</f>
-        <v>Winner Match #18</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="G24" t="str">
         <f>Resultate!H24</f>
@@ -6607,7 +6635,7 @@
       </c>
       <c r="E25" t="str">
         <f>Resultate!E25</f>
-        <v>Winner Match #19</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="F25" t="str">
         <f>Resultate!G25</f>
@@ -6875,7 +6903,7 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="129">
         <f>Resultate!D28</f>
@@ -6950,7 +6978,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -6967,7 +6995,7 @@
       </c>
       <c r="C29">
         <f>Resultate!C29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="129">
         <f>Resultate!D29</f>
@@ -7042,7 +7070,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7059,7 +7087,7 @@
       </c>
       <c r="C30">
         <f>Resultate!C30</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="129">
         <f>Resultate!D30</f>
@@ -7134,7 +7162,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -7596,7 +7624,7 @@
       </c>
       <c r="H20" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$24," ")</f>
-        <v xml:space="preserve">Winner Match #18 </v>
+        <v xml:space="preserve">Lendl / Kurzawa </v>
       </c>
       <c r="I20" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$19,"")</f>
@@ -7626,7 +7654,7 @@
       <c r="H21" s="26"/>
       <c r="I21" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$19," : ",Resultate!$J$19,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -7935,11 +7963,11 @@
       </c>
       <c r="H37" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$25," ")</f>
-        <v xml:space="preserve">Winner Match #19 </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="I37" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$20," : ",Resultate!$J$20,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="K37"/>
     </row>
@@ -8359,15 +8387,15 @@
       </c>
       <c r="B11" s="2" t="str">
         <f>IF(Resultate!$H$19=Resultate!$J$19,"9. Rang",IF(Resultate!$H$19&lt;Resultate!$J$19,Resultate!$E$19,Resultate!$G$19))</f>
-        <v>9. Rang</v>
+        <v>Stöckli / Stöckli</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IF(B11="9. Rang","mal schauen",VLOOKUP(B11,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D11" s="42" t="str">
+        <v>Vivian Stöckli / Julian Stöckli</v>
+      </c>
+      <c r="D11" s="42">
         <f>IF(B11="9. Rang","zu Hause",VLOOKUP(B11,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8376,15 +8404,15 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>IF(Resultate!$H$20=Resultate!$J$20,"9. Rang",IF(Resultate!$H$20&lt;Resultate!$J$20,Resultate!$E$20,Resultate!$G$20))</f>
-        <v>9. Rang</v>
+        <v>Sieber / Müller</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>IF(B12="9. Rang","mal schauen",VLOOKUP(B12,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D12" s="42" t="str">
+        <v>Jonatan Sieber / Tim Müller</v>
+      </c>
+      <c r="D12" s="42">
         <f>IF(B12="9. Rang","zu Hause",VLOOKUP(B12,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8720,15 +8748,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8737,6 +8756,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8759,14 +8787,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8775,4 +8795,12 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA7EDE-BEB7-4FF9-B719-B535AFE45998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF0631-0C0D-45FE-AD1E-0A9278140F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3865,7 +3865,9 @@
       <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="79">
+        <v>1</v>
+      </c>
       <c r="D23" s="80">
         <v>0.58333333333333337</v>
       </c>
@@ -3923,7 +3925,9 @@
       <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="79">
+        <v>2</v>
+      </c>
       <c r="D24" s="80">
         <v>0.58333333333333337</v>
       </c>
@@ -3981,7 +3985,9 @@
       <c r="B25" s="6">
         <v>7</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="79">
+        <v>3</v>
+      </c>
       <c r="D25" s="93">
         <v>0.60416666666666663</v>
       </c>
@@ -4039,7 +4045,9 @@
       <c r="B26" s="7">
         <v>5</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="79">
+        <v>1</v>
+      </c>
       <c r="D26" s="97">
         <v>0.60416666666666663</v>
       </c>
@@ -4097,7 +4105,9 @@
       <c r="B27" s="6">
         <v>5</v>
       </c>
-      <c r="C27" s="92"/>
+      <c r="C27" s="92">
+        <v>2</v>
+      </c>
       <c r="D27" s="93">
         <v>0.60416666666666663</v>
       </c>
@@ -4407,7 +4417,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4415,20 +4425,19 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.9296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.9296875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.46484375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="1.796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.9296875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.59765625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="2.796875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="5.59765625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="2.796875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="5.59765625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="1.796875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.59765625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7.9296875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6443,7 +6452,7 @@
       </c>
       <c r="C23">
         <f>Resultate!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="129">
         <f>Resultate!D23</f>
@@ -6518,7 +6527,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -6535,7 +6544,7 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24" s="129">
         <f>Resultate!D24</f>
@@ -6610,7 +6619,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -6627,7 +6636,7 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="129">
         <f>Resultate!D25</f>
@@ -6702,7 +6711,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S25" t="s">
         <v>96</v>
@@ -6719,7 +6728,7 @@
       </c>
       <c r="C26">
         <f>Resultate!C26</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="129">
         <f>Resultate!D26</f>
@@ -6794,7 +6803,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S26" t="s">
         <v>96</v>
@@ -6811,7 +6820,7 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="129">
         <f>Resultate!D27</f>
@@ -6886,7 +6895,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v/>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -6978,7 +6987,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -7070,7 +7079,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7162,7 +7171,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_4_court2</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -8748,6 +8757,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8756,15 +8774,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8787,6 +8796,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8795,12 +8812,4 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FF0631-0C0D-45FE-AD1E-0A9278140F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E58E731-FFBE-410B-B9A9-EDA47E43C170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="80">
         <v>0.58333333333333337</v>
@@ -3986,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="93">
         <v>0.60416666666666663</v>
@@ -4106,7 +4106,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="93">
         <v>0.60416666666666663</v>
@@ -4166,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="97">
         <v>0.63541666666666663</v>
@@ -4226,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="93">
         <v>0.63541666666666663</v>
@@ -6544,7 +6544,7 @@
       </c>
       <c r="C24">
         <f>Resultate!C24</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="129">
         <f>Resultate!D24</f>
@@ -6619,7 +6619,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="C25">
         <f>Resultate!C25</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="129">
         <f>Resultate!D25</f>
@@ -6711,7 +6711,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S25" t="s">
         <v>96</v>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="129">
         <f>Resultate!D27</f>
@@ -6895,7 +6895,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_2_court3</v>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" s="129">
         <f>Resultate!D28</f>
@@ -6987,7 +6987,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v>upcoming_3_court1</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="C29">
         <f>Resultate!C29</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="129">
         <f>Resultate!D29</f>
@@ -7079,7 +7079,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7171,7 +7171,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_4_court2</v>
+        <v>upcoming_3_court2</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -8528,6 +8528,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8756,27 +8776,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8793,23 +8812,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E58E731-FFBE-410B-B9A9-EDA47E43C170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AAA495-7FE0-4409-A566-E979CCEE4718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3566,36 +3566,48 @@
         <f>IF($H$14=$J$14,CONCATENATE("Loser Match #",$A$14),IF($H$14&lt;$J$14,$E$14,$G$14))</f>
         <v>Raffi / Röthlisberger</v>
       </c>
-      <c r="H18" s="67" t="str">
+      <c r="H18" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="67" t="str">
+      <c r="J18" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K18" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L18" s="99"/>
+      <c r="L18" s="99">
+        <v>21</v>
+      </c>
       <c r="M18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
+      <c r="N18" s="100">
+        <v>15</v>
+      </c>
+      <c r="O18" s="100">
+        <v>15</v>
+      </c>
       <c r="P18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="96"/>
+      <c r="Q18" s="100">
+        <v>21</v>
+      </c>
+      <c r="R18" s="96">
+        <v>15</v>
+      </c>
       <c r="S18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T18" s="96"/>
+      <c r="T18" s="96">
+        <v>8</v>
+      </c>
       <c r="U18" s="70"/>
       <c r="V18" s="70"/>
       <c r="W18"/>
@@ -3933,7 +3945,7 @@
       </c>
       <c r="E24" s="7" t="str">
         <f>IF($H$18=$J$18,CONCATENATE("Winner Match #",$A$18),IF($H$18&gt;$J$18,$E$18,$G$18))</f>
-        <v>Winner Match #17</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>7</v>
@@ -6006,13 +6018,13 @@
         <f>Resultate!G18</f>
         <v>Raffi / Röthlisberger</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18">
         <f>Resultate!H18</f>
-        <v/>
-      </c>
-      <c r="H18" t="str">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <f>Resultate!J18</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I18" s="129">
         <f>Resultate!K18</f>
@@ -6020,27 +6032,27 @@
       </c>
       <c r="J18">
         <f>Resultate!L18</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K18">
         <f>Resultate!N18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L18">
         <f>Resultate!O18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M18">
         <f>Resultate!Q18</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <f>Resultate!R18</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O18">
         <f>Resultate!T18</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P18" s="129">
         <f>Resultate!U18</f>
@@ -6067,7 +6079,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S18" t="s">
         <v>96</v>
@@ -6527,7 +6539,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -6552,7 +6564,7 @@
       </c>
       <c r="E24" t="str">
         <f>Resultate!E24</f>
-        <v>Winner Match #17</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="F24" t="str">
         <f>Resultate!G24</f>
@@ -6803,7 +6815,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S26" t="s">
         <v>96</v>
@@ -6987,7 +6999,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court1</v>
+        <v>upcoming_2_court1</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -7441,7 +7453,7 @@
       </c>
       <c r="H12" s="108" t="str">
         <f>CONCATENATE(Resultate!$E$24," ")</f>
-        <v xml:space="preserve">Winner Match #17 </v>
+        <v xml:space="preserve">Charkin / Hrytsuk </v>
       </c>
       <c r="I12" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$18,"")</f>
@@ -7479,7 +7491,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$18," : ",Resultate!$J$18,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -8379,15 +8391,15 @@
       </c>
       <c r="B10" s="2" t="str">
         <f>IF(Resultate!$H$18=Resultate!$J$18,"9. Rang",IF(Resultate!$H$18&lt;Resultate!$J$18,Resultate!$E$18,Resultate!$G$18))</f>
-        <v>9. Rang</v>
+        <v>Raffi / Röthlisberger</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IF(B10="9. Rang","mal schauen",VLOOKUP(B10,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D10" s="42" t="str">
+        <v>Luca Raffi / Marc Röthlisberger</v>
+      </c>
+      <c r="D10" s="42">
         <f>IF(B10="9. Rang","zu Hause",VLOOKUP(B10,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8539,15 +8551,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8776,6 +8779,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
@@ -8788,14 +8800,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8812,4 +8816,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AAA495-7FE0-4409-A566-E979CCEE4718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D07DD-B187-42D2-BEAE-BD7E92059BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3834,31 +3834,39 @@
         <f>IF($H$15=$J$15,CONCATENATE("Winner Match #",$A$15),IF($H$15&gt;$J$15,$E$15,$G$15))</f>
         <v>Bosshard / Strebel</v>
       </c>
-      <c r="H22" s="67" t="str">
+      <c r="H22" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="67" t="str">
+      <c r="J22" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K22" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L22" s="99"/>
+      <c r="L22" s="99">
+        <v>15</v>
+      </c>
       <c r="M22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
+      <c r="N22" s="100">
+        <v>21</v>
+      </c>
+      <c r="O22" s="100">
+        <v>15</v>
+      </c>
       <c r="P22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="100"/>
+      <c r="Q22" s="100">
+        <v>21</v>
+      </c>
       <c r="R22" s="96"/>
       <c r="S22" s="7" t="s">
         <v>17</v>
@@ -4132,7 +4140,7 @@
       </c>
       <c r="G27" s="6" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Loser Match #",$A$22),IF($H$22&lt;$J$22,$E$22,$G$22))</f>
-        <v>Loser Match #21</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="H27" s="66" t="str">
         <f t="shared" si="4"/>
@@ -4185,7 +4193,7 @@
       </c>
       <c r="E28" s="7" t="str">
         <f>IF($H$22=$J$22,CONCATENATE("Winner Match #",$A$22),IF($H$22&gt;$J$22,$E$22,$G$22))</f>
-        <v>Winner Match #21</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>7</v>
@@ -6386,13 +6394,13 @@
         <f>Resultate!G22</f>
         <v>Bosshard / Strebel</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22">
         <f>Resultate!H22</f>
-        <v/>
-      </c>
-      <c r="H22" t="str">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <f>Resultate!J22</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I22" s="129">
         <f>Resultate!K22</f>
@@ -6400,19 +6408,19 @@
       </c>
       <c r="J22">
         <f>Resultate!L22</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K22">
         <f>Resultate!N22</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L22">
         <f>Resultate!O22</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M22">
         <f>Resultate!Q22</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <f>Resultate!R22</f>
@@ -6447,7 +6455,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S22" t="s">
         <v>96</v>
@@ -6631,7 +6639,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>in_progress</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -6844,7 +6852,7 @@
       </c>
       <c r="F27" t="str">
         <f>Resultate!G27</f>
-        <v>Loser Match #21</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="G27" t="str">
         <f>Resultate!H27</f>
@@ -6907,7 +6915,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court3</v>
+        <v>upcoming_1_court3</v>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -6932,7 +6940,7 @@
       </c>
       <c r="E28" t="str">
         <f>Resultate!E28</f>
-        <v>Winner Match #21</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F28" t="str">
         <f>Resultate!G28</f>
@@ -7437,7 +7445,7 @@
       </c>
       <c r="D12" s="109" t="str">
         <f>CONCATENATE(Resultate!$E$28," ")</f>
-        <v xml:space="preserve">Winner Match #21 </v>
+        <v xml:space="preserve">Bosshard / Strebel </v>
       </c>
       <c r="E12" s="20" t="str">
         <f>CONCATENATE("",Resultate!$A$28,"")</f>
@@ -7476,7 +7484,7 @@
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$22," : ",Resultate!$J$22,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="117" t="str">
@@ -7865,7 +7873,7 @@
       <c r="D32" s="14"/>
       <c r="G32" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$27," ")</f>
-        <v xml:space="preserve">Loser Match #21 </v>
+        <v xml:space="preserve">Baltermi / Hill Azpeitia </v>
       </c>
       <c r="I32"/>
       <c r="J32" s="108" t="str">
@@ -8540,14 +8548,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8780,21 +8786,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8819,9 +8824,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D07DD-B187-42D2-BEAE-BD7E92059BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3D4EE-68C3-4BBE-860C-6F4ED1D3DFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -3774,31 +3774,39 @@
         <f>IF($H$17=$J$17,CONCATENATE("Loser Match #",$A$17),IF($H$17&lt;$J$17,$E$17,$G$17))</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="H21" s="66" t="str">
+      <c r="H21" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="66" t="str">
+      <c r="J21" s="66">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K21" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L21" s="101"/>
+      <c r="L21" s="101">
+        <v>15</v>
+      </c>
       <c r="M21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
+      <c r="N21" s="102">
+        <v>21</v>
+      </c>
+      <c r="O21" s="102">
+        <v>15</v>
+      </c>
       <c r="P21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q21" s="102"/>
+      <c r="Q21" s="102">
+        <v>21</v>
+      </c>
       <c r="R21" s="92"/>
       <c r="S21" s="6" t="s">
         <v>17</v>
@@ -3902,31 +3910,39 @@
         <f>IF($H$17=$J$17,CONCATENATE("Winner Match #",$A$17),IF($H$17&gt;$J$17,$E$17,$G$17))</f>
         <v>Addiechi / Flückiger</v>
       </c>
-      <c r="H23" s="66" t="str">
+      <c r="H23" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="66" t="str">
+      <c r="J23" s="66">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K23" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L23" s="101"/>
+      <c r="L23" s="101">
+        <v>15</v>
+      </c>
       <c r="M23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
+      <c r="N23" s="102">
+        <v>21</v>
+      </c>
+      <c r="O23" s="102">
+        <v>15</v>
+      </c>
       <c r="P23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q23" s="102"/>
+      <c r="Q23" s="102">
+        <v>21</v>
+      </c>
       <c r="R23" s="92"/>
       <c r="S23" s="6" t="s">
         <v>17</v>
@@ -3962,31 +3978,39 @@
         <f>IF($H$19=$J$19,CONCATENATE("Winner Match #",$A$19),IF($H$19&gt;$J$19,$E$19,$G$19))</f>
         <v>Lendl / Kurzawa</v>
       </c>
-      <c r="H24" s="67" t="str">
+      <c r="H24" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="67" t="str">
+      <c r="J24" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K24" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L24" s="99"/>
+      <c r="L24" s="99">
+        <v>15</v>
+      </c>
       <c r="M24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
+      <c r="N24" s="100">
+        <v>21</v>
+      </c>
+      <c r="O24" s="100">
+        <v>15</v>
+      </c>
       <c r="P24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="100"/>
+      <c r="Q24" s="100">
+        <v>21</v>
+      </c>
       <c r="R24" s="96"/>
       <c r="S24" s="7" t="s">
         <v>17</v>
@@ -4020,7 +4044,7 @@
       </c>
       <c r="G25" s="6" t="str">
         <f>IF($H$21=$J$21,CONCATENATE("Winner Match #",$A$21),IF($H$21&gt;$J$21,$E$21,$G$21))</f>
-        <v>Winner Match #20</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="H25" s="66" t="str">
         <f t="shared" si="4"/>
@@ -4073,14 +4097,14 @@
       </c>
       <c r="E26" s="7" t="str">
         <f>IF($H$24=$J$24,CONCATENATE("Winner Match #",$A$24),IF($H$24&gt;$J$24,$E$24,$G$24))</f>
-        <v>Winner Match #23</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="7" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Loser Match #",$A$23),IF($H$23&lt;$J$23,$E$23,$G$23))</f>
-        <v>Loser Match #22</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="H26" s="67" t="str">
         <f t="shared" si="4"/>
@@ -4253,7 +4277,7 @@
       </c>
       <c r="E29" s="6" t="str">
         <f>IF($H$23=$J$23,CONCATENATE("Winner Match #",$A$23),IF($H$23&gt;$J$23,$E$23,$G$23))</f>
-        <v>Winner Match #22</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>7</v>
@@ -6302,13 +6326,13 @@
         <f>Resultate!G21</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21">
         <f>Resultate!H21</f>
-        <v/>
-      </c>
-      <c r="H21" t="str">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <f>Resultate!J21</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I21" s="129">
         <f>Resultate!K21</f>
@@ -6316,19 +6340,19 @@
       </c>
       <c r="J21">
         <f>Resultate!L21</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K21">
         <f>Resultate!N21</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <f>Resultate!O21</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M21">
         <f>Resultate!Q21</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N21">
         <f>Resultate!R21</f>
@@ -6363,7 +6387,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S21" t="s">
         <v>96</v>
@@ -6486,13 +6510,13 @@
         <f>Resultate!G23</f>
         <v>Addiechi / Flückiger</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23">
         <f>Resultate!H23</f>
-        <v/>
-      </c>
-      <c r="H23" t="str">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <f>Resultate!J23</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I23" s="129">
         <f>Resultate!K23</f>
@@ -6500,19 +6524,19 @@
       </c>
       <c r="J23">
         <f>Resultate!L23</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K23">
         <f>Resultate!N23</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L23">
         <f>Resultate!O23</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M23">
         <f>Resultate!Q23</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <f>Resultate!R23</f>
@@ -6547,7 +6571,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S23" t="s">
         <v>96</v>
@@ -6578,13 +6602,13 @@
         <f>Resultate!G24</f>
         <v>Lendl / Kurzawa</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24">
         <f>Resultate!H24</f>
-        <v/>
-      </c>
-      <c r="H24" t="str">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <f>Resultate!J24</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I24" s="129">
         <f>Resultate!K24</f>
@@ -6592,19 +6616,19 @@
       </c>
       <c r="J24">
         <f>Resultate!L24</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K24">
         <f>Resultate!N24</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L24">
         <f>Resultate!O24</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M24">
         <f>Resultate!Q24</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <f>Resultate!R24</f>
@@ -6639,7 +6663,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S24" t="s">
         <v>96</v>
@@ -6668,7 +6692,7 @@
       </c>
       <c r="F25" t="str">
         <f>Resultate!G25</f>
-        <v>Winner Match #20</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="G25" t="str">
         <f>Resultate!H25</f>
@@ -6731,7 +6755,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S25" t="s">
         <v>96</v>
@@ -6756,11 +6780,11 @@
       </c>
       <c r="E26" t="str">
         <f>Resultate!E26</f>
-        <v>Winner Match #23</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="F26" t="str">
         <f>Resultate!G26</f>
-        <v>Loser Match #22</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="G26" t="str">
         <f>Resultate!H26</f>
@@ -6823,7 +6847,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S26" t="s">
         <v>96</v>
@@ -6915,7 +6939,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court3</v>
+        <v>in_progress</v>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -7007,7 +7031,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court1</v>
+        <v>upcoming_1_court1</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -7032,7 +7056,7 @@
       </c>
       <c r="E29" t="str">
         <f>Resultate!E29</f>
-        <v>Winner Match #22</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="F29" t="str">
         <f>Resultate!G29</f>
@@ -7099,7 +7123,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7191,7 +7215,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_3_court2</v>
+        <v>upcoming_2_court2</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -7356,7 +7380,7 @@
       <c r="F8"/>
       <c r="G8" s="108" t="str">
         <f>CONCATENATE(Resultate!$G$26," ")</f>
-        <v xml:space="preserve">Loser Match #22 </v>
+        <v xml:space="preserve">Allemann / Schaller </v>
       </c>
       <c r="I8"/>
       <c r="J8" s="108" t="str">
@@ -7555,7 +7579,7 @@
       <c r="D16" s="14"/>
       <c r="G16" s="118" t="str">
         <f>CONCATENATE(Resultate!$E$26," ")</f>
-        <v xml:space="preserve">Winner Match #23 </v>
+        <v xml:space="preserve">Lendl / Kurzawa </v>
       </c>
       <c r="H16" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$24,"")</f>
@@ -7582,7 +7606,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$24," : ",Resultate!$J$24,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="I17"/>
       <c r="J17" s="111"/>
@@ -7945,7 +7969,7 @@
       </c>
       <c r="D36" s="127" t="str">
         <f>CONCATENATE(Resultate!$E$29," ")</f>
-        <v xml:space="preserve">Winner Match #22 </v>
+        <v xml:space="preserve">Addiechi / Flückiger </v>
       </c>
       <c r="E36" s="128" t="str">
         <f>CONCATENATE("",Resultate!$A$29,"")</f>
@@ -7978,7 +8002,7 @@
       <c r="B37" s="14"/>
       <c r="C37" s="12" t="str">
         <f>CONCATENATE("(",Resultate!$H$23," : ",Resultate!$J$23,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="36" t="str">
@@ -8136,7 +8160,7 @@
       <c r="G44"/>
       <c r="H44" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$25," ")</f>
-        <v xml:space="preserve">Winner Match #20 </v>
+        <v xml:space="preserve">Adamson / Müller </v>
       </c>
       <c r="I44" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$21,"")</f>
@@ -8163,7 +8187,7 @@
       <c r="H45" s="26"/>
       <c r="I45" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$21," : ",Resultate!$J$21,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -8365,15 +8389,15 @@
       </c>
       <c r="B8" s="2" t="str">
         <f>IF(Resultate!$H$24=Resultate!$J$24,"7. Rang",IF(Resultate!$H$24&lt;Resultate!$J$24,Resultate!$E$24,Resultate!$G$24))</f>
-        <v>7. Rang</v>
+        <v>Charkin / Hrytsuk</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IF(B8="7. Rang","mal schauen",VLOOKUP(B8,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D8" s="42" t="str">
+        <v>Kanstantsin Charkin / Yury Hrytsuk</v>
+      </c>
+      <c r="D8" s="42">
         <f>IF(B8="7. Rang","zu Hause",VLOOKUP(B8,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8450,15 +8474,15 @@
       </c>
       <c r="B13" s="2" t="str">
         <f>IF(Resultate!$H$21=Resultate!$J$21,"9. Rang",IF(Resultate!$H$21&lt;Resultate!$J$21,Resultate!$E$21,Resultate!$G$21))</f>
-        <v>9. Rang</v>
+        <v>Mikami / Hofmann</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IF(B13="9. Rang","mal schauen",VLOOKUP(B13,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D13" s="42" t="str">
+        <v>Toshiki Mikami / Yannick Hofmann</v>
+      </c>
+      <c r="D13" s="42">
         <f>IF(B13="9. Rang","zu Hause",VLOOKUP(B13,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8557,6 +8581,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8785,17 +8820,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
@@ -8805,6 +8829,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8821,15 +8856,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3D4EE-68C3-4BBE-860C-6F4ED1D3DFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDA8E9-92EE-4A33-BCF6-871066605313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4046,31 +4046,39 @@
         <f>IF($H$21=$J$21,CONCATENATE("Winner Match #",$A$21),IF($H$21&gt;$J$21,$E$21,$G$21))</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="H25" s="66" t="str">
+      <c r="H25" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="66" t="str">
+      <c r="J25" s="66">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L25" s="101"/>
+      <c r="L25" s="101">
+        <v>21</v>
+      </c>
       <c r="M25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
+      <c r="N25" s="102">
+        <v>15</v>
+      </c>
+      <c r="O25" s="102">
+        <v>21</v>
+      </c>
       <c r="P25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="102"/>
+      <c r="Q25" s="102">
+        <v>15</v>
+      </c>
       <c r="R25" s="92"/>
       <c r="S25" s="6" t="s">
         <v>17</v>
@@ -4106,31 +4114,39 @@
         <f>IF($H$23=$J$23,CONCATENATE("Loser Match #",$A$23),IF($H$23&lt;$J$23,$E$23,$G$23))</f>
         <v>Allemann / Schaller</v>
       </c>
-      <c r="H26" s="67" t="str">
+      <c r="H26" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="67" t="str">
+      <c r="J26" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K26" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L26" s="99"/>
+      <c r="L26" s="99">
+        <v>15</v>
+      </c>
       <c r="M26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
+      <c r="N26" s="100">
+        <v>21</v>
+      </c>
+      <c r="O26" s="100">
+        <v>15</v>
+      </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q26" s="100"/>
+      <c r="Q26" s="100">
+        <v>21</v>
+      </c>
       <c r="R26" s="96"/>
       <c r="S26" s="7" t="s">
         <v>17</v>
@@ -4150,14 +4166,14 @@
         <v>5</v>
       </c>
       <c r="C27" s="92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="93">
         <v>0.60416666666666663</v>
       </c>
       <c r="E27" s="6" t="str">
         <f>IF($H$25=$J$25,CONCATENATE("Winner Match #",$A$25),IF($H$25&gt;$J$25,$E$25,$G$25))</f>
-        <v>Winner Match #24</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>7</v>
@@ -4210,7 +4226,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="97">
         <v>0.63541666666666663</v>
@@ -4224,7 +4240,7 @@
       </c>
       <c r="G28" s="7" t="str">
         <f>IF($H$26=$J$26,CONCATENATE("Winner Match #",$A$26),IF($H$26&gt;$J$26,$E$26,$G$26))</f>
-        <v>Winner Match #25</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="H28" s="67" t="str">
         <f t="shared" si="4"/>
@@ -4390,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="C31" s="92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="93">
         <v>0.66666666666666663</v>
@@ -6694,13 +6710,13 @@
         <f>Resultate!G25</f>
         <v>Adamson / Müller</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25">
         <f>Resultate!H25</f>
-        <v/>
-      </c>
-      <c r="H25" t="str">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <f>Resultate!J25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I25" s="129">
         <f>Resultate!K25</f>
@@ -6708,19 +6724,19 @@
       </c>
       <c r="J25">
         <f>Resultate!L25</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K25">
         <f>Resultate!N25</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L25">
         <f>Resultate!O25</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M25">
         <f>Resultate!Q25</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <f>Resultate!R25</f>
@@ -6755,7 +6771,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S25" t="s">
         <v>96</v>
@@ -6786,13 +6802,13 @@
         <f>Resultate!G26</f>
         <v>Allemann / Schaller</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26">
         <f>Resultate!H26</f>
-        <v/>
-      </c>
-      <c r="H26" t="str">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <f>Resultate!J26</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I26" s="129">
         <f>Resultate!K26</f>
@@ -6800,19 +6816,19 @@
       </c>
       <c r="J26">
         <f>Resultate!L26</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K26">
         <f>Resultate!N26</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L26">
         <f>Resultate!O26</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M26">
         <f>Resultate!Q26</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <f>Resultate!R26</f>
@@ -6847,7 +6863,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S26" t="s">
         <v>96</v>
@@ -6864,7 +6880,7 @@
       </c>
       <c r="C27">
         <f>Resultate!C27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="129">
         <f>Resultate!D27</f>
@@ -6872,7 +6888,7 @@
       </c>
       <c r="E27" t="str">
         <f>Resultate!E27</f>
-        <v>Winner Match #24</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="F27" t="str">
         <f>Resultate!G27</f>
@@ -6956,7 +6972,7 @@
       </c>
       <c r="C28">
         <f>Resultate!C28</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="129">
         <f>Resultate!D28</f>
@@ -6968,7 +6984,7 @@
       </c>
       <c r="F28" t="str">
         <f>Resultate!G28</f>
-        <v>Winner Match #25</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="G28" t="str">
         <f>Resultate!H28</f>
@@ -7031,7 +7047,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court1</v>
+        <v>in_progress</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -7477,7 +7493,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f>CONCATENATE(Resultate!$G$28," ")</f>
-        <v xml:space="preserve">Winner Match #25 </v>
+        <v xml:space="preserve">Allemann / Schaller </v>
       </c>
       <c r="G12" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$26,"")</f>
@@ -7518,7 +7534,7 @@
       <c r="F13" s="26"/>
       <c r="G13" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$26," : ",Resultate!$H$26,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="23" t="str">
@@ -8069,7 +8085,7 @@
       <c r="F40"/>
       <c r="G40" s="118" t="str">
         <f>CONCATENATE(Resultate!$E$27," ")</f>
-        <v xml:space="preserve">Winner Match #24 </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="H40" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$25,"")</f>
@@ -8096,7 +8112,7 @@
       <c r="G41" s="26"/>
       <c r="H41" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$H$25," : ",Resultate!$J$25,")")</f>
-        <v>( : )</v>
+        <v>(2 : 0)</v>
       </c>
       <c r="I41"/>
       <c r="J41" s="19"/>
@@ -8355,15 +8371,15 @@
       </c>
       <c r="B6" s="2" t="str">
         <f>IF(Resultate!$H$26=Resultate!$J$26,"5. Rang",IF(Resultate!$H$26&lt;Resultate!$J$26,Resultate!$E$26,Resultate!$G$26))</f>
-        <v>5. Rang</v>
+        <v>Lendl / Kurzawa</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>IF(B6="5. Rang","mal schauen",VLOOKUP(B6,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D6" s="42" t="str">
+        <v>Patrick Lendl / Kacper Kurzawa</v>
+      </c>
+      <c r="D6" s="42">
         <f>IF(B6="5. Rang","zu Hause",VLOOKUP(B6,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8406,15 +8422,15 @@
       </c>
       <c r="B9" s="2" t="str">
         <f>IF(Resultate!$H$25=Resultate!$J$25,"7. Rang",IF(Resultate!$H$25&lt;Resultate!$J$25,Resultate!$E$25,Resultate!$G$25))</f>
-        <v>7. Rang</v>
+        <v>Adamson / Müller</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>IF(B9="7. Rang","mal schauen",VLOOKUP(B9,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D9" s="42" t="str">
+        <v>Roberto Adamson / Alexander Müller</v>
+      </c>
+      <c r="D9" s="42">
         <f>IF(B9="7. Rang","zu Hause",VLOOKUP(B9,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8572,26 +8588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8820,10 +8816,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8840,20 +8867,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEDA8E9-92EE-4A33-BCF6-871066605313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603114EC-8621-4A8D-9C4C-9620EB4BD949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4182,31 +4182,39 @@
         <f>IF($H$22=$J$22,CONCATENATE("Loser Match #",$A$22),IF($H$22&lt;$J$22,$E$22,$G$22))</f>
         <v>Baltermi / Hill Azpeitia</v>
       </c>
-      <c r="H27" s="66" t="str">
+      <c r="H27" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J27" s="66" t="str">
+      <c r="J27" s="66">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L27" s="101"/>
+      <c r="L27" s="101">
+        <v>21</v>
+      </c>
       <c r="M27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
+      <c r="N27" s="102">
+        <v>15</v>
+      </c>
+      <c r="O27" s="102">
+        <v>21</v>
+      </c>
       <c r="P27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="102"/>
+      <c r="Q27" s="102">
+        <v>15</v>
+      </c>
       <c r="R27" s="92"/>
       <c r="S27" s="6" t="s">
         <v>17</v>
@@ -4300,7 +4308,7 @@
       </c>
       <c r="G29" s="6" t="str">
         <f>IF($H$27=$J$27,CONCATENATE("Winner Match #",$A$27),IF($H$27&gt;$J$27,$E$27,$G$27))</f>
-        <v>Winner Match #26</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="H29" s="66" t="str">
         <f t="shared" si="4"/>
@@ -6894,13 +6902,13 @@
         <f>Resultate!G27</f>
         <v>Baltermi / Hill Azpeitia</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27">
         <f>Resultate!H27</f>
-        <v/>
-      </c>
-      <c r="H27" t="str">
+        <v>2</v>
+      </c>
+      <c r="H27">
         <f>Resultate!J27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I27" s="129">
         <f>Resultate!K27</f>
@@ -6908,19 +6916,19 @@
       </c>
       <c r="J27">
         <f>Resultate!L27</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K27">
         <f>Resultate!N27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L27">
         <f>Resultate!O27</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M27">
         <f>Resultate!Q27</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <f>Resultate!R27</f>
@@ -6955,7 +6963,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S27" t="s">
         <v>96</v>
@@ -7076,7 +7084,7 @@
       </c>
       <c r="F29" t="str">
         <f>Resultate!G29</f>
-        <v>Winner Match #26</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="G29" t="str">
         <f>Resultate!H29</f>
@@ -7139,7 +7147,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7231,7 +7239,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_2_court2</v>
+        <v>upcoming_1_court2</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -7993,7 +8001,7 @@
       </c>
       <c r="F36" s="14" t="str">
         <f>CONCATENATE(Resultate!$G$29," ")</f>
-        <v xml:space="preserve">Winner Match #26 </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="G36" s="21" t="str">
         <f>CONCATENATE("",Resultate!$A$27,"")</f>
@@ -8028,7 +8036,7 @@
       <c r="F37" s="26"/>
       <c r="G37" s="23" t="str">
         <f>CONCATENATE("(",Resultate!$J$27," : ",Resultate!$H$27,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="H37" s="113" t="str">
         <f>CONCATENATE(Resultate!$E$25," ")</f>
@@ -8388,15 +8396,15 @@
       </c>
       <c r="B7" s="2" t="str">
         <f>IF(Resultate!$H$27=Resultate!$J$27,"5. Rang",IF(Resultate!$H$27&lt;Resultate!$J$27,Resultate!$E$27,Resultate!$G$27))</f>
-        <v>5. Rang</v>
+        <v>Baltermi / Hill Azpeitia</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IF(B7="5. Rang","mal schauen",VLOOKUP(B7,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D7" s="42" t="str">
+        <v>Andrin Baltermi / Oscar Hill Azpeitia</v>
+      </c>
+      <c r="D7" s="42">
         <f>IF(B7="5. Rang","zu Hause",VLOOKUP(B7,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8817,6 +8825,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8825,15 +8842,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8856,6 +8864,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8864,12 +8880,4 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603114EC-8621-4A8D-9C4C-9620EB4BD949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659EF2ED-6843-40F8-98F7-51D60A42EA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4250,31 +4250,39 @@
         <f>IF($H$26=$J$26,CONCATENATE("Winner Match #",$A$26),IF($H$26&gt;$J$26,$E$26,$G$26))</f>
         <v>Allemann / Schaller</v>
       </c>
-      <c r="H28" s="67" t="str">
+      <c r="H28" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="67" t="str">
+      <c r="J28" s="67">
         <f t="shared" si="5"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K28" s="98">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L28" s="99"/>
+      <c r="L28" s="99">
+        <v>15</v>
+      </c>
       <c r="M28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
+      <c r="N28" s="100">
+        <v>21</v>
+      </c>
+      <c r="O28" s="100">
+        <v>15</v>
+      </c>
       <c r="P28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="100"/>
+      <c r="Q28" s="100">
+        <v>21</v>
+      </c>
       <c r="R28" s="96"/>
       <c r="S28" s="7" t="s">
         <v>17</v>
@@ -4361,7 +4369,7 @@
       </c>
       <c r="E30" s="7" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Loser Match #",$A$28),IF($H$28&lt;$J$28,$E$28,$G$28))</f>
-        <v>Loser Match #27</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>7</v>
@@ -4421,7 +4429,7 @@
       </c>
       <c r="E31" s="6" t="str">
         <f>IF($H$28=$J$28,CONCATENATE("Winner Match #",$A$28),IF($H$28&gt;$J$28,$E$28,$G$28))</f>
-        <v>Winner Match #27</v>
+        <v>Allemann / Schaller</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>7</v>
@@ -6994,13 +7002,13 @@
         <f>Resultate!G28</f>
         <v>Allemann / Schaller</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28">
         <f>Resultate!H28</f>
-        <v/>
-      </c>
-      <c r="H28" t="str">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <f>Resultate!J28</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I28" s="129">
         <f>Resultate!K28</f>
@@ -7008,19 +7016,19 @@
       </c>
       <c r="J28">
         <f>Resultate!L28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K28">
         <f>Resultate!N28</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L28">
         <f>Resultate!O28</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M28">
         <f>Resultate!Q28</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <f>Resultate!R28</f>
@@ -7055,7 +7063,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S28" t="s">
         <v>96</v>
@@ -7172,7 +7180,7 @@
       </c>
       <c r="E30" t="str">
         <f>Resultate!E30</f>
-        <v>Loser Match #27</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="F30" t="str">
         <f>Resultate!G30</f>
@@ -7537,7 +7545,7 @@
       <c r="D13" s="22"/>
       <c r="E13" s="117" t="str">
         <f>CONCATENATE("(",Resultate!$H$28," : ",Resultate!$J$28,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="23" t="str">
@@ -7692,12 +7700,12 @@
       <c r="C20"/>
       <c r="D20" s="121" t="str">
         <f>CONCATENATE(Resultate!$E$31," ")</f>
-        <v xml:space="preserve">Winner Match #27 </v>
+        <v xml:space="preserve">Allemann / Schaller </v>
       </c>
       <c r="E20" s="122"/>
       <c r="F20" s="121" t="str">
         <f>CONCATENATE(Resultate!$E$30," ")</f>
-        <v xml:space="preserve">Loser Match #27 </v>
+        <v xml:space="preserve">Bosshard / Strebel </v>
       </c>
       <c r="H20" s="123" t="str">
         <f>CONCATENATE(Resultate!$G$24," ")</f>
@@ -8825,15 +8833,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8842,6 +8841,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8864,14 +8872,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8880,4 +8880,12 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659EF2ED-6843-40F8-98F7-51D60A42EA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65ED22-B110-4916-915D-2475AAF7F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
   <si>
     <t>Seed</t>
   </si>
@@ -2399,7 +2399,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
@@ -4490,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E65B55-65C4-4E99-BEFB-6647B9FBC277}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7254,8 +7254,100 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="P31" s="129"/>
-      <c r="Q31" s="129"/>
+      <c r="A31">
+        <f>Resultate!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="130" t="str">
+        <f>Resultate!B31</f>
+        <v>F</v>
+      </c>
+      <c r="C31">
+        <f>Resultate!C31</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="129">
+        <f>Resultate!D31</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E31" t="str">
+        <f>Resultate!E31</f>
+        <v>Allemann / Schaller</v>
+      </c>
+      <c r="F31" t="str">
+        <f>Resultate!G31</f>
+        <v>Winner Match #28</v>
+      </c>
+      <c r="G31" t="str">
+        <f>Resultate!H31</f>
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <f>Resultate!J31</f>
+        <v/>
+      </c>
+      <c r="I31" s="129">
+        <f>Resultate!K31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>Resultate!L31</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>Resultate!N31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>Resultate!O31</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>Resultate!Q31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>Resultate!R31</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f>Resultate!T31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="129">
+        <f>Resultate!U31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="129">
+        <f>Resultate!V31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" t="str" cm="1">
+        <f t="array" ref="R31">IF(C31=0,"",_xlfn.LET(
+_xlpm.court,$C31,
+_xlpm.rngRows,ROW($C$2:$C$1000),
+_xlpm.mask,($C$2:$C$1000=_xlpm.court)*(_xlpm.rngRows&lt;=ROW()),
+_xlpm.g,_xlfn._xlws.FILTER($G$2:$G$1000,_xlpm.mask),
+_xlpm.h,_xlfn._xlws.FILTER($H$2:$H$1000,_xlpm.mask),
+_xlpm.blankMask,(_xlpm.g="")*(_xlpm.h=""),
+_xlpm.compMask,(_xlpm.g&lt;&gt;"")+(_xlpm.h&lt;&gt;""),
+_xlpm.lastCompPos,IFERROR(LOOKUP(2,1/(_xlpm.compMask&gt;0),_xlfn.SEQUENCE(ROWS(_xlpm.compMask))),0),
+_xlpm.currBlank,AND($G31="",$H31=""),
+_xlpm.blanksAfter,SUM((_xlfn.SEQUENCE(ROWS(_xlpm.blankMask))&gt;_xlpm.lastCompPos)*_xlpm.blankMask),
+IF(NOT(_xlpm.currBlank),
+"completed",
+IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
+)
+))</f>
+        <v>in_progress</v>
+      </c>
+      <c r="S31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8833,6 +8925,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
@@ -8841,15 +8942,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8872,6 +8964,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8880,12 +8980,4 @@
     <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F65ED22-B110-4916-915D-2475AAF7F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C67AC10-31B3-4CB5-9494-67A4DC09A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anmeldung" sheetId="4" r:id="rId1"/>
@@ -2399,8 +2399,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4318,36 +4318,48 @@
         <f>IF($H$27=$J$27,CONCATENATE("Winner Match #",$A$27),IF($H$27&gt;$J$27,$E$27,$G$27))</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="H29" s="66" t="str">
+      <c r="H29" s="66">
         <f t="shared" si="4"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="66" t="str">
+      <c r="J29" s="66">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="94">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L29" s="101"/>
+      <c r="L29" s="101">
+        <v>21</v>
+      </c>
       <c r="M29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
+      <c r="N29" s="102">
+        <v>15</v>
+      </c>
+      <c r="O29" s="102">
+        <v>15</v>
+      </c>
       <c r="P29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="92"/>
+      <c r="Q29" s="102">
+        <v>21</v>
+      </c>
+      <c r="R29" s="92">
+        <v>15</v>
+      </c>
       <c r="S29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T29" s="92"/>
+      <c r="T29" s="92">
+        <v>8</v>
+      </c>
       <c r="U29" s="69"/>
       <c r="V29" s="69"/>
       <c r="W29"/>
@@ -4376,7 +4388,7 @@
       </c>
       <c r="G30" s="7" t="str">
         <f>IF($H$29=$J$29,CONCATENATE("Loser Match #",$A$29),IF($H$29&lt;$J$29,$E$29,$G$29))</f>
-        <v>Loser Match #28</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="H30" s="67" t="str">
         <f>IF(L30=N30,"",SUM(IF(L30&gt;N30,1,0),IF(O30&gt;Q30,1,0),IF(R30&lt;=T30,0,1)))</f>
@@ -4436,7 +4448,7 @@
       </c>
       <c r="G31" s="6" t="str">
         <f>IF($H$29=$J$29,CONCATENATE("Winner Match #",$A$29),IF($H$29&gt;$J$29,$E$29,$G$29))</f>
-        <v>Winner Match #28</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="H31" s="66" t="str">
         <f>IF(L31=N31,"",SUM(IF(L31&gt;N31,1,0),IF(O31&gt;Q31,1,0),IF(R31&lt;=T31,0,1)))</f>
@@ -4492,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E65B55-65C4-4E99-BEFB-6647B9FBC277}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:S32"/>
     </sheetView>
   </sheetViews>
@@ -7094,13 +7106,13 @@
         <f>Resultate!G29</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29">
         <f>Resultate!H29</f>
-        <v/>
-      </c>
-      <c r="H29" t="str">
+        <v>2</v>
+      </c>
+      <c r="H29">
         <f>Resultate!J29</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I29" s="129">
         <f>Resultate!K29</f>
@@ -7108,27 +7120,27 @@
       </c>
       <c r="J29">
         <f>Resultate!L29</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K29">
         <f>Resultate!N29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L29">
         <f>Resultate!O29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M29">
         <f>Resultate!Q29</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <f>Resultate!R29</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O29">
         <f>Resultate!T29</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P29" s="129">
         <f>Resultate!U29</f>
@@ -7155,7 +7167,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S29" t="s">
         <v>96</v>
@@ -7184,7 +7196,7 @@
       </c>
       <c r="F30" t="str">
         <f>Resultate!G30</f>
-        <v>Loser Match #28</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="G30" t="str">
         <f>Resultate!H30</f>
@@ -7247,7 +7259,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>upcoming_1_court2</v>
+        <v>in_progress</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -7276,7 +7288,7 @@
       </c>
       <c r="F31" t="str">
         <f>Resultate!G31</f>
-        <v>Winner Match #28</v>
+        <v>Addiechi / Flückiger</v>
       </c>
       <c r="G31" t="str">
         <f>Resultate!H31</f>
@@ -7961,11 +7973,11 @@
       <c r="C28"/>
       <c r="D28" s="124" t="str">
         <f>CONCATENATE(Resultate!$G$31," ")</f>
-        <v xml:space="preserve">Winner Match #28 </v>
+        <v xml:space="preserve">Addiechi / Flückiger </v>
       </c>
       <c r="F28" s="125" t="str">
         <f>CONCATENATE(Resultate!$G$30," ")</f>
-        <v xml:space="preserve">Loser Match #28 </v>
+        <v xml:space="preserve">Bothen / Arndt </v>
       </c>
       <c r="H28"/>
       <c r="J28"/>
@@ -8131,7 +8143,7 @@
       <c r="D37" s="22"/>
       <c r="E37" s="36" t="str">
         <f>CONCATENATE("(",Resultate!$H$29," : ",Resultate!$J$29,")")</f>
-        <v>( : )</v>
+        <v>(2 : 1)</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="23" t="str">
@@ -8696,6 +8708,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8924,27 +8956,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
+    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a67d4247-ceba-4b8b-b2e1-e106cd044048">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8961,23 +8992,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d704cbfe-ff76-4611-8b34-db3dc32c7f3e"/>
-    <ds:schemaRef ds:uri="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/b2m.xlsx
+++ b/b2m.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucac\Documents\GitHub\beach_tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C67AC10-31B3-4CB5-9494-67A4DC09A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76FF3EA-8977-42F6-B306-1D2A80C84573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,7 +2400,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -4390,31 +4390,39 @@
         <f>IF($H$29=$J$29,CONCATENATE("Loser Match #",$A$29),IF($H$29&lt;$J$29,$E$29,$G$29))</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="H30" s="67" t="str">
+      <c r="H30" s="67">
         <f>IF(L30=N30,"",SUM(IF(L30&gt;N30,1,0),IF(O30&gt;Q30,1,0),IF(R30&lt;=T30,0,1)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="67" t="str">
+      <c r="J30" s="67">
         <f>IF(L30=N30,"",SUM(IF(L30&lt;N30,1,0),IF(O30&lt;Q30,1,0),IF(R30&gt;=T30,0,1)))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="K30" s="98">
         <f>SUM(V30-U30)</f>
         <v>0</v>
       </c>
-      <c r="L30" s="99"/>
+      <c r="L30" s="99">
+        <v>15</v>
+      </c>
       <c r="M30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
+      <c r="N30" s="100">
+        <v>21</v>
+      </c>
+      <c r="O30" s="100">
+        <v>15</v>
+      </c>
       <c r="P30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Q30" s="100"/>
+      <c r="Q30" s="100">
+        <v>21</v>
+      </c>
       <c r="R30" s="96"/>
       <c r="S30" s="7" t="s">
         <v>17</v>
@@ -4505,7 +4513,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:S32"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -7198,13 +7206,13 @@
         <f>Resultate!G30</f>
         <v>Bothen / Arndt</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30">
         <f>Resultate!H30</f>
-        <v/>
-      </c>
-      <c r="H30" t="str">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <f>Resultate!J30</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I30" s="129">
         <f>Resultate!K30</f>
@@ -7212,19 +7220,19 @@
       </c>
       <c r="J30">
         <f>Resultate!L30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K30">
         <f>Resultate!N30</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L30">
         <f>Resultate!O30</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M30">
         <f>Resultate!Q30</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <f>Resultate!R30</f>
@@ -7259,7 +7267,7 @@
 IF(_xlpm.blanksAfter=1,"in_progress","upcoming_"&amp;(_xlpm.blanksAfter-1)&amp;"_court"&amp;_xlpm.court)
 )
 ))</f>
-        <v>in_progress</v>
+        <v>completed</v>
       </c>
       <c r="S30" t="s">
         <v>96</v>
@@ -7372,7 +7380,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="9" x14ac:dyDescent="0.35"/>
@@ -7939,7 +7947,7 @@
       </c>
       <c r="F26" s="32" t="str">
         <f>CONCATENATE("(",Resultate!$H$30," : ",Resultate!$J$30,")")</f>
-        <v>( : )</v>
+        <v>(0 : 2)</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -8455,15 +8463,15 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>IF(Resultate!$H$30=Resultate!$J$30,"3. Rang",IF(Resultate!$H$30&gt;Resultate!$J$30,Resultate!$E$30,Resultate!$G$30))</f>
-        <v>3. Rang</v>
+        <v>Bothen / Arndt</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>IF(B4="3. Rang","mal schauen",VLOOKUP(B4,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D4" s="42" t="str">
+        <v>Jacob Bothen / Tommy Arndt</v>
+      </c>
+      <c r="D4" s="42">
         <f>IF(B4="3. Rang","zu Hause",VLOOKUP(B4,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8473,15 +8481,15 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>IF(Resultate!$H$30=Resultate!$J$30,"4. Rang",IF(Resultate!$H$30&lt;Resultate!$J$30,Resultate!$E$30,Resultate!$G$30))</f>
-        <v>4. Rang</v>
+        <v>Bosshard / Strebel</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>IF(B5="4. Rang","mal schauen",VLOOKUP(B5,Anmeldung!$L$2:$M$17,2,FALSE))</f>
-        <v>mal schauen</v>
-      </c>
-      <c r="D5" s="42" t="str">
+        <v>Julian Bosshard / Raphael Strebel</v>
+      </c>
+      <c r="D5" s="42">
         <f>IF(B5="4. Rang","zu Hause",VLOOKUP(B5,Anmeldung!$I$2:$J$17,2,FALSE))</f>
-        <v>zu Hause</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8719,15 +8727,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D9214984AE3BD84C9E574E78850AAA3B" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6369a39dc7aedec7fd62eeb0a289445a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a67d4247-ceba-4b8b-b2e1-e106cd044048" xmlns:ns3="d704cbfe-ff76-4611-8b34-db3dc32c7f3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d3638ed41143bbf6a5e0a931dae7110" ns2:_="" ns3:_="">
     <xsd:import namespace="a67d4247-ceba-4b8b-b2e1-e106cd044048"/>
@@ -8956,6 +8955,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A45E2ED-7E18-4292-A909-F4D5BE40AF6D}">
   <ds:schemaRefs>
@@ -8968,14 +8976,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43E384A2-CB97-4FA1-A706-347B67FB7B7A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8992,4 +8992,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BA0585E-29EC-48FB-AE84-B1F7932E2417}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>